--- a/Netflix Three-Statement Model.xlsx
+++ b/Netflix Three-Statement Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084EAE7-0A83-45C8-9AB4-834EFC6FA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E5F0C-EBC7-4CEC-A433-613120A80BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -735,12 +735,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -804,6 +801,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1147,18 +1151,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>162</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>2021</v>
       </c>
@@ -1192,53 +1196,53 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B3" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1248,231 +1252,231 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="52">
         <v>29697844</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="52">
         <v>31615550</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="52">
         <v>33723297</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="53">
         <f>F110</f>
         <v>37695392.592958532</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="53">
         <f t="shared" ref="G8:J8" si="0">G110</f>
         <v>41030894.698428616</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="53">
         <f t="shared" si="0"/>
         <v>44217084.478374399</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="53">
         <f t="shared" si="0"/>
         <v>48055719.933752343</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="54">
         <f t="shared" si="0"/>
         <v>51750223.47993952</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="52">
         <v>17332683</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="52">
         <v>19168285</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <v>19715368</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <f>F8*'Assumptions and Memos'!E5</f>
         <v>22297439.653935332</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <f>G8*'Assumptions and Memos'!F5</f>
         <v>24270443.562274683</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="53">
         <f>H8*'Assumptions and Memos'!G5</f>
         <v>26155126.794293802</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="53">
         <f>I8*'Assumptions and Memos'!H5</f>
         <v>28425742.286854945</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="54">
         <f>J8*'Assumptions and Memos'!I5</f>
         <v>30611101.403866686</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="52">
         <v>2545146</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="52">
         <v>2530502</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="52">
         <v>2657883</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="53">
         <f>F8*'Assumptions and Memos'!E6</f>
         <v>3072873.2460851562</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="53">
         <f>G8*'Assumptions and Memos'!F6</f>
         <v>3344778.4970222255</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="53">
         <f>H8*'Assumptions and Memos'!G6</f>
         <v>3604512.0256650401</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="53">
         <f>I8*'Assumptions and Memos'!H6</f>
         <v>3917431.9710725914</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="54">
         <f>J8*'Assumptions and Memos'!I6</f>
         <v>4218602.4941451112</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="52">
         <v>2273885</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="52">
         <v>2711041</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <v>2675758</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="53">
         <f>F8*'Assumptions and Memos'!E7</f>
         <v>3036515.6426784331</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="53">
         <f>G8*'Assumptions and Memos'!F7</f>
         <v>3305203.7666837713</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="53">
         <f>H8*'Assumptions and Memos'!G7</f>
         <v>3561864.1817063433</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="53">
         <f>I8*'Assumptions and Memos'!H7</f>
         <v>3871081.7227639346</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="54">
         <f>J8*'Assumptions and Memos'!I7</f>
         <v>4168688.8582318351</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="52">
         <v>1351621</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="52">
         <v>1572891</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <v>1720285</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="53">
         <f>F8*'Assumptions and Memos'!E8</f>
         <v>1837961.3297714656</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="53">
         <f>G8*'Assumptions and Memos'!F8</f>
         <v>2000594.5712241756</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="53">
         <f>H8*'Assumptions and Memos'!G8</f>
         <v>2155947.6051635891</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="53">
         <f>I8*'Assumptions and Memos'!H8</f>
         <v>2343112.7476588092</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="54">
         <f>J8*'Assumptions and Memos'!I8</f>
         <v>2523250.2706690882</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="47">
         <f>C8-SUM(C9:C12)</f>
         <v>6194509</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="47">
         <f t="shared" ref="D13:E13" si="1">D8-SUM(D9:D12)</f>
         <v>5632831</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="47">
         <f t="shared" si="1"/>
         <v>6954003</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="47">
         <f t="shared" ref="F13" si="2">F8-SUM(F9:F12)</f>
         <v>7450602.7204881459</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="47">
         <f t="shared" ref="G13" si="3">G8-SUM(G9:G12)</f>
         <v>8109874.3012237586</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="47">
         <f t="shared" ref="H13" si="4">H8-SUM(H9:H12)</f>
         <v>8739633.8715456203</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="47">
         <f t="shared" ref="I13" si="5">I8-SUM(I9:I12)</f>
         <v>9498351.2054020613</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="48">
         <f t="shared" ref="J13" si="6">J8-SUM(J9:J12)</f>
         <v>10228580.453026801</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1485,70 +1489,70 @@
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="52">
         <v>-765620</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="52">
         <v>-706212</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <v>-699826</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="53">
         <f>'Assumptions and Memos'!E10*F8</f>
         <v>-865358.24811097782</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="53">
         <f>'Assumptions and Memos'!F10*G8</f>
         <v>-941930.05331083259</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="53">
         <f>'Assumptions and Memos'!G10*H8</f>
         <v>-1015074.1543922477</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="53">
         <f>'Assumptions and Memos'!H10*I8</f>
         <v>-1103196.1933021978</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="54">
         <f>'Assumptions and Memos'!I10*J8</f>
         <v>-1188009.452866592</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="52">
         <v>411214</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="52">
         <v>337310</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <v>-48772</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="53">
         <f>E68*'Assumptions and Memos'!E11</f>
         <v>355845.65</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="53">
         <f>F68*'Assumptions and Memos'!F11</f>
         <v>502876.12051909353</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="53">
         <f>G68*'Assumptions and Memos'!G11</f>
         <v>692509.59303409257</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="53">
         <f>H68*'Assumptions and Memos'!H11</f>
         <v>882892.25150267675</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="54">
         <f>I68*'Assumptions and Memos'!I11</f>
         <v>1083454.9775544021</v>
       </c>
@@ -1556,44 +1560,44 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="47">
         <f>C13+SUM(C16:C17)</f>
         <v>5840103</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="47">
         <f t="shared" ref="D18:E18" si="7">D13+SUM(D16:D17)</f>
         <v>5263929</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="47">
         <f t="shared" si="7"/>
         <v>6205405</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="47">
         <f t="shared" ref="F18" si="8">F13+SUM(F16:F17)</f>
         <v>6941090.1223771684</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="47">
         <f t="shared" ref="G18" si="9">G13+SUM(G16:G17)</f>
         <v>7670820.3684320198</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="47">
         <f t="shared" ref="H18" si="10">H13+SUM(H16:H17)</f>
         <v>8417069.3101874646</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="47">
         <f t="shared" ref="I18" si="11">I13+SUM(I16:I17)</f>
         <v>9278047.2636025399</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="48">
         <f t="shared" ref="J18" si="12">J13+SUM(J16:J17)</f>
         <v>10124025.977714611</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1604,95 +1608,95 @@
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="52">
         <v>-723875</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="52">
         <v>-772005</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="52">
         <v>-797415</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="53">
         <f>F18*'Assumptions and Memos'!E9</f>
         <v>-923423.59321944206</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="53">
         <f>G18*'Assumptions and Memos'!F9</f>
         <v>-1020504.9037934791</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="53">
         <f>H18*'Assumptions and Memos'!G9</f>
         <v>-1119783.8163392819</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="53">
         <f>I18*'Assumptions and Memos'!H9</f>
         <v>-1234325.9619400343</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="54">
         <f>J18*'Assumptions and Memos'!I9</f>
         <v>-1346872.6498808891</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="50">
         <f>C18+C20</f>
         <v>5116228</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="50">
         <f t="shared" ref="D21:E21" si="13">D18+D20</f>
         <v>4491924</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="50">
         <f t="shared" si="13"/>
         <v>5407990</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="50">
         <f t="shared" ref="F21:J21" si="14">F18+F20</f>
         <v>6017666.5291577261</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="50">
         <f t="shared" si="14"/>
         <v>6650315.4646385405</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="50">
         <f t="shared" si="14"/>
         <v>7297285.4938481823</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="50">
         <f t="shared" si="14"/>
         <v>8043721.3016625056</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f t="shared" si="14"/>
         <v>8777153.3278337214</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -1702,13 +1706,13 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>33</v>
       </c>
@@ -1718,120 +1722,120 @@
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="52">
         <f t="shared" ref="C26:J26" si="15">C21</f>
         <v>5116228</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="52">
         <f t="shared" si="15"/>
         <v>4491924</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="52">
         <f t="shared" si="15"/>
         <v>5407990</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="53">
         <f t="shared" si="15"/>
         <v>6017666.5291577261</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="53">
         <f t="shared" si="15"/>
         <v>6650315.4646385405</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="53">
         <f t="shared" si="15"/>
         <v>7297285.4938481823</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="53">
         <f t="shared" si="15"/>
         <v>8043721.3016625056</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="54">
         <f t="shared" si="15"/>
         <v>8777153.3278337214</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="52">
         <v>-17702202</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="52">
         <v>-16839038</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="52">
         <v>-12554703</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="53">
         <f>F132*(-1)</f>
         <v>-14663974.356975019</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="53">
         <f t="shared" ref="G28:J28" si="16">G132*(-1)</f>
         <v>-15961525.966807202</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="53">
         <f t="shared" si="16"/>
         <v>-17200993.233645231</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="53">
         <f t="shared" si="16"/>
         <v>-18694269.944973398</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="54">
         <f t="shared" si="16"/>
         <v>-20131477.5593905</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="52">
         <v>232898</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="52">
         <v>179310</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="52">
         <v>-585602</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="53">
         <f>F79-E79+F85-E85</f>
         <v>312046.00295761833</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="53">
         <f t="shared" ref="G29:J29" si="17">G79-F79+G85-F85</f>
         <v>326575.69569183839</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="53">
         <f t="shared" si="17"/>
         <v>463609.47400817694</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="53">
         <f t="shared" si="17"/>
         <v>596684.64798555849</v>
       </c>
-      <c r="J29" s="57">
+      <c r="J29" s="54">
         <f t="shared" si="17"/>
         <v>656086.20322558144</v>
       </c>
@@ -1839,629 +1843,629 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="58" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="52">
         <v>12230367</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="52">
         <v>14026132</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="52">
         <v>14197437</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="53">
         <f>F133</f>
         <v>14448037.3944492</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="53">
         <f t="shared" ref="G30:J30" si="18">G133</f>
         <v>14546586.253842739</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="53">
         <f t="shared" si="18"/>
         <v>15192333.481145695</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="53">
         <f t="shared" si="18"/>
         <v>16109041.418513622</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="54">
         <f t="shared" si="18"/>
         <v>17288882.607229933</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="52">
         <v>208412</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="52">
         <v>336682</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="52">
         <v>356947</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="53">
         <f>F144*(-1)</f>
         <v>257807.32424686657</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="53">
         <f t="shared" ref="G31:J31" si="19">G144*(-1)</f>
         <v>250822.07296652431</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="53">
         <f t="shared" si="19"/>
         <v>248369.45017915778</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="53">
         <f t="shared" si="19"/>
         <v>249517.10687747406</v>
       </c>
-      <c r="J31" s="57">
+      <c r="J31" s="54">
         <f t="shared" si="19"/>
         <v>254293.13331628765</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="52">
         <v>403220</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="52">
         <v>575452</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="52">
         <v>339368</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="53">
         <f>F116</f>
         <v>540934.41649662401</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="53">
         <f t="shared" ref="G32:J32" si="20">G116</f>
         <v>597803.8992277357</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="53">
         <f t="shared" si="20"/>
         <v>655960.72023893683</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="53">
         <f t="shared" si="20"/>
         <v>723058.62541460653</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="54">
         <f t="shared" si="20"/>
         <v>788987.60688849248</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="52">
         <v>-430661</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="52">
         <v>-353111</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="52">
         <v>176296</v>
       </c>
-      <c r="F33" s="56">
-        <v>0</v>
-      </c>
-      <c r="G33" s="56">
-        <v>0</v>
-      </c>
-      <c r="H33" s="56">
-        <v>0</v>
-      </c>
-      <c r="I33" s="56">
-        <v>0</v>
-      </c>
-      <c r="J33" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+      <c r="F33" s="53">
+        <v>0</v>
+      </c>
+      <c r="G33" s="53">
+        <v>0</v>
+      </c>
+      <c r="H33" s="53">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53">
+        <v>0</v>
+      </c>
+      <c r="J33" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="52">
         <v>376777</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="52">
         <v>533543</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="52">
         <v>512075</v>
       </c>
-      <c r="F34" s="56">
-        <v>0</v>
-      </c>
-      <c r="G34" s="56">
-        <v>0</v>
-      </c>
-      <c r="H34" s="56">
-        <v>0</v>
-      </c>
-      <c r="I34" s="56">
-        <v>0</v>
-      </c>
-      <c r="J34" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+      <c r="F34" s="53">
+        <v>0</v>
+      </c>
+      <c r="G34" s="53">
+        <v>0</v>
+      </c>
+      <c r="H34" s="53">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53">
+        <v>0</v>
+      </c>
+      <c r="J34" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="52">
         <v>199548</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="52">
         <v>-166550</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="52">
         <v>-459359</v>
       </c>
-      <c r="F35" s="56">
-        <v>0</v>
-      </c>
-      <c r="G35" s="56">
-        <v>0</v>
-      </c>
-      <c r="H35" s="56">
-        <v>0</v>
-      </c>
-      <c r="I35" s="56">
-        <v>0</v>
-      </c>
-      <c r="J35" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+      <c r="F35" s="53">
+        <v>0</v>
+      </c>
+      <c r="G35" s="53">
+        <v>0</v>
+      </c>
+      <c r="H35" s="53">
+        <v>0</v>
+      </c>
+      <c r="I35" s="53">
+        <v>0</v>
+      </c>
+      <c r="J35" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="52">
         <v>-369681</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="52">
         <v>-353834</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="52">
         <v>-181003</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="53">
         <f>-(F70-E70)</f>
         <v>-327471.15016767755</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="53">
         <f t="shared" ref="G37:J37" si="21">-(G70-F70)</f>
         <v>-274988.52565414552</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="53">
         <f t="shared" si="21"/>
         <v>-262678.78188555874</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="53">
         <f t="shared" si="21"/>
         <v>-316468.3070255015</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="54">
         <f t="shared" si="21"/>
         <v>-304585.65189448278</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="52">
         <v>145115</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="52">
         <v>-158543</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="52">
         <v>93502</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="53">
         <f>F80-E80</f>
         <v>153858.70106838387</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="53">
         <f t="shared" ref="G38:J39" si="22">G80-F80</f>
         <v>79749.542695402168</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="53">
         <f t="shared" si="22"/>
         <v>76179.588516742922</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I38" s="53">
         <f t="shared" si="22"/>
         <v>91779.112247810699</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="54">
         <f t="shared" si="22"/>
         <v>88333.018231881782</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="52">
         <v>180338</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="52">
         <v>-55513</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="52">
         <v>103565</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="53">
         <f>F81-E81</f>
         <v>212479.271106662</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="53">
         <f t="shared" si="22"/>
         <v>178425.98184227967</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="53">
         <f t="shared" si="22"/>
         <v>170438.81905826088</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="53">
         <f t="shared" si="22"/>
         <v>205340.08925887663</v>
       </c>
-      <c r="J39" s="57">
+      <c r="J39" s="54">
         <f t="shared" si="22"/>
         <v>197630.04243564373</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="48" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="52">
         <v>91350</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="52">
         <v>27356</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="52">
         <v>178708</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="53">
         <f>F82-E82</f>
         <v>169959.97768770321</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="53">
         <f t="shared" ref="G40:J40" si="23">G82-F82</f>
         <v>142721.10279217525</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="53">
         <f t="shared" si="23"/>
         <v>136332.25365178799</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="53">
         <f t="shared" si="23"/>
         <v>164249.4197530942</v>
       </c>
-      <c r="J40" s="57">
+      <c r="J40" s="54">
         <f t="shared" si="23"/>
         <v>158082.23281187983</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="52">
         <v>-289099</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="52">
         <v>-217553</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="52">
         <v>-310920</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="53">
         <f>(F87-E87)-(F74-E74)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="53">
         <f t="shared" ref="G41:J41" si="24">(G87-F87)-(G74-F74)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41" s="53">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I41" s="53">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="54">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="59" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="47">
         <f>SUM(C26:C41)</f>
         <v>392610</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="47">
         <f t="shared" ref="D42:J42" si="25">SUM(D26:D41)</f>
         <v>2026257</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="47">
         <f t="shared" si="25"/>
         <v>7274301</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="47">
         <f t="shared" si="25"/>
         <v>7121344.1100280881</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42" s="47">
         <f t="shared" si="25"/>
         <v>6536485.5212358888</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="47">
         <f t="shared" si="25"/>
         <v>6776837.2651161514</v>
       </c>
-      <c r="I42" s="50">
+      <c r="I42" s="47">
         <f t="shared" si="25"/>
         <v>7172653.4697146481</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="48">
         <f t="shared" si="25"/>
         <v>7773384.9606884383</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="52">
         <v>-524585</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="52">
         <v>-407729</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="52">
         <v>-348552</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="53">
         <f>F145*(-1)</f>
         <v>-217396.86988528768</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="53">
         <f t="shared" ref="G44:J44" si="26">G145*(-1)</f>
         <v>-236633.37778043121</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="53">
         <f t="shared" si="26"/>
         <v>-255008.77162498544</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="53">
         <f t="shared" si="26"/>
         <v>-277146.95019871747</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="54">
         <f t="shared" si="26"/>
         <v>-298453.89121917577</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="52">
         <v>-26919</v>
       </c>
-      <c r="D45" s="55">
-        <v>0</v>
-      </c>
-      <c r="E45" s="55">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56">
-        <v>0</v>
-      </c>
-      <c r="G45" s="56">
-        <v>0</v>
-      </c>
-      <c r="H45" s="56">
-        <v>0</v>
-      </c>
-      <c r="I45" s="56">
-        <v>0</v>
-      </c>
-      <c r="J45" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="52">
+        <v>0</v>
+      </c>
+      <c r="E45" s="52">
+        <v>0</v>
+      </c>
+      <c r="F45" s="53">
+        <v>0</v>
+      </c>
+      <c r="G45" s="53">
+        <v>0</v>
+      </c>
+      <c r="H45" s="53">
+        <v>0</v>
+      </c>
+      <c r="I45" s="53">
+        <v>0</v>
+      </c>
+      <c r="J45" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="52">
         <v>-788349</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="52">
         <v>-757387</v>
       </c>
-      <c r="E46" s="55">
-        <v>0</v>
-      </c>
-      <c r="F46" s="56">
-        <v>0</v>
-      </c>
-      <c r="G46" s="56">
+      <c r="E46" s="52">
+        <v>0</v>
+      </c>
+      <c r="F46" s="53">
+        <v>0</v>
+      </c>
+      <c r="G46" s="53">
         <f t="shared" ref="G46:J46" si="27">F46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="53">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="53">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J46" s="57">
+      <c r="J46" s="54">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="55">
-        <v>0</v>
-      </c>
-      <c r="D47" s="55">
+      <c r="C47" s="52">
+        <v>0</v>
+      </c>
+      <c r="D47" s="52">
         <v>-911276</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="52">
         <v>-504862</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="53">
         <f>MIN(0,-(F69-E69))</f>
         <v>-1053440.4109443754</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="53">
         <f t="shared" ref="G47:J47" si="28">MIN(0,-(G69-F69))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="56">
+      <c r="H47" s="53">
         <f t="shared" si="28"/>
         <v>-36262.415209676372</v>
       </c>
-      <c r="I47" s="56">
+      <c r="I47" s="53">
         <f t="shared" si="28"/>
         <v>-59717.69260396692</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="54">
         <f t="shared" si="28"/>
         <v>-90633.728732468793</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="55">
-        <v>0</v>
-      </c>
-      <c r="D48" s="55">
-        <v>0</v>
-      </c>
-      <c r="E48" s="55">
+      <c r="C48" s="52">
+        <v>0</v>
+      </c>
+      <c r="D48" s="52">
+        <v>0</v>
+      </c>
+      <c r="E48" s="52">
         <v>1395165</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="53">
         <f>MAX(0,E69-F69)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="53">
         <f t="shared" ref="G48:J48" si="29">MAX(0,F69-G69)</f>
         <v>88238.947815970983</v>
       </c>
-      <c r="H48" s="56">
+      <c r="H48" s="53">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I48" s="56">
+      <c r="I48" s="53">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J48" s="57">
+      <c r="J48" s="54">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="59" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="47">
         <f>SUM(C44:C48)</f>
         <v>-1339853</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="47">
         <f t="shared" ref="D49:E49" si="30">SUM(D44:D48)</f>
         <v>-2076392</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="47">
         <f t="shared" si="30"/>
         <v>541751</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="47">
         <f>SUM(F44:F48)</f>
         <v>-1270837.2808296632</v>
       </c>
-      <c r="G49" s="50">
+      <c r="G49" s="47">
         <f>SUM(G44:G48)</f>
         <v>-148394.42996446023</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H49" s="47">
         <f>SUM(H44:H48)</f>
         <v>-291271.18683466181</v>
       </c>
-      <c r="I49" s="50">
+      <c r="I49" s="47">
         <f>SUM(I44:I48)</f>
         <v>-336864.64280268439</v>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="48">
         <f>SUM(J44:J48)</f>
         <v>-389087.61995164456</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
         <v>52</v>
       </c>
@@ -2472,341 +2476,341 @@
       <c r="I50" s="16"/>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="52">
         <v>-500000</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="52">
         <v>-700000</v>
       </c>
-      <c r="E51" s="55">
-        <v>0</v>
-      </c>
-      <c r="F51" s="56">
-        <v>0</v>
-      </c>
-      <c r="G51" s="56">
-        <v>0</v>
-      </c>
-      <c r="H51" s="56">
-        <v>0</v>
-      </c>
-      <c r="I51" s="56">
-        <v>0</v>
-      </c>
-      <c r="J51" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="52">
+        <v>0</v>
+      </c>
+      <c r="F51" s="53">
+        <v>0</v>
+      </c>
+      <c r="G51" s="53">
+        <v>0</v>
+      </c>
+      <c r="H51" s="53">
+        <v>0</v>
+      </c>
+      <c r="I51" s="53">
+        <v>0</v>
+      </c>
+      <c r="J51" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52" s="52">
         <v>174414</v>
       </c>
-      <c r="D52" s="55">
+      <c r="D52" s="52">
         <v>35746</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="52">
         <v>169990</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="53">
         <f>F115</f>
         <v>122731.27414266349</v>
       </c>
-      <c r="G52" s="56">
+      <c r="G52" s="53">
         <f t="shared" ref="G52:J52" si="31">G115</f>
         <v>133591.23328224148</v>
       </c>
-      <c r="H52" s="56">
+      <c r="H52" s="53">
         <f t="shared" si="31"/>
         <v>143965.05099454525</v>
       </c>
-      <c r="I52" s="56">
+      <c r="I52" s="53">
         <f t="shared" si="31"/>
         <v>156463.14659723549</v>
       </c>
-      <c r="J52" s="57">
+      <c r="J52" s="54">
         <f t="shared" si="31"/>
         <v>168491.96753151706</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="52">
         <v>-600022</v>
       </c>
-      <c r="D53" s="55">
-        <v>0</v>
-      </c>
-      <c r="E53" s="55">
+      <c r="D53" s="52">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52">
         <v>-6045347</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F53" s="53">
         <f>F120</f>
         <v>-3039406.9514981844</v>
       </c>
-      <c r="G53" s="56">
+      <c r="G53" s="53">
         <f t="shared" ref="G53:J53" si="32">G120</f>
         <v>-2773458.9695145474</v>
       </c>
-      <c r="H53" s="56">
+      <c r="H53" s="53">
         <f t="shared" si="32"/>
         <v>-2871182.2628566287</v>
       </c>
-      <c r="I53" s="56">
+      <c r="I53" s="53">
         <f t="shared" si="32"/>
         <v>-3035690.9924885626</v>
       </c>
-      <c r="J53" s="57">
+      <c r="J53" s="54">
         <f t="shared" si="32"/>
         <v>-3290777.9657430742</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="52">
         <v>-224168</v>
       </c>
-      <c r="D54" s="55">
-        <v>0</v>
-      </c>
-      <c r="E54" s="55">
-        <v>0</v>
-      </c>
-      <c r="F54" s="56">
-        <v>0</v>
-      </c>
-      <c r="G54" s="56">
-        <v>0</v>
-      </c>
-      <c r="H54" s="56">
-        <v>0</v>
-      </c>
-      <c r="I54" s="56">
-        <v>0</v>
-      </c>
-      <c r="J54" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="52">
+        <v>0</v>
+      </c>
+      <c r="E54" s="52">
+        <v>0</v>
+      </c>
+      <c r="F54" s="53">
+        <v>0</v>
+      </c>
+      <c r="G54" s="53">
+        <v>0</v>
+      </c>
+      <c r="H54" s="53">
+        <v>0</v>
+      </c>
+      <c r="I54" s="53">
+        <v>0</v>
+      </c>
+      <c r="J54" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="55">
-        <v>0</v>
-      </c>
-      <c r="E55" s="55">
+      <c r="C55" s="52">
+        <v>0</v>
+      </c>
+      <c r="D55" s="52">
+        <v>0</v>
+      </c>
+      <c r="E55" s="52">
         <v>-75446</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="53">
         <f>F83-E83</f>
         <v>6778.2585389664746</v>
       </c>
-      <c r="G55" s="56">
+      <c r="G55" s="53">
         <f t="shared" ref="G55:J55" si="33">G83-F83</f>
         <v>44446.09526085679</v>
       </c>
-      <c r="H55" s="56">
+      <c r="H55" s="53">
         <f t="shared" si="33"/>
         <v>49304.302952278231</v>
       </c>
-      <c r="I55" s="56">
+      <c r="I55" s="53">
         <f t="shared" si="33"/>
         <v>54693.540013871854</v>
       </c>
-      <c r="J55" s="57">
+      <c r="J55" s="54">
         <f t="shared" si="33"/>
         <v>60671.850936506875</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="59" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="47">
         <f>SUM(C51:C55)</f>
         <v>-1149776</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="47">
         <f t="shared" ref="D56:J56" si="34">SUM(D51:D55)</f>
         <v>-664254</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="47">
         <f t="shared" si="34"/>
         <v>-5950803</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="47">
         <f t="shared" si="34"/>
         <v>-2909897.4188165544</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56" s="47">
         <f t="shared" si="34"/>
         <v>-2595421.6409714492</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="47">
         <f t="shared" si="34"/>
         <v>-2677912.9089098051</v>
       </c>
-      <c r="I56" s="50">
+      <c r="I56" s="47">
         <f t="shared" si="34"/>
         <v>-2824534.3058774555</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="48">
         <f t="shared" si="34"/>
         <v>-3061614.1472750502</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57" s="52">
         <v>-86740</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="52">
         <v>-170140</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="52">
         <v>82684</v>
       </c>
-      <c r="F57" s="56">
-        <v>0</v>
-      </c>
-      <c r="G57" s="56">
-        <v>0</v>
-      </c>
-      <c r="H57" s="56">
-        <v>0</v>
-      </c>
-      <c r="I57" s="56">
-        <v>0</v>
-      </c>
-      <c r="J57" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="53">
+        <v>0</v>
+      </c>
+      <c r="G57" s="53">
+        <v>0</v>
+      </c>
+      <c r="H57" s="53">
+        <v>0</v>
+      </c>
+      <c r="I57" s="53">
+        <v>0</v>
+      </c>
+      <c r="J57" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="52">
         <f>SUM(C42,C49,C56,C57)</f>
         <v>-2183759</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="52">
         <f t="shared" ref="D58:J58" si="35">SUM(D42,D49,D56,D57)</f>
         <v>-884529</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="52">
         <f t="shared" si="35"/>
         <v>1947933</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="53">
         <f t="shared" si="35"/>
         <v>2940609.4103818703</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="53">
         <f t="shared" si="35"/>
         <v>3792669.4502999792</v>
       </c>
-      <c r="H58" s="56">
+      <c r="H58" s="53">
         <f t="shared" si="35"/>
         <v>3807653.1693716841</v>
       </c>
-      <c r="I58" s="56">
+      <c r="I58" s="53">
         <f t="shared" si="35"/>
         <v>4011254.521034508</v>
       </c>
-      <c r="J58" s="57">
+      <c r="J58" s="54">
         <f t="shared" si="35"/>
         <v>4322683.1934617432</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="52">
         <v>8238870</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="52">
         <v>6055111</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="52">
         <v>5170582</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F59" s="53">
         <f>E60</f>
         <v>7118515</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="53">
         <f t="shared" ref="G59:J59" si="36">F60</f>
         <v>10059124.41038187</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="53">
         <f t="shared" si="36"/>
         <v>13851793.86068185</v>
       </c>
-      <c r="I59" s="56">
+      <c r="I59" s="53">
         <f t="shared" si="36"/>
         <v>17659447.030053534</v>
       </c>
-      <c r="J59" s="57">
+      <c r="J59" s="54">
         <f t="shared" si="36"/>
         <v>21670701.551088043</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="59" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="47">
         <f>SUM(C58:C59)</f>
         <v>6055111</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="47">
         <f t="shared" ref="D60:E60" si="37">SUM(D58:D59)</f>
         <v>5170582</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <f t="shared" si="37"/>
         <v>7118515</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60" s="47">
         <f>SUM(F58:F59)</f>
         <v>10059124.41038187</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60" s="47">
         <f t="shared" ref="G60:J60" si="38">SUM(G58:G59)</f>
         <v>13851793.86068185</v>
       </c>
-      <c r="H60" s="50">
+      <c r="H60" s="47">
         <f t="shared" si="38"/>
         <v>17659447.030053534</v>
       </c>
-      <c r="I60" s="50">
+      <c r="I60" s="47">
         <f t="shared" si="38"/>
         <v>21670701.551088043</v>
       </c>
-      <c r="J60" s="51">
+      <c r="J60" s="48">
         <f t="shared" si="38"/>
         <v>25993384.744549785</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2817,59 +2821,59 @@
       <c r="I61" s="16"/>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="66">
+      <c r="C62" s="63">
         <v>-158894</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="63">
         <v>1618528</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="63">
         <v>6925749</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="64">
         <f>F42+F44</f>
         <v>6903947.2401428008</v>
       </c>
-      <c r="G62" s="67">
+      <c r="G62" s="64">
         <f>G42+G44</f>
         <v>6299852.1434554579</v>
       </c>
-      <c r="H62" s="67">
+      <c r="H62" s="64">
         <f>H42+H44</f>
         <v>6521828.4934911663</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="64">
         <f>I42+I44</f>
         <v>6895506.5195159307</v>
       </c>
-      <c r="J62" s="68">
+      <c r="J62" s="65">
         <f>J42+J44</f>
         <v>7474931.0694692628</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="60"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+    </row>
+    <row r="64" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="57"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+    </row>
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -2879,24 +2883,24 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="59"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="60"/>
+      <c r="C66" s="57"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>11</v>
       </c>
@@ -2906,36 +2910,36 @@
       <c r="I67" s="16"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="58" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="55">
+      <c r="C68" s="52">
         <v>6027804</v>
       </c>
-      <c r="D68" s="55">
+      <c r="D68" s="52">
         <v>5147176</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="52">
         <v>7116913</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="53">
         <f>F60-1602</f>
         <v>10057522.41038187</v>
       </c>
-      <c r="G68" s="56">
+      <c r="G68" s="53">
         <f>G60-1602</f>
         <v>13850191.86068185</v>
       </c>
-      <c r="H68" s="56">
+      <c r="H68" s="53">
         <f>H60-1602</f>
         <v>17657845.030053534</v>
       </c>
-      <c r="I68" s="56">
+      <c r="I68" s="53">
         <f>I60-1602</f>
         <v>21669099.551088043</v>
       </c>
-      <c r="J68" s="57">
+      <c r="J68" s="54">
         <f>J60-1602</f>
         <v>25991782.744549785</v>
       </c>
@@ -2943,262 +2947,262 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="58" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="55">
-        <v>0</v>
-      </c>
-      <c r="D69" s="55">
+      <c r="C69" s="52">
+        <v>0</v>
+      </c>
+      <c r="D69" s="52">
         <v>911276</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="52">
         <v>20973</v>
       </c>
-      <c r="F69" s="56">
+      <c r="F69" s="53">
         <f>F42*'Assumptions and Memos'!E15</f>
         <v>1074413.4109443754</v>
       </c>
-      <c r="G69" s="56">
+      <c r="G69" s="53">
         <f>G42*'Assumptions and Memos'!F15</f>
         <v>986174.46312840446</v>
       </c>
-      <c r="H69" s="56">
+      <c r="H69" s="53">
         <f>H42*'Assumptions and Memos'!G15</f>
         <v>1022436.8783380808</v>
       </c>
-      <c r="I69" s="56">
+      <c r="I69" s="53">
         <f>I42*'Assumptions and Memos'!H15</f>
         <v>1082154.5709420478</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="54">
         <f>J42*'Assumptions and Memos'!I15</f>
         <v>1172788.2996745165</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="58" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70" s="52">
         <v>2042021</v>
       </c>
-      <c r="D70" s="55">
+      <c r="D70" s="52">
         <v>3208021</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="52">
         <v>2780247</v>
       </c>
-      <c r="F70" s="56">
+      <c r="F70" s="53">
         <f>E70*(1+'Assumptions and Memos'!E4)</f>
         <v>3107718.1501676776</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="53">
         <f>F70*(1+'Assumptions and Memos'!F4)</f>
         <v>3382706.6758218231</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="53">
         <f>G70*(1+'Assumptions and Memos'!G4)</f>
         <v>3645385.4577073818</v>
       </c>
-      <c r="I70" s="56">
+      <c r="I70" s="53">
         <f>H70*(1+'Assumptions and Memos'!H4)</f>
         <v>3961853.7647328833</v>
       </c>
-      <c r="J70" s="57">
+      <c r="J70" s="54">
         <f>I70*(1+'Assumptions and Memos'!I4)</f>
         <v>4266439.4166273661</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="49" t="s">
+    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="47">
         <f>SUM(C68:C70)</f>
         <v>8069825</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="47">
         <f t="shared" ref="D71:J71" si="39">SUM(D68:D70)</f>
         <v>9266473</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <f t="shared" si="39"/>
         <v>9918133</v>
       </c>
-      <c r="F71" s="50">
+      <c r="F71" s="47">
         <f>SUM(F68:F70)</f>
         <v>14239653.971493924</v>
       </c>
-      <c r="G71" s="50">
+      <c r="G71" s="47">
         <f t="shared" si="39"/>
         <v>18219072.999632079</v>
       </c>
-      <c r="H71" s="50">
+      <c r="H71" s="47">
         <f t="shared" si="39"/>
         <v>22325667.366098996</v>
       </c>
-      <c r="I71" s="50">
+      <c r="I71" s="47">
         <f t="shared" si="39"/>
         <v>26713107.886762973</v>
       </c>
-      <c r="J71" s="51">
+      <c r="J71" s="48">
         <f t="shared" si="39"/>
         <v>31431010.460851666</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72" s="52">
         <v>30919539</v>
       </c>
-      <c r="D72" s="55">
+      <c r="D72" s="52">
         <v>32736713</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="52">
         <v>31658056</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72" s="53">
         <f>F134</f>
         <v>31873992.962525818</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="53">
         <f t="shared" ref="G72:J72" si="40">G134</f>
         <v>33288932.675490275</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="53">
         <f t="shared" si="40"/>
         <v>35297592.427989811</v>
       </c>
-      <c r="I72" s="56">
+      <c r="I72" s="53">
         <f t="shared" si="40"/>
         <v>37882820.954449579</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J72" s="54">
         <f t="shared" si="40"/>
         <v>40725415.906610146</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="52">
         <f>C146</f>
         <v>1323453</v>
       </c>
-      <c r="D73" s="55">
+      <c r="D73" s="52">
         <f t="shared" ref="D73:E73" si="41">D146</f>
         <v>1398257</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E73" s="52">
         <f t="shared" si="41"/>
         <v>1491444</v>
       </c>
-      <c r="F73" s="56">
+      <c r="F73" s="53">
         <f>F146</f>
         <v>1451033.5456384211</v>
       </c>
-      <c r="G73" s="56">
+      <c r="G73" s="53">
         <f t="shared" ref="G73:J73" si="42">G146</f>
         <v>1436844.8504523279</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="53">
         <f t="shared" si="42"/>
         <v>1443484.1718981555</v>
       </c>
-      <c r="I73" s="56">
+      <c r="I73" s="53">
         <f t="shared" si="42"/>
         <v>1471114.0152193988</v>
       </c>
-      <c r="J73" s="57">
+      <c r="J73" s="54">
         <f t="shared" si="42"/>
         <v>1515274.7731222869</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="52">
         <v>4271846</v>
       </c>
-      <c r="D74" s="55">
+      <c r="D74" s="52">
         <v>5193325</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E74" s="52">
         <v>5664359</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F74" s="53">
         <f>E74</f>
         <v>5664359</v>
       </c>
-      <c r="G74" s="56">
+      <c r="G74" s="53">
         <f t="shared" ref="G74:J74" si="43">F74</f>
         <v>5664359</v>
       </c>
-      <c r="H74" s="56">
+      <c r="H74" s="53">
         <f t="shared" si="43"/>
         <v>5664359</v>
       </c>
-      <c r="I74" s="56">
+      <c r="I74" s="53">
         <f t="shared" si="43"/>
         <v>5664359</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="54">
         <f t="shared" si="43"/>
         <v>5664359</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="49" t="s">
+    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="47">
         <f>SUM(C71:C74)</f>
         <v>44584663</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="47">
         <f t="shared" ref="D75:E75" si="44">SUM(D71:D74)</f>
         <v>48594768</v>
       </c>
-      <c r="E75" s="50">
+      <c r="E75" s="47">
         <f t="shared" si="44"/>
         <v>48731992</v>
       </c>
-      <c r="F75" s="50">
+      <c r="F75" s="47">
         <f>SUM(F71:F74)</f>
         <v>53229039.479658164</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75" s="47">
         <f t="shared" ref="G75" si="45">SUM(G71:G74)</f>
         <v>58609209.525574677</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="47">
         <f t="shared" ref="H75" si="46">SUM(H71:H74)</f>
         <v>64731102.965986967</v>
       </c>
-      <c r="I75" s="50">
+      <c r="I75" s="47">
         <f t="shared" ref="I75" si="47">SUM(I71:I74)</f>
         <v>71731401.856431961</v>
       </c>
-      <c r="J75" s="51">
+      <c r="J75" s="48">
         <f t="shared" ref="J75" si="48">SUM(J71:J74)</f>
         <v>79336060.140584096</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="48"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="45"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" s="13" t="s">
         <v>70</v>
       </c>
@@ -3208,7 +3212,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>20</v>
       </c>
@@ -3218,361 +3222,361 @@
       <c r="I78" s="16"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="58" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="52">
         <v>4292967</v>
       </c>
-      <c r="D79" s="55">
+      <c r="D79" s="52">
         <v>4480150</v>
       </c>
-      <c r="E79" s="55">
+      <c r="E79" s="52">
         <v>4466470</v>
       </c>
-      <c r="F79" s="56">
+      <c r="F79" s="53">
         <f>F136</f>
         <v>4428168.3848647112</v>
       </c>
-      <c r="G79" s="56">
+      <c r="G79" s="53">
         <f t="shared" ref="G79:J79" si="49">G136</f>
         <v>4624742.1655894918</v>
       </c>
-      <c r="H79" s="56">
+      <c r="H79" s="53">
         <f t="shared" si="49"/>
         <v>4903799.8795830319</v>
       </c>
-      <c r="I79" s="56">
+      <c r="I79" s="53">
         <f t="shared" si="49"/>
         <v>5262958.7475033049</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="54">
         <f t="shared" si="49"/>
         <v>5657872.8429206097</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="58" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="52">
         <v>837483</v>
       </c>
-      <c r="D80" s="55">
+      <c r="D80" s="52">
         <v>671513</v>
       </c>
-      <c r="E80" s="55">
+      <c r="E80" s="52">
         <v>747412</v>
       </c>
-      <c r="F80" s="56">
+      <c r="F80" s="53">
         <f>'Assumptions and Memos'!E17*'Assumptions and Memos'!E16</f>
         <v>901270.70106838387</v>
       </c>
-      <c r="G80" s="56">
+      <c r="G80" s="53">
         <f>'Assumptions and Memos'!F17*'Assumptions and Memos'!F16</f>
         <v>981020.24376378604</v>
       </c>
-      <c r="H80" s="56">
+      <c r="H80" s="53">
         <f>'Assumptions and Memos'!G17*'Assumptions and Memos'!G16</f>
         <v>1057199.832280529</v>
       </c>
-      <c r="I80" s="56">
+      <c r="I80" s="53">
         <f>'Assumptions and Memos'!H17*'Assumptions and Memos'!H16</f>
         <v>1148978.9445283397</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="54">
         <f>'Assumptions and Memos'!I17*'Assumptions and Memos'!I16</f>
         <v>1237311.9627602214</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="52">
         <v>1449351</v>
       </c>
-      <c r="D81" s="55">
+      <c r="D81" s="52">
         <v>1514650</v>
       </c>
-      <c r="E81" s="55">
+      <c r="E81" s="52">
         <v>1803960</v>
       </c>
-      <c r="F81" s="56">
+      <c r="F81" s="53">
         <f>E81*(1+'Assumptions and Memos'!E4)</f>
         <v>2016439.271106662</v>
       </c>
-      <c r="G81" s="56">
+      <c r="G81" s="53">
         <f>F81*(1+'Assumptions and Memos'!F4)</f>
         <v>2194865.2529489417</v>
       </c>
-      <c r="H81" s="56">
+      <c r="H81" s="53">
         <f>G81*(1+'Assumptions and Memos'!G4)</f>
         <v>2365304.0720072025</v>
       </c>
-      <c r="I81" s="56">
+      <c r="I81" s="53">
         <f>H81*(1+'Assumptions and Memos'!H4)</f>
         <v>2570644.1612660792</v>
       </c>
-      <c r="J81" s="57">
+      <c r="J81" s="54">
         <f>I81*(1+'Assumptions and Memos'!I4)</f>
         <v>2768274.2037017229</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="58" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="52">
         <v>1209342</v>
       </c>
-      <c r="D82" s="55">
+      <c r="D82" s="52">
         <v>1264661</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="52">
         <v>1442969</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="53">
         <f>E82*(1+'Assumptions and Memos'!E4)</f>
         <v>1612928.9776877032</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="53">
         <f>F82*(1+'Assumptions and Memos'!F4)</f>
         <v>1755650.0804798785</v>
       </c>
-      <c r="H82" s="56">
+      <c r="H82" s="53">
         <f>G82*(1+'Assumptions and Memos'!G4)</f>
         <v>1891982.3341316665</v>
       </c>
-      <c r="I82" s="56">
+      <c r="I82" s="53">
         <f>H82*(1+'Assumptions and Memos'!H4)</f>
         <v>2056231.7538847607</v>
       </c>
-      <c r="J82" s="57">
+      <c r="J82" s="54">
         <f>I82*(1+'Assumptions and Memos'!I4)</f>
         <v>2214313.9866966405</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="58" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83" s="52">
         <v>699823</v>
       </c>
-      <c r="D83" s="55">
-        <v>0</v>
-      </c>
-      <c r="E83" s="55">
+      <c r="D83" s="52">
+        <v>0</v>
+      </c>
+      <c r="E83" s="52">
         <v>399844</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="53">
         <f>AVERAGE(C83:E83)*(1+'Assumptions and Memos'!E18)</f>
         <v>406622.25853896647</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="53">
         <f>F83*(1+'Assumptions and Memos'!F18)</f>
         <v>451068.35379982326</v>
       </c>
-      <c r="H83" s="56">
+      <c r="H83" s="53">
         <f>G83*(1+'Assumptions and Memos'!G18)</f>
         <v>500372.65675210149</v>
       </c>
-      <c r="I83" s="56">
+      <c r="I83" s="53">
         <f>H83*(1+'Assumptions and Memos'!H18)</f>
         <v>555066.19676597335</v>
       </c>
-      <c r="J83" s="57">
+      <c r="J83" s="54">
         <f>I83*(1+'Assumptions and Memos'!I18)</f>
         <v>615738.04770248022</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="49" t="s">
+    <row r="84" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="47">
         <f>SUM(C79:C83)</f>
         <v>8488966</v>
       </c>
-      <c r="D84" s="50">
+      <c r="D84" s="47">
         <f t="shared" ref="D84:J84" si="50">SUM(D79:D83)</f>
         <v>7930974</v>
       </c>
-      <c r="E84" s="50">
+      <c r="E84" s="47">
         <f t="shared" si="50"/>
         <v>8860655</v>
       </c>
-      <c r="F84" s="50">
+      <c r="F84" s="47">
         <f t="shared" si="50"/>
         <v>9365429.5932664275</v>
       </c>
-      <c r="G84" s="50">
+      <c r="G84" s="47">
         <f t="shared" si="50"/>
         <v>10007346.096581921</v>
       </c>
-      <c r="H84" s="50">
+      <c r="H84" s="47">
         <f t="shared" si="50"/>
         <v>10718658.774754532</v>
       </c>
-      <c r="I84" s="50">
+      <c r="I84" s="47">
         <f t="shared" si="50"/>
         <v>11593879.803948458</v>
       </c>
-      <c r="J84" s="51">
+      <c r="J84" s="48">
         <f t="shared" si="50"/>
         <v>12493511.043781674</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="55">
+      <c r="C85" s="52">
         <v>3094213</v>
       </c>
-      <c r="D85" s="55">
+      <c r="D85" s="52">
         <v>3081277</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="52">
         <v>2578173</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="53">
         <f>F138</f>
         <v>2928520.6180929071</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="53">
         <f t="shared" ref="G85:J85" si="51">G138</f>
         <v>3058522.5330599649</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="53">
         <f t="shared" si="51"/>
         <v>3243074.2930746018</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="53">
         <f t="shared" si="51"/>
         <v>3480600.0731398873</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="54">
         <f t="shared" si="51"/>
         <v>3741772.1809481638</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="55">
+      <c r="C86" s="52">
         <v>14693072</v>
       </c>
-      <c r="D86" s="55">
+      <c r="D86" s="52">
         <v>14353076</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E86" s="52">
         <v>14143417</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F86" s="53">
         <f>E86</f>
         <v>14143417</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="53">
         <f t="shared" ref="G86:J86" si="52">F86</f>
         <v>14143417</v>
       </c>
-      <c r="H86" s="56">
+      <c r="H86" s="53">
         <f t="shared" si="52"/>
         <v>14143417</v>
       </c>
-      <c r="I86" s="56">
+      <c r="I86" s="53">
         <f t="shared" si="52"/>
         <v>14143417</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="54">
         <f t="shared" si="52"/>
         <v>14143417</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="52">
         <v>2459164</v>
       </c>
-      <c r="D87" s="55">
+      <c r="D87" s="52">
         <v>2452040</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="52">
         <v>2561434</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="53">
         <f>E87</f>
         <v>2561434</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="53">
         <f t="shared" ref="G87:J87" si="53">F87</f>
         <v>2561434</v>
       </c>
-      <c r="H87" s="56">
+      <c r="H87" s="53">
         <f t="shared" si="53"/>
         <v>2561434</v>
       </c>
-      <c r="I87" s="56">
+      <c r="I87" s="53">
         <f t="shared" si="53"/>
         <v>2561434</v>
       </c>
-      <c r="J87" s="57">
+      <c r="J87" s="54">
         <f t="shared" si="53"/>
         <v>2561434</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="49" t="s">
+    <row r="88" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="47">
         <f t="shared" ref="C88:J88" si="54">SUM(C84:C87)</f>
         <v>28735415</v>
       </c>
-      <c r="D88" s="50">
+      <c r="D88" s="47">
         <f t="shared" si="54"/>
         <v>27817367</v>
       </c>
-      <c r="E88" s="50">
+      <c r="E88" s="47">
         <f t="shared" si="54"/>
         <v>28143679</v>
       </c>
-      <c r="F88" s="50">
+      <c r="F88" s="47">
         <f t="shared" si="54"/>
         <v>28998801.211359337</v>
       </c>
-      <c r="G88" s="50">
+      <c r="G88" s="47">
         <f t="shared" si="54"/>
         <v>29770719.629641887</v>
       </c>
-      <c r="H88" s="50">
+      <c r="H88" s="47">
         <f t="shared" si="54"/>
         <v>30666584.067829132</v>
       </c>
-      <c r="I88" s="50">
+      <c r="I88" s="47">
         <f t="shared" si="54"/>
         <v>31779330.877088346</v>
       </c>
-      <c r="J88" s="51">
+      <c r="J88" s="48">
         <f t="shared" si="54"/>
         <v>32940134.224729836</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="48"/>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="45"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="17"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="13" t="s">
         <v>71</v>
       </c>
@@ -3582,226 +3586,226 @@
       <c r="I90" s="16"/>
       <c r="J90" s="17"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="55">
+      <c r="C91" s="52">
         <f>C117</f>
         <v>4024561</v>
       </c>
-      <c r="D91" s="55">
+      <c r="D91" s="52">
         <f t="shared" ref="D91:J91" si="55">D117</f>
         <v>4637601</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E91" s="52">
         <f t="shared" si="55"/>
         <v>5145172</v>
       </c>
-      <c r="F91" s="56">
+      <c r="F91" s="53">
         <f t="shared" si="55"/>
         <v>5808837.6906392882</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="53">
         <f t="shared" si="55"/>
         <v>6540232.8231492648</v>
       </c>
-      <c r="H91" s="56">
+      <c r="H91" s="53">
         <f t="shared" si="55"/>
         <v>7340158.5943827471</v>
       </c>
-      <c r="I91" s="56">
+      <c r="I91" s="53">
         <f t="shared" si="55"/>
         <v>8219680.3663945887</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="54">
         <f t="shared" si="55"/>
         <v>9177159.9408145975</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="55">
+      <c r="C92" s="52">
         <f>C122</f>
         <v>-824190</v>
       </c>
-      <c r="D92" s="55">
+      <c r="D92" s="52">
         <f t="shared" ref="D92:J92" si="56">D122</f>
         <v>-824190</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="52">
         <f t="shared" si="56"/>
         <v>-6922200</v>
       </c>
-      <c r="F92" s="56">
+      <c r="F92" s="53">
         <f t="shared" si="56"/>
         <v>-9961606.9514981844</v>
       </c>
-      <c r="G92" s="56">
+      <c r="G92" s="53">
         <f t="shared" si="56"/>
         <v>-12735065.921012731</v>
       </c>
-      <c r="H92" s="56">
+      <c r="H92" s="53">
         <f t="shared" si="56"/>
         <v>-15606248.18386936</v>
       </c>
-      <c r="I92" s="56">
+      <c r="I92" s="53">
         <f t="shared" si="56"/>
         <v>-18641939.176357921</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="54">
         <f t="shared" si="56"/>
         <v>-21932717.142100997</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="55">
+      <c r="C93" s="52">
         <v>-40495</v>
       </c>
-      <c r="D93" s="55">
+      <c r="D93" s="52">
         <v>-217306</v>
       </c>
-      <c r="E93" s="55">
+      <c r="E93" s="52">
         <v>-223945</v>
       </c>
-      <c r="F93" s="56">
+      <c r="F93" s="53">
         <f>E93</f>
         <v>-223945</v>
       </c>
-      <c r="G93" s="56">
+      <c r="G93" s="53">
         <f t="shared" ref="G93:J93" si="57">F93</f>
         <v>-223945</v>
       </c>
-      <c r="H93" s="56">
+      <c r="H93" s="53">
         <f t="shared" si="57"/>
         <v>-223945</v>
       </c>
-      <c r="I93" s="56">
+      <c r="I93" s="53">
         <f t="shared" si="57"/>
         <v>-223945</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="54">
         <f t="shared" si="57"/>
         <v>-223945</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="52">
         <f>C127</f>
         <v>12689372</v>
       </c>
-      <c r="D94" s="55">
+      <c r="D94" s="52">
         <f t="shared" ref="D94:J94" si="58">D127</f>
         <v>17181296</v>
       </c>
-      <c r="E94" s="55">
+      <c r="E94" s="52">
         <f t="shared" si="58"/>
         <v>22589286</v>
       </c>
-      <c r="F94" s="56">
+      <c r="F94" s="53">
         <f t="shared" si="58"/>
         <v>28606952.529157728</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="53">
         <f t="shared" si="58"/>
         <v>35257267.993796267</v>
       </c>
-      <c r="H94" s="56">
+      <c r="H94" s="53">
         <f t="shared" si="58"/>
         <v>42554553.487644449</v>
       </c>
-      <c r="I94" s="56">
+      <c r="I94" s="53">
         <f t="shared" si="58"/>
         <v>50598274.789306954</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="54">
         <f t="shared" si="58"/>
         <v>59375428.117140673</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="49" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="47">
         <f>SUM(C91:C94)</f>
         <v>15849248</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="47">
         <f t="shared" ref="D95:E95" si="59">SUM(D91:D94)</f>
         <v>20777401</v>
       </c>
-      <c r="E95" s="50">
+      <c r="E95" s="47">
         <f t="shared" si="59"/>
         <v>20588313</v>
       </c>
-      <c r="F95" s="50">
+      <c r="F95" s="47">
         <f>SUM(F91:F94)</f>
         <v>24230238.268298831</v>
       </c>
-      <c r="G95" s="50">
+      <c r="G95" s="47">
         <f>SUM(G91:G94)</f>
         <v>28838489.895932801</v>
       </c>
-      <c r="H95" s="50">
+      <c r="H95" s="47">
         <f>SUM(H91:H94)</f>
         <v>34064518.898157835</v>
       </c>
-      <c r="I95" s="50">
+      <c r="I95" s="47">
         <f>SUM(I91:I94)</f>
         <v>39952070.979343623</v>
       </c>
-      <c r="J95" s="51">
+      <c r="J95" s="48">
         <f>SUM(J91:J94)</f>
         <v>46395925.915854275</v>
       </c>
     </row>
-    <row r="96" spans="2:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="52" t="s">
+    <row r="96" spans="2:10" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C96" s="53">
+      <c r="C96" s="50">
         <f>C88+C95</f>
         <v>44584663</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="50">
         <f t="shared" ref="D96:J96" si="60">D88+D95</f>
         <v>48594768</v>
       </c>
-      <c r="E96" s="53">
+      <c r="E96" s="50">
         <f t="shared" si="60"/>
         <v>48731992</v>
       </c>
-      <c r="F96" s="53">
+      <c r="F96" s="50">
         <f t="shared" si="60"/>
         <v>53229039.479658172</v>
       </c>
-      <c r="G96" s="53">
+      <c r="G96" s="50">
         <f t="shared" si="60"/>
         <v>58609209.525574684</v>
       </c>
-      <c r="H96" s="53">
+      <c r="H96" s="50">
         <f t="shared" si="60"/>
         <v>64731102.965986967</v>
       </c>
-      <c r="I96" s="53">
+      <c r="I96" s="50">
         <f t="shared" si="60"/>
         <v>71731401.856431961</v>
       </c>
-      <c r="J96" s="54">
+      <c r="J96" s="51">
         <f t="shared" si="60"/>
         <v>79336060.140584111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>118</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3848,8 +3852,8 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -3865,7 +3869,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>90</v>
       </c>
@@ -3878,109 +3882,109 @@
       <c r="I101" s="11"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="40">
+      <c r="C102" s="37">
         <v>18181</v>
       </c>
-      <c r="D102" s="40">
+      <c r="D102" s="37">
         <v>8903</v>
       </c>
-      <c r="E102" s="40">
+      <c r="E102" s="37">
         <v>29529</v>
       </c>
-      <c r="F102" s="41">
+      <c r="F102" s="38">
         <f>AVERAGE(C102:E102)</f>
         <v>18871</v>
       </c>
-      <c r="G102" s="41">
+      <c r="G102" s="38">
         <f>F102</f>
         <v>18871</v>
       </c>
-      <c r="H102" s="41">
+      <c r="H102" s="38">
         <f t="shared" ref="H102:J102" si="62">G102</f>
         <v>18871</v>
       </c>
-      <c r="I102" s="41">
+      <c r="I102" s="38">
         <f t="shared" si="62"/>
         <v>18871</v>
       </c>
-      <c r="J102" s="42">
+      <c r="J102" s="39">
         <f t="shared" si="62"/>
         <v>18871</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="40">
+      <c r="C103" s="37">
         <v>221844</v>
       </c>
-      <c r="D103" s="40">
+      <c r="D103" s="37">
         <v>230747</v>
       </c>
-      <c r="E103" s="40">
+      <c r="E103" s="37">
         <v>260276</v>
       </c>
-      <c r="F103" s="41">
+      <c r="F103" s="38">
         <f>E103+F102</f>
         <v>279147</v>
       </c>
-      <c r="G103" s="41">
+      <c r="G103" s="38">
         <f t="shared" ref="G103:J103" si="63">F103+G102</f>
         <v>298018</v>
       </c>
-      <c r="H103" s="41">
+      <c r="H103" s="38">
         <f t="shared" si="63"/>
         <v>316889</v>
       </c>
-      <c r="I103" s="41">
+      <c r="I103" s="38">
         <f t="shared" si="63"/>
         <v>335760</v>
       </c>
-      <c r="J103" s="42">
+      <c r="J103" s="39">
         <f t="shared" si="63"/>
         <v>354631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C104" s="37">
         <v>210784</v>
       </c>
-      <c r="D104" s="40">
+      <c r="D104" s="37">
         <v>222924</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E104" s="37">
         <v>240889</v>
       </c>
-      <c r="F104" s="41">
+      <c r="F104" s="38">
         <f>F103*'Assumptions and Memos'!E22</f>
         <v>264422.54472639214</v>
       </c>
-      <c r="G104" s="41">
+      <c r="G104" s="38">
         <f>G103*'Assumptions and Memos'!F22</f>
         <v>282010.72997445136</v>
       </c>
-      <c r="H104" s="41">
+      <c r="H104" s="38">
         <f>H103*'Assumptions and Memos'!G22</f>
         <v>297775.65249786078</v>
       </c>
-      <c r="I104" s="41">
+      <c r="I104" s="38">
         <f>I103*'Assumptions and Memos'!H22</f>
         <v>317094.42428065359</v>
       </c>
-      <c r="J104" s="42">
+      <c r="J104" s="39">
         <f>J103*'Assumptions and Memos'!I22</f>
         <v>334580.15903866995</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>94</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>12.889343575301078</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -4025,7 +4029,7 @@
       <c r="I106" s="11"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>86</v>
       </c>
@@ -4038,118 +4042,118 @@
       <c r="I107" s="11"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C108" s="40">
+      <c r="C108" s="37">
         <v>29515496</v>
       </c>
-      <c r="D108" s="40">
+      <c r="D108" s="37">
         <v>31469852</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="37">
         <v>33640458</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108" s="38">
         <f>F104*F105*12</f>
         <v>37695392.592958532</v>
       </c>
-      <c r="G108" s="41">
+      <c r="G108" s="38">
         <f t="shared" ref="G108:J108" si="64">G104*G105*12</f>
         <v>41030894.698428616</v>
       </c>
-      <c r="H108" s="41">
+      <c r="H108" s="38">
         <f t="shared" si="64"/>
         <v>44217084.478374399</v>
       </c>
-      <c r="I108" s="41">
+      <c r="I108" s="38">
         <f t="shared" si="64"/>
         <v>48055719.933752343</v>
       </c>
-      <c r="J108" s="42">
+      <c r="J108" s="39">
         <f t="shared" si="64"/>
         <v>51750223.47993952</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C109" s="40">
+      <c r="C109" s="37">
         <v>182348</v>
       </c>
-      <c r="D109" s="40">
+      <c r="D109" s="37">
         <v>145698</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="37">
         <v>82839</v>
       </c>
-      <c r="F109" s="41">
-        <v>0</v>
-      </c>
-      <c r="G109" s="41">
-        <v>0</v>
-      </c>
-      <c r="H109" s="41">
-        <v>0</v>
-      </c>
-      <c r="I109" s="41">
-        <v>0</v>
-      </c>
-      <c r="J109" s="42">
+      <c r="F109" s="38">
+        <v>0</v>
+      </c>
+      <c r="G109" s="38">
+        <v>0</v>
+      </c>
+      <c r="H109" s="38">
+        <v>0</v>
+      </c>
+      <c r="I109" s="38">
+        <v>0</v>
+      </c>
+      <c r="J109" s="39">
         <v>0</v>
       </c>
       <c r="K109" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="45">
+      <c r="C110" s="42">
         <f>SUM(C108:C109)</f>
         <v>29697844</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="42">
         <f t="shared" ref="D110:J110" si="65">SUM(D108:D109)</f>
         <v>31615550</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="42">
         <f t="shared" si="65"/>
         <v>33723297</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="42">
         <f t="shared" si="65"/>
         <v>37695392.592958532</v>
       </c>
-      <c r="G110" s="45">
+      <c r="G110" s="42">
         <f t="shared" si="65"/>
         <v>41030894.698428616</v>
       </c>
-      <c r="H110" s="45">
+      <c r="H110" s="42">
         <f t="shared" si="65"/>
         <v>44217084.478374399</v>
       </c>
-      <c r="I110" s="45">
+      <c r="I110" s="42">
         <f t="shared" si="65"/>
         <v>48055719.933752343</v>
       </c>
-      <c r="J110" s="46">
+      <c r="J110" s="43">
         <f t="shared" si="65"/>
         <v>51750223.47993952</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -4165,148 +4169,148 @@
       <c r="I113" s="7"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C114" s="40">
+      <c r="C114" s="37">
         <v>3447698</v>
       </c>
-      <c r="D114" s="40">
+      <c r="D114" s="37">
         <f>C117</f>
         <v>4024561</v>
       </c>
-      <c r="E114" s="40">
+      <c r="E114" s="37">
         <f>D117</f>
         <v>4637601</v>
       </c>
-      <c r="F114" s="41">
+      <c r="F114" s="38">
         <f t="shared" ref="F114:J114" si="66">E117</f>
         <v>5145172</v>
       </c>
-      <c r="G114" s="41">
+      <c r="G114" s="38">
         <f t="shared" si="66"/>
         <v>5808837.6906392882</v>
       </c>
-      <c r="H114" s="41">
+      <c r="H114" s="38">
         <f t="shared" si="66"/>
         <v>6540232.8231492648</v>
       </c>
-      <c r="I114" s="41">
+      <c r="I114" s="38">
         <f t="shared" si="66"/>
         <v>7340158.5943827471</v>
       </c>
-      <c r="J114" s="42">
+      <c r="J114" s="39">
         <f t="shared" si="66"/>
         <v>8219680.3663945887</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="40">
+      <c r="C115" s="37">
         <v>173643</v>
       </c>
-      <c r="D115" s="40">
+      <c r="D115" s="37">
         <v>37588</v>
       </c>
-      <c r="E115" s="40">
+      <c r="E115" s="37">
         <v>168203</v>
       </c>
-      <c r="F115" s="41">
+      <c r="F115" s="38">
         <f>'Assumptions and Memos'!E26*'Assumptions and Memos'!E27</f>
         <v>122731.27414266349</v>
       </c>
-      <c r="G115" s="41">
+      <c r="G115" s="38">
         <f>'Assumptions and Memos'!F26*'Assumptions and Memos'!F27</f>
         <v>133591.23328224148</v>
       </c>
-      <c r="H115" s="41">
+      <c r="H115" s="38">
         <f>'Assumptions and Memos'!G26*'Assumptions and Memos'!G27</f>
         <v>143965.05099454525</v>
       </c>
-      <c r="I115" s="41">
+      <c r="I115" s="38">
         <f>'Assumptions and Memos'!H26*'Assumptions and Memos'!H27</f>
         <v>156463.14659723549</v>
       </c>
-      <c r="J115" s="42">
+      <c r="J115" s="39">
         <f>'Assumptions and Memos'!I26*'Assumptions and Memos'!I27</f>
         <v>168491.96753151706</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="40">
+      <c r="C116" s="37">
         <v>403220</v>
       </c>
-      <c r="D116" s="40">
+      <c r="D116" s="37">
         <v>575452</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="37">
         <v>339368</v>
       </c>
-      <c r="F116" s="41">
+      <c r="F116" s="38">
         <f>F21*'Assumptions and Memos'!E28</f>
         <v>540934.41649662401</v>
       </c>
-      <c r="G116" s="41">
+      <c r="G116" s="38">
         <f>G21*'Assumptions and Memos'!F28</f>
         <v>597803.8992277357</v>
       </c>
-      <c r="H116" s="41">
+      <c r="H116" s="38">
         <f>H21*'Assumptions and Memos'!G28</f>
         <v>655960.72023893683</v>
       </c>
-      <c r="I116" s="41">
+      <c r="I116" s="38">
         <f>I21*'Assumptions and Memos'!H28</f>
         <v>723058.62541460653</v>
       </c>
-      <c r="J116" s="42">
+      <c r="J116" s="39">
         <f>J21*'Assumptions and Memos'!I28</f>
         <v>788987.60688849248</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="43">
+      <c r="C117" s="40">
         <f>SUM(C114:C116)</f>
         <v>4024561</v>
       </c>
-      <c r="D117" s="43">
+      <c r="D117" s="40">
         <f t="shared" ref="D117:J117" si="67">SUM(D114:D116)</f>
         <v>4637601</v>
       </c>
-      <c r="E117" s="43">
+      <c r="E117" s="40">
         <f t="shared" si="67"/>
         <v>5145172</v>
       </c>
-      <c r="F117" s="43">
+      <c r="F117" s="40">
         <f>SUM(F114:F116)</f>
         <v>5808837.6906392882</v>
       </c>
-      <c r="G117" s="43">
+      <c r="G117" s="40">
         <f t="shared" si="67"/>
         <v>6540232.8231492648</v>
       </c>
-      <c r="H117" s="43">
+      <c r="H117" s="40">
         <f t="shared" si="67"/>
         <v>7340158.5943827471</v>
       </c>
-      <c r="I117" s="43">
+      <c r="I117" s="40">
         <f t="shared" si="67"/>
         <v>8219680.3663945887</v>
       </c>
-      <c r="J117" s="44">
+      <c r="J117" s="41">
         <f t="shared" si="67"/>
         <v>9177159.9408145975</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
@@ -4314,143 +4318,143 @@
       <c r="I118" s="11"/>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="40">
-        <v>0</v>
-      </c>
-      <c r="D119" s="40">
+      <c r="C119" s="37">
+        <v>0</v>
+      </c>
+      <c r="D119" s="37">
         <f>C122</f>
         <v>-824190</v>
       </c>
-      <c r="E119" s="40">
+      <c r="E119" s="37">
         <f t="shared" ref="E119:J119" si="68">D122</f>
         <v>-824190</v>
       </c>
-      <c r="F119" s="41">
+      <c r="F119" s="38">
         <f t="shared" si="68"/>
         <v>-6922200</v>
       </c>
-      <c r="G119" s="41">
+      <c r="G119" s="38">
         <f t="shared" si="68"/>
         <v>-9961606.9514981844</v>
       </c>
-      <c r="H119" s="41">
+      <c r="H119" s="38">
         <f t="shared" si="68"/>
         <v>-12735065.921012731</v>
       </c>
-      <c r="I119" s="41">
+      <c r="I119" s="38">
         <f t="shared" si="68"/>
         <v>-15606248.18386936</v>
       </c>
-      <c r="J119" s="42">
+      <c r="J119" s="39">
         <f t="shared" si="68"/>
         <v>-18641939.176357921</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="40">
+      <c r="C120" s="37">
         <v>-600022</v>
       </c>
-      <c r="D120" s="40">
-        <v>0</v>
-      </c>
-      <c r="E120" s="40">
+      <c r="D120" s="37">
+        <v>0</v>
+      </c>
+      <c r="E120" s="37">
         <v>-6098010</v>
       </c>
-      <c r="F120" s="41">
+      <c r="F120" s="38">
         <f>'Assumptions and Memos'!E25*F62*(-1)</f>
         <v>-3039406.9514981844</v>
       </c>
-      <c r="G120" s="41">
+      <c r="G120" s="38">
         <f>'Assumptions and Memos'!F25*G62*(-1)</f>
         <v>-2773458.9695145474</v>
       </c>
-      <c r="H120" s="41">
+      <c r="H120" s="38">
         <f>'Assumptions and Memos'!G25*H62*(-1)</f>
         <v>-2871182.2628566287</v>
       </c>
-      <c r="I120" s="41">
+      <c r="I120" s="38">
         <f>'Assumptions and Memos'!H25*I62*(-1)</f>
         <v>-3035690.9924885626</v>
       </c>
-      <c r="J120" s="42">
+      <c r="J120" s="39">
         <f>'Assumptions and Memos'!I25*J62*(-1)</f>
         <v>-3290777.9657430742</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="40">
+      <c r="C121" s="37">
         <v>-224168</v>
       </c>
-      <c r="D121" s="40">
-        <v>0</v>
-      </c>
-      <c r="E121" s="40">
-        <v>0</v>
-      </c>
-      <c r="F121" s="41">
-        <v>0</v>
-      </c>
-      <c r="G121" s="41">
-        <v>0</v>
-      </c>
-      <c r="H121" s="41">
-        <v>0</v>
-      </c>
-      <c r="I121" s="41">
-        <v>0</v>
-      </c>
-      <c r="J121" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="37">
+        <v>0</v>
+      </c>
+      <c r="E121" s="37">
+        <v>0</v>
+      </c>
+      <c r="F121" s="38">
+        <v>0</v>
+      </c>
+      <c r="G121" s="38">
+        <v>0</v>
+      </c>
+      <c r="H121" s="38">
+        <v>0</v>
+      </c>
+      <c r="I121" s="38">
+        <v>0</v>
+      </c>
+      <c r="J121" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C122" s="43">
+      <c r="C122" s="40">
         <f>SUM(C119:C121)</f>
         <v>-824190</v>
       </c>
-      <c r="D122" s="43">
+      <c r="D122" s="40">
         <f t="shared" ref="D122:J122" si="69">SUM(D119:D121)</f>
         <v>-824190</v>
       </c>
-      <c r="E122" s="43">
+      <c r="E122" s="40">
         <f t="shared" si="69"/>
         <v>-6922200</v>
       </c>
-      <c r="F122" s="43">
+      <c r="F122" s="40">
         <f t="shared" si="69"/>
         <v>-9961606.9514981844</v>
       </c>
-      <c r="G122" s="43">
+      <c r="G122" s="40">
         <f t="shared" si="69"/>
         <v>-12735065.921012731</v>
       </c>
-      <c r="H122" s="43">
+      <c r="H122" s="40">
         <f t="shared" si="69"/>
         <v>-15606248.18386936</v>
       </c>
-      <c r="I122" s="43">
+      <c r="I122" s="40">
         <f t="shared" si="69"/>
         <v>-18641939.176357921</v>
       </c>
-      <c r="J122" s="44">
+      <c r="J122" s="41">
         <f t="shared" si="69"/>
         <v>-21932717.142100997</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
@@ -4458,78 +4462,78 @@
       <c r="I123" s="11"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C124" s="40">
+      <c r="C124" s="37">
         <v>7573144</v>
       </c>
-      <c r="D124" s="40">
+      <c r="D124" s="37">
         <v>12689372</v>
       </c>
-      <c r="E124" s="40">
+      <c r="E124" s="37">
         <v>17181296</v>
       </c>
-      <c r="F124" s="41">
+      <c r="F124" s="38">
         <f>E127</f>
         <v>22589286</v>
       </c>
-      <c r="G124" s="41">
+      <c r="G124" s="38">
         <f t="shared" ref="G124:J124" si="70">F127</f>
         <v>28606952.529157728</v>
       </c>
-      <c r="H124" s="41">
+      <c r="H124" s="38">
         <f t="shared" si="70"/>
         <v>35257267.993796267</v>
       </c>
-      <c r="I124" s="41">
+      <c r="I124" s="38">
         <f t="shared" si="70"/>
         <v>42554553.487644449</v>
       </c>
-      <c r="J124" s="42">
+      <c r="J124" s="39">
         <f t="shared" si="70"/>
         <v>50598274.789306954</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B125" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="40">
+      <c r="C125" s="37">
         <f t="shared" ref="C125:J125" si="71">C21</f>
         <v>5116228</v>
       </c>
-      <c r="D125" s="40">
+      <c r="D125" s="37">
         <f t="shared" si="71"/>
         <v>4491924</v>
       </c>
-      <c r="E125" s="40">
+      <c r="E125" s="37">
         <f t="shared" si="71"/>
         <v>5407990</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F125" s="38">
         <f t="shared" si="71"/>
         <v>6017666.5291577261</v>
       </c>
-      <c r="G125" s="41">
+      <c r="G125" s="38">
         <f t="shared" si="71"/>
         <v>6650315.4646385405</v>
       </c>
-      <c r="H125" s="41">
+      <c r="H125" s="38">
         <f t="shared" si="71"/>
         <v>7297285.4938481823</v>
       </c>
-      <c r="I125" s="41">
+      <c r="I125" s="38">
         <f t="shared" si="71"/>
         <v>8043721.3016625056</v>
       </c>
-      <c r="J125" s="42">
+      <c r="J125" s="39">
         <f t="shared" si="71"/>
         <v>8777153.3278337214</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B126" s="9" t="s">
         <v>106</v>
       </c>
@@ -4542,71 +4546,71 @@
       <c r="E126" s="10">
         <v>0</v>
       </c>
-      <c r="F126" s="41">
-        <v>0</v>
-      </c>
-      <c r="G126" s="41">
-        <v>0</v>
-      </c>
-      <c r="H126" s="41">
-        <v>0</v>
-      </c>
-      <c r="I126" s="41">
-        <v>0</v>
-      </c>
-      <c r="J126" s="42">
+      <c r="F126" s="38">
+        <v>0</v>
+      </c>
+      <c r="G126" s="38">
+        <v>0</v>
+      </c>
+      <c r="H126" s="38">
+        <v>0</v>
+      </c>
+      <c r="I126" s="38">
+        <v>0</v>
+      </c>
+      <c r="J126" s="39">
         <v>0</v>
       </c>
       <c r="K126" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C127" s="45">
+      <c r="C127" s="42">
         <f>SUM(C124:C126)</f>
         <v>12689372</v>
       </c>
-      <c r="D127" s="45">
+      <c r="D127" s="42">
         <f t="shared" ref="D127:I127" si="72">SUM(D124:D126)</f>
         <v>17181296</v>
       </c>
-      <c r="E127" s="45">
+      <c r="E127" s="42">
         <f t="shared" si="72"/>
         <v>22589286</v>
       </c>
-      <c r="F127" s="45">
+      <c r="F127" s="42">
         <f>SUM(F124:F126)</f>
         <v>28606952.529157728</v>
       </c>
-      <c r="G127" s="45">
+      <c r="G127" s="42">
         <f>SUM(G124:G126)</f>
         <v>35257267.993796267</v>
       </c>
-      <c r="H127" s="45">
+      <c r="H127" s="42">
         <f>SUM(H124:H126)</f>
         <v>42554553.487644449</v>
       </c>
-      <c r="I127" s="45">
+      <c r="I127" s="42">
         <f t="shared" si="72"/>
         <v>50598274.789306954</v>
       </c>
-      <c r="J127" s="46">
+      <c r="J127" s="43">
         <f>SUM(J124:J126)</f>
         <v>59375428.117140673</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -4622,75 +4626,75 @@
       <c r="I130" s="7"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="40">
+      <c r="C131" s="37">
         <v>25383950</v>
       </c>
-      <c r="D131" s="40">
+      <c r="D131" s="37">
         <f t="shared" ref="D131:J131" si="73">C134</f>
         <v>30919539</v>
       </c>
-      <c r="E131" s="40">
+      <c r="E131" s="37">
         <f t="shared" si="73"/>
         <v>32736713</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F131" s="38">
         <f t="shared" si="73"/>
         <v>31658056</v>
       </c>
-      <c r="G131" s="41">
+      <c r="G131" s="38">
         <f t="shared" si="73"/>
         <v>31873992.962525818</v>
       </c>
-      <c r="H131" s="41">
+      <c r="H131" s="38">
         <f t="shared" si="73"/>
         <v>33288932.675490275</v>
       </c>
-      <c r="I131" s="41">
+      <c r="I131" s="38">
         <f t="shared" si="73"/>
         <v>35297592.427989811</v>
       </c>
-      <c r="J131" s="42">
+      <c r="J131" s="39">
         <f t="shared" si="73"/>
         <v>37882820.954449579</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="41">
+      <c r="C132" s="38">
         <f>C134-C131+C133</f>
         <v>17765956</v>
       </c>
-      <c r="D132" s="41">
+      <c r="D132" s="38">
         <f t="shared" ref="D132:E132" si="74">D134-D131+D133</f>
         <v>15843306</v>
       </c>
-      <c r="E132" s="41">
+      <c r="E132" s="38">
         <f t="shared" si="74"/>
         <v>13118780</v>
       </c>
-      <c r="F132" s="41">
+      <c r="F132" s="38">
         <f>E132*(1+'Assumptions and Memos'!E4)</f>
         <v>14663974.356975019</v>
       </c>
-      <c r="G132" s="41">
+      <c r="G132" s="38">
         <f>F132*(1+'Assumptions and Memos'!F4)</f>
         <v>15961525.966807202</v>
       </c>
-      <c r="H132" s="41">
+      <c r="H132" s="38">
         <f>G132*(1+'Assumptions and Memos'!G4)</f>
         <v>17200993.233645231</v>
       </c>
-      <c r="I132" s="41">
+      <c r="I132" s="38">
         <f>H132*(1+'Assumptions and Memos'!H4)</f>
         <v>18694269.944973398</v>
       </c>
-      <c r="J132" s="42">
+      <c r="J132" s="39">
         <f>I132*(1+'Assumptions and Memos'!I4)</f>
         <v>20131477.5593905</v>
       </c>
@@ -4698,36 +4702,36 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B133" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="40">
+      <c r="C133" s="37">
         <v>12230367</v>
       </c>
-      <c r="D133" s="40">
+      <c r="D133" s="37">
         <v>14026132</v>
       </c>
-      <c r="E133" s="40">
+      <c r="E133" s="37">
         <v>14197437</v>
       </c>
-      <c r="F133" s="41">
+      <c r="F133" s="38">
         <f>F131*'Assumptions and Memos'!E32</f>
         <v>14448037.3944492</v>
       </c>
-      <c r="G133" s="41">
+      <c r="G133" s="38">
         <f>G131*'Assumptions and Memos'!F32</f>
         <v>14546586.253842739</v>
       </c>
-      <c r="H133" s="41">
+      <c r="H133" s="38">
         <f>H131*'Assumptions and Memos'!G32</f>
         <v>15192333.481145695</v>
       </c>
-      <c r="I133" s="41">
+      <c r="I133" s="38">
         <f>I131*'Assumptions and Memos'!H32</f>
         <v>16109041.418513622</v>
       </c>
-      <c r="J133" s="42">
+      <c r="J133" s="39">
         <f>J131*'Assumptions and Memos'!I32</f>
         <v>17288882.607229933</v>
       </c>
@@ -4735,44 +4739,44 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B134" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C134" s="43">
+      <c r="C134" s="40">
         <f>C72</f>
         <v>30919539</v>
       </c>
-      <c r="D134" s="43">
+      <c r="D134" s="40">
         <f>D72</f>
         <v>32736713</v>
       </c>
-      <c r="E134" s="43">
+      <c r="E134" s="40">
         <f>E72</f>
         <v>31658056</v>
       </c>
-      <c r="F134" s="43">
+      <c r="F134" s="40">
         <f>F131+F132-F133</f>
         <v>31873992.962525818</v>
       </c>
-      <c r="G134" s="43">
+      <c r="G134" s="40">
         <f t="shared" ref="G134:J134" si="75">G131+G132-G133</f>
         <v>33288932.675490275</v>
       </c>
-      <c r="H134" s="43">
+      <c r="H134" s="40">
         <f t="shared" si="75"/>
         <v>35297592.427989811</v>
       </c>
-      <c r="I134" s="43">
+      <c r="I134" s="40">
         <f t="shared" si="75"/>
         <v>37882820.954449579</v>
       </c>
-      <c r="J134" s="44">
+      <c r="J134" s="41">
         <f t="shared" si="75"/>
         <v>40725415.906610146</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
@@ -4780,44 +4784,44 @@
       <c r="I135" s="11"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C136" s="40">
+      <c r="C136" s="37">
         <f>C79</f>
         <v>4292967</v>
       </c>
-      <c r="D136" s="40">
+      <c r="D136" s="37">
         <f>D79</f>
         <v>4480150</v>
       </c>
-      <c r="E136" s="40">
+      <c r="E136" s="37">
         <f>E79</f>
         <v>4466470</v>
       </c>
-      <c r="F136" s="41">
+      <c r="F136" s="38">
         <f>F134*'Assumptions and Memos'!E33</f>
         <v>4428168.3848647112</v>
       </c>
-      <c r="G136" s="41">
+      <c r="G136" s="38">
         <f>G134*'Assumptions and Memos'!F33</f>
         <v>4624742.1655894918</v>
       </c>
-      <c r="H136" s="41">
+      <c r="H136" s="38">
         <f>H134*'Assumptions and Memos'!G33</f>
         <v>4903799.8795830319</v>
       </c>
-      <c r="I136" s="41">
+      <c r="I136" s="38">
         <f>I134*'Assumptions and Memos'!H33</f>
         <v>5262958.7475033049</v>
       </c>
-      <c r="J136" s="42">
+      <c r="J136" s="39">
         <f>J134*'Assumptions and Memos'!I33</f>
         <v>5657872.8429206097</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
@@ -4825,19 +4829,19 @@
       <c r="I137" s="11"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="47">
+      <c r="C138" s="44">
         <f>C85</f>
         <v>3094213</v>
       </c>
-      <c r="D138" s="47">
+      <c r="D138" s="44">
         <f>D85</f>
         <v>3081277</v>
       </c>
-      <c r="E138" s="47">
+      <c r="E138" s="44">
         <f>E85</f>
         <v>2578173</v>
       </c>
@@ -4862,8 +4866,8 @@
         <v>3741772.1809481638</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>120</v>
       </c>
@@ -4879,18 +4883,18 @@
       <c r="I142" s="7"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B143" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="40">
+      <c r="C143" s="37">
         <v>960183</v>
       </c>
-      <c r="D143" s="40">
+      <c r="D143" s="37">
         <f>C146</f>
         <v>1323453</v>
       </c>
-      <c r="E143" s="40">
+      <c r="E143" s="37">
         <f>D146</f>
         <v>1398257</v>
       </c>
@@ -4915,19 +4919,19 @@
         <v>1471114.0152193988</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B144" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C144" s="40">
+      <c r="C144" s="37">
         <f>(-1)*((616306)-(494790))</f>
         <v>-121516</v>
       </c>
-      <c r="D144" s="40">
+      <c r="D144" s="37">
         <f>(-1)*((753741)-(616306))</f>
         <v>-137435</v>
       </c>
-      <c r="E144" s="40">
+      <c r="E144" s="37">
         <f>(-1)*((855043)-(753741))</f>
         <v>-101302</v>
       </c>
@@ -4955,19 +4959,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="40">
+      <c r="C145" s="37">
         <f>1939759-1454973</f>
         <v>484786</v>
       </c>
-      <c r="D145" s="40">
+      <c r="D145" s="37">
         <f>2151998-1939759</f>
         <v>212239</v>
       </c>
-      <c r="E145" s="40">
+      <c r="E145" s="37">
         <f>2346487-2151998</f>
         <v>194489</v>
       </c>
@@ -4992,44 +4996,44 @@
         <v>298453.89121917577</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="45">
+      <c r="C146" s="42">
         <f>SUM(C143:C145)</f>
         <v>1323453</v>
       </c>
-      <c r="D146" s="45">
+      <c r="D146" s="42">
         <f t="shared" ref="D146:E146" si="77">SUM(D143:D145)</f>
         <v>1398257</v>
       </c>
-      <c r="E146" s="45">
+      <c r="E146" s="42">
         <f t="shared" si="77"/>
         <v>1491444</v>
       </c>
-      <c r="F146" s="45">
+      <c r="F146" s="42">
         <f>SUM(F143:F145)</f>
         <v>1451033.5456384211</v>
       </c>
-      <c r="G146" s="45">
+      <c r="G146" s="42">
         <f t="shared" ref="G146:J146" si="78">SUM(G143:G145)</f>
         <v>1436844.8504523279</v>
       </c>
-      <c r="H146" s="45">
+      <c r="H146" s="42">
         <f t="shared" si="78"/>
         <v>1443484.1718981555</v>
       </c>
-      <c r="I146" s="45">
+      <c r="I146" s="42">
         <f t="shared" si="78"/>
         <v>1471114.0152193988</v>
       </c>
-      <c r="J146" s="46">
+      <c r="J146" s="43">
         <f t="shared" si="78"/>
         <v>1515274.7731222869</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5039,7 +5043,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C148" s="1"/>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -5049,77 +5053,77 @@
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
@@ -5127,7 +5131,7 @@
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
@@ -5135,7 +5139,7 @@
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -5157,22 +5161,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B2E81-2EB3-4D9C-9386-472B8A222F75}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>162</v>
       </c>
@@ -5184,7 +5188,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -5210,313 +5214,313 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31">
         <f>Model!D8/Model!C8-1</f>
         <v>6.45739131769969E-2</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <f>Model!E8/Model!D8-1</f>
         <v>6.6668047843545297E-2</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <f>Model!F8/Model!E8-1</f>
         <v>0.11778491269577041</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <f>Model!G8/Model!F8-1</f>
         <v>8.8485670954204343E-2</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="31">
         <f>Model!H8/Model!G8-1</f>
         <v>7.7653431721726562E-2</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <f>Model!I8/Model!H8-1</f>
         <v>8.6813400310356004E-2</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <f>Model!J8/Model!I8-1</f>
         <v>7.6879579606345949E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="31">
         <f>Model!C9/Model!C8</f>
         <v>0.58363438773535214</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <f>Model!D9/Model!D8</f>
         <v>0.60629294761596741</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <f>Model!E9/Model!E8</f>
         <v>0.58462160446530476</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E10" si="0">AVERAGE(B5:D5)</f>
         <v>0.59151631327220811</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <f t="shared" ref="F5:I11" si="1">E5</f>
         <v>0.59151631327220811</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="31">
         <f t="shared" si="1"/>
         <v>0.59151631327220811</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <f t="shared" si="1"/>
         <v>0.59151631327220811</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <f t="shared" si="1"/>
         <v>0.59151631327220811</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <f>Model!C10/Model!C8</f>
         <v>8.5701372799991807E-2</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <f>Model!D10/Model!D8</f>
         <v>8.0039790546107853E-2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <f>Model!E10/Model!E8</f>
         <v>7.8814446879259759E-2</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>8.1518536741786482E-2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <f t="shared" si="1"/>
         <v>8.1518536741786482E-2</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <f t="shared" si="1"/>
         <v>8.1518536741786482E-2</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <f t="shared" si="1"/>
         <v>8.1518536741786482E-2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <f t="shared" si="1"/>
         <v>8.1518536741786482E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <f>Model!C11/Model!C8</f>
         <v>7.6567342733701471E-2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <f>Model!D11/Model!D8</f>
         <v>8.5750239992661834E-2</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31">
         <f>Model!E11/Model!E8</f>
         <v>7.9344495883661673E-2</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>8.0554026203341664E-2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <f t="shared" si="1"/>
         <v>8.0554026203341664E-2</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="31">
         <f t="shared" si="1"/>
         <v>8.0554026203341664E-2</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
         <v>8.0554026203341664E-2</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <f t="shared" si="1"/>
         <v>8.0554026203341664E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <f>Model!C12/Model!C8</f>
         <v>4.5512428444300534E-2</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <f>Model!D12/Model!D8</f>
         <v>4.9750549966709419E-2</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <f>Model!E12/Model!E8</f>
         <v>5.1011767918184278E-2</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
         <v>4.8758248776398082E-2</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <f t="shared" si="1"/>
         <v>4.8758248776398082E-2</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <f t="shared" si="1"/>
         <v>4.8758248776398082E-2</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <f t="shared" si="1"/>
         <v>4.8758248776398082E-2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <f t="shared" si="1"/>
         <v>4.8758248776398082E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="31">
         <f>Model!C20/Model!C18</f>
         <v>-0.1239490125431007</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <f>Model!D20/Model!D18</f>
         <v>-0.14665946292208729</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <f>Model!E20/Model!E18</f>
         <v>-0.12850329672277636</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <f t="shared" si="0"/>
         <v>-0.13303725739598812</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <f t="shared" si="1"/>
         <v>-0.13303725739598812</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="31">
         <f t="shared" si="1"/>
         <v>-0.13303725739598812</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="31">
         <f t="shared" si="1"/>
         <v>-0.13303725739598812</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="32">
         <f t="shared" si="1"/>
         <v>-0.13303725739598812</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <f>Model!C16/Model!C8</f>
         <v>-2.5780322638909409E-2</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <f>Model!D16/Model!D8</f>
         <v>-2.2337488988804558E-2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <f>Model!E16/Model!E8</f>
         <v>-2.0752004170885189E-2</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
         <v>-2.295660526619972E-2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <f t="shared" si="1"/>
         <v>-2.295660526619972E-2</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <f t="shared" si="1"/>
         <v>-2.295660526619972E-2</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
         <v>-2.295660526619972E-2</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="32">
         <f t="shared" si="1"/>
         <v>-2.295660526619972E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="33">
         <v>0.05</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="33">
         <f>B11</f>
         <v>0.05</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="33">
         <f>C11</f>
         <v>0.05</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="33">
         <f>D11</f>
         <v>0.05</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="33">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="33">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="33">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="34">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>160</v>
       </c>
@@ -5529,153 +5533,153 @@
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <f>Model!C69/Model!C42</f>
         <v>0</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f>Model!D69/Model!D42</f>
         <v>0.44973367149379373</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <f>Model!E69/Model!E42</f>
         <v>2.8831636194322999E-3</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f>AVERAGE(B15:D15)</f>
         <v>0.15087227837107534</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <f>E15</f>
         <v>0.15087227837107534</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f>F15</f>
         <v>0.15087227837107534</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <f>G15</f>
         <v>0.15087227837107534</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="67">
         <f>H15</f>
         <v>0.15087227837107534</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="57">
         <f>Model!C8-Model!C13</f>
         <v>23503335</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="57">
         <f>Model!D8-Model!D13</f>
         <v>25982719</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="57">
         <f>Model!E8-Model!E13</f>
         <v>26769294</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="57">
         <f>Model!F8-Model!F13</f>
         <v>30244789.872470386</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="57">
         <f>Model!G8-Model!G13</f>
         <v>32921020.397204857</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="57">
         <f>Model!H8-Model!H13</f>
         <v>35477450.606828779</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="57">
         <f>Model!I8-Model!I13</f>
         <v>38557368.728350282</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f>Model!J8-Model!J13</f>
         <v>41521643.026912719</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="74">
         <f>Model!C80/B16</f>
         <v>3.5632517683128799E-2</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="74">
         <f>Model!D80/C16</f>
         <v>2.5844600790240622E-2</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="74">
         <f>Model!E80/D16</f>
         <v>2.7920497268250705E-2</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="74">
         <f>AVERAGE(B17:D17)</f>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="74">
         <f t="shared" ref="F17:I18" si="2">E17</f>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="74">
         <f t="shared" si="2"/>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="74">
         <f t="shared" si="2"/>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="67">
         <f t="shared" si="2"/>
         <v>2.9799205247206709E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75">
         <f>(Model!D71-Model!C71)/Model!C71</f>
         <v>0.14828673484245322</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="75">
         <f>(Model!E71-Model!D71)/Model!D71</f>
         <v>7.0324491314009113E-2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="75">
         <f>AVERAGE(C18:D18)</f>
         <v>0.10930561307823117</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="75">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="75">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="75">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="27">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>158</v>
       </c>
@@ -5686,9 +5690,9 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
@@ -5705,52 +5709,52 @@
       <c r="H21" s="25">
         <v>2.06E-2</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="67">
         <v>2.06E-2</v>
       </c>
       <c r="J21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="68">
         <f>Model!C104/Model!C103</f>
         <v>0.95014514704026254</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="68">
         <f>Model!D104/Model!D103</f>
         <v>0.96609706735082146</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="68">
         <f>Model!E104/Model!E103</f>
         <v>0.92551368547234469</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="68">
         <f>AVERAGE(B22:D22)</f>
         <v>0.94725196662114286</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="68">
         <f>AVERAGE(C22:E22)</f>
         <v>0.94628757314810297</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="68">
         <f>AVERAGE(D22:F22)</f>
         <v>0.93968440841386347</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="68">
         <f>AVERAGE(E22:G22)</f>
         <v>0.9444079827277031</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="69">
         <f>AVERAGE(F22:H22)</f>
         <v>0.94345998809655651</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>108</v>
       </c>
@@ -5763,152 +5767,152 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="76">
         <f>Model!D120/Model!D62*(-1)</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="76">
         <f>Model!E120/Model!E62*(-1)</f>
         <v>0.88048382925803403</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="77">
         <f>AVERAGE(C25:D25)</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="77">
         <f>E25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="77">
         <f>F25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="77">
         <f>G25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="78">
         <f>H25</f>
         <v>0.44024191462901702</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="79">
         <f>Model!C28+Model!C44</f>
         <v>-18226787</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="79">
         <f>Model!D28+Model!D44</f>
         <v>-17246767</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="79">
         <f>Model!E28+Model!E44</f>
         <v>-12903255</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="79">
         <f>Model!F28+Model!F44</f>
         <v>-14881371.226860307</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="79">
         <f>Model!G28+Model!G44</f>
         <v>-16198159.344587633</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="79">
         <f>Model!H28+Model!H44</f>
         <v>-17456002.005270217</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="79">
         <f>Model!I28+Model!I44</f>
         <v>-18971416.895172115</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="80">
         <f>Model!J28+Model!J44</f>
         <v>-20429931.450609677</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="74">
         <f>Model!C115/B26</f>
         <v>-9.5268025022731649E-3</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="74">
         <f>Model!D115/C26</f>
         <v>-2.1794229608366601E-3</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="74">
         <f>Model!E115/D26</f>
         <v>-1.3035703006721947E-2</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="74">
         <f>AVERAGE(B27:D27)</f>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="74">
         <f t="shared" ref="F27:I28" si="3">E27</f>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="74">
         <f t="shared" si="3"/>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="74">
         <f t="shared" si="3"/>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="67">
         <f t="shared" si="3"/>
         <v>-8.2473094899439253E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="75">
         <f>Model!C116/Model!C21</f>
         <v>7.8811968504921989E-2</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="75">
         <f>Model!D116/Model!D21</f>
         <v>0.12810813361935777</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="75">
         <f>Model!E116/Model!E21</f>
         <v>6.2753074617371701E-2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="75">
         <f>AVERAGE(B28:D28)</f>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="75">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="75">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="75">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="27">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>161</v>
       </c>
@@ -5919,9 +5923,9 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="69"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="66"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>128</v>
       </c>
@@ -5937,114 +5941,114 @@
         <f>Model!E133/Model!E131</f>
         <v>0.43368547721941419</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="29">
         <f>AVERAGE(B32:D32)</f>
         <v>0.45637790881566448</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="29">
         <f t="shared" ref="F32:I34" si="4">E32</f>
         <v>0.45637790881566448</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="29">
         <f t="shared" si="4"/>
         <v>0.45637790881566448</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="29">
         <f t="shared" si="4"/>
         <v>0.45637790881566448</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="30">
         <f t="shared" si="4"/>
         <v>0.45637790881566448</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="31">
         <f>Model!C79/Model!C134</f>
         <v>0.13884317615472858</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="31">
         <f>Model!D79/Model!D134</f>
         <v>0.13685399630683753</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="31">
         <f>Model!E79/Model!E134</f>
         <v>0.14108478423311904</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="31">
         <f>AVERAGE(B33:D33)</f>
         <v>0.13892731889822837</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="31">
         <f t="shared" si="4"/>
         <v>0.13892731889822837</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="31">
         <f t="shared" si="4"/>
         <v>0.13892731889822837</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="31">
         <f t="shared" si="4"/>
         <v>0.13892731889822837</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="32">
         <f t="shared" si="4"/>
         <v>0.13892731889822837</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="33">
         <f>Model!C85/Model!C72</f>
         <v>0.10007306383190254</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="33">
         <f>Model!D85/Model!D72</f>
         <v>9.4122980520371727E-2</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="33">
         <f>Model!E85/Model!E72</f>
         <v>8.1438133788126477E-2</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="33">
         <f>AVERAGE(B34:D34)</f>
         <v>9.1878059380133589E-2</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="33">
         <f t="shared" si="4"/>
         <v>9.1878059380133589E-2</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="33">
         <f t="shared" si="4"/>
         <v>9.1878059380133589E-2</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="33">
         <f t="shared" si="4"/>
         <v>9.1878059380133589E-2</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="34">
         <f t="shared" si="4"/>
         <v>9.1878059380133589E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>147</v>
       </c>
       <c r="B37" t="s">
@@ -6063,8 +6067,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C38" s="25">
@@ -6077,13 +6081,13 @@
         <f t="shared" ref="E38:E44" si="5">D38/SUM($D$38:$D$44)</f>
         <v>4.5582076242464541E-2</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="67">
         <f t="shared" ref="F38:F44" si="6">C38*E38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
         <v>133</v>
       </c>
       <c r="B39">
@@ -6100,13 +6104,13 @@
         <f t="shared" si="5"/>
         <v>7.7699169327756001E-2</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="67">
         <f t="shared" si="6"/>
         <v>2.5899723109251999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>142</v>
       </c>
       <c r="B40">
@@ -6123,13 +6127,13 @@
         <f t="shared" si="5"/>
         <v>0.53221374281892475</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="67">
         <f t="shared" si="6"/>
         <v>6.6526717852365594E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
         <v>141</v>
       </c>
       <c r="B41">
@@ -6146,13 +6150,13 @@
         <f t="shared" si="5"/>
         <v>7.4606893316735354E-2</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="67">
         <f t="shared" si="6"/>
         <v>2.4868964438911782E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
         <v>134</v>
       </c>
       <c r="B42">
@@ -6169,13 +6173,13 @@
         <f t="shared" si="5"/>
         <v>0.21345003466503779</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="67">
         <f t="shared" si="6"/>
         <v>7.1150011555012591E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B43">
@@ -6192,13 +6196,13 @@
         <f t="shared" si="5"/>
         <v>5.1121265776458188E-2</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="67">
         <f t="shared" si="6"/>
         <v>6.3901582220572736E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
         <v>136</v>
       </c>
       <c r="B44">
@@ -6215,20 +6219,20 @@
         <f t="shared" si="5"/>
         <v>5.3268178526233315E-3</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="67">
         <f t="shared" si="6"/>
         <v>1.3317044631558329E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28" t="s">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="27">
         <f>SUM(F38:F44)</f>
         <v>0.17285752884242825</v>
       </c>

--- a/Netflix Three-Statement Model.xlsx
+++ b/Netflix Three-Statement Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E5F0C-EBC7-4CEC-A433-613120A80BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441637E-14C9-425D-8200-FC8C1A2A147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -789,9 +789,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,13 +806,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1149,7 +1147,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1197,43 +1195,43 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F6" s="4"/>
@@ -5161,8 +5159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B2E81-2EB3-4D9C-9386-472B8A222F75}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5611,31 +5610,31 @@
       <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="69">
         <f>Model!C80/B16</f>
         <v>3.5632517683128799E-2</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="69">
         <f>Model!D80/C16</f>
         <v>2.5844600790240622E-2</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="69">
         <f>Model!E80/D16</f>
         <v>2.7920497268250705E-2</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="69">
         <f>AVERAGE(B17:D17)</f>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="69">
         <f t="shared" ref="F17:I18" si="2">E17</f>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="69">
         <f t="shared" si="2"/>
         <v>2.9799205247206709E-2</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="69">
         <f t="shared" si="2"/>
         <v>2.9799205247206709E-2</v>
       </c>
@@ -5648,28 +5647,28 @@
       <c r="A18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70">
         <f>(Model!D71-Model!C71)/Model!C71</f>
         <v>0.14828673484245322</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="70">
         <f>(Model!E71-Model!D71)/Model!D71</f>
         <v>7.0324491314009113E-2</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="70">
         <f>AVERAGE(C18:D18)</f>
         <v>0.10930561307823117</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="70">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="70">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="70">
         <f t="shared" si="2"/>
         <v>0.10930561307823117</v>
       </c>
@@ -5720,35 +5719,35 @@
       <c r="A22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="70">
         <f>Model!C104/Model!C103</f>
         <v>0.95014514704026254</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="70">
         <f>Model!D104/Model!D103</f>
         <v>0.96609706735082146</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="70">
         <f>Model!E104/Model!E103</f>
         <v>0.92551368547234469</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="70">
         <f>AVERAGE(B22:D22)</f>
         <v>0.94725196662114286</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="70">
         <f>AVERAGE(C22:E22)</f>
         <v>0.94628757314810297</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="70">
         <f>AVERAGE(D22:F22)</f>
         <v>0.93968440841386347</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="70">
         <f>AVERAGE(E22:G22)</f>
         <v>0.9444079827277031</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="27">
         <f>AVERAGE(F22:H22)</f>
         <v>0.94345998809655651</v>
       </c>
@@ -5771,31 +5770,31 @@
       <c r="A25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="71">
         <f>Model!D120/Model!D62*(-1)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="71">
         <f>Model!E120/Model!E62*(-1)</f>
         <v>0.88048382925803403</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="72">
         <f>AVERAGE(C25:D25)</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <f>E25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="72">
         <f>F25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="72">
         <f>G25</f>
         <v>0.44024191462901702</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="73">
         <f>H25</f>
         <v>0.44024191462901702</v>
       </c>
@@ -5804,35 +5803,35 @@
       <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="74">
         <f>Model!C28+Model!C44</f>
         <v>-18226787</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="74">
         <f>Model!D28+Model!D44</f>
         <v>-17246767</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="74">
         <f>Model!E28+Model!E44</f>
         <v>-12903255</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="74">
         <f>Model!F28+Model!F44</f>
         <v>-14881371.226860307</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="74">
         <f>Model!G28+Model!G44</f>
         <v>-16198159.344587633</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="74">
         <f>Model!H28+Model!H44</f>
         <v>-17456002.005270217</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="74">
         <f>Model!I28+Model!I44</f>
         <v>-18971416.895172115</v>
       </c>
-      <c r="I26" s="80">
+      <c r="I26" s="75">
         <f>Model!J28+Model!J44</f>
         <v>-20429931.450609677</v>
       </c>
@@ -5841,31 +5840,31 @@
       <c r="A27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="69">
         <f>Model!C115/B26</f>
         <v>-9.5268025022731649E-3</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="69">
         <f>Model!D115/C26</f>
         <v>-2.1794229608366601E-3</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="69">
         <f>Model!E115/D26</f>
         <v>-1.3035703006721947E-2</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="69">
         <f>AVERAGE(B27:D27)</f>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="69">
         <f t="shared" ref="F27:I28" si="3">E27</f>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="G27" s="74">
+      <c r="G27" s="69">
         <f t="shared" si="3"/>
         <v>-8.2473094899439253E-3</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="69">
         <f t="shared" si="3"/>
         <v>-8.2473094899439253E-3</v>
       </c>
@@ -5878,31 +5877,31 @@
       <c r="A28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="70">
         <f>Model!C116/Model!C21</f>
         <v>7.8811968504921989E-2</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="70">
         <f>Model!D116/Model!D21</f>
         <v>0.12810813361935777</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="70">
         <f>Model!E116/Model!E21</f>
         <v>6.2753074617371701E-2</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="70">
         <f>AVERAGE(B28:D28)</f>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="70">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="70">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="70">
         <f t="shared" si="3"/>
         <v>8.9891058913883826E-2</v>
       </c>
@@ -6041,9 +6040,9 @@
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>

--- a/Netflix Three-Statement Model.xlsx
+++ b/Netflix Three-Statement Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441637E-14C9-425D-8200-FC8C1A2A147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980491D6-380F-4A2A-B519-BFCA217AD43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -1147,9 +1147,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,23 +1535,23 @@
         <v>-48772</v>
       </c>
       <c r="F17" s="53">
-        <f>E68*'Assumptions and Memos'!E11</f>
+        <f>E27*'Assumptions and Memos'!E11</f>
         <v>355845.65</v>
       </c>
       <c r="G17" s="53">
-        <f>F68*'Assumptions and Memos'!F11</f>
+        <f>F27*'Assumptions and Memos'!F11</f>
         <v>502876.12051909353</v>
       </c>
       <c r="H17" s="53">
-        <f>G68*'Assumptions and Memos'!G11</f>
+        <f>G27*'Assumptions and Memos'!G11</f>
         <v>692509.59303409257</v>
       </c>
       <c r="I17" s="53">
-        <f>H68*'Assumptions and Memos'!H11</f>
+        <f>H27*'Assumptions and Memos'!H11</f>
         <v>882892.25150267675</v>
       </c>
       <c r="J17" s="54">
-        <f>I68*'Assumptions and Memos'!I11</f>
+        <f>I27*'Assumptions and Memos'!I11</f>
         <v>1083454.9775544021</v>
       </c>
       <c r="K17" t="s">
@@ -1699,7 +1699,7 @@
         <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1712,8 +1712,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C25" s="57"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1722,2133 +1723,2134 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="52">
-        <f t="shared" ref="C26:J26" si="15">C21</f>
-        <v>5116228</v>
-      </c>
-      <c r="D26" s="52">
-        <f t="shared" si="15"/>
-        <v>4491924</v>
-      </c>
-      <c r="E26" s="52">
-        <f t="shared" si="15"/>
-        <v>5407990</v>
-      </c>
-      <c r="F26" s="53">
-        <f t="shared" si="15"/>
-        <v>6017666.5291577261</v>
-      </c>
-      <c r="G26" s="53">
-        <f t="shared" si="15"/>
-        <v>6650315.4646385405</v>
-      </c>
-      <c r="H26" s="53">
-        <f t="shared" si="15"/>
-        <v>7297285.4938481823</v>
-      </c>
-      <c r="I26" s="53">
-        <f t="shared" si="15"/>
-        <v>8043721.3016625056</v>
-      </c>
-      <c r="J26" s="54">
-        <f t="shared" si="15"/>
-        <v>8777153.3278337214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="52">
+        <v>6027804</v>
+      </c>
+      <c r="D27" s="52">
+        <v>5147176</v>
+      </c>
+      <c r="E27" s="52">
+        <v>7116913</v>
+      </c>
+      <c r="F27" s="53">
+        <f>F95-1602</f>
+        <v>10057522.41038187</v>
+      </c>
+      <c r="G27" s="53">
+        <f>G95-1602</f>
+        <v>13850191.86068185</v>
+      </c>
+      <c r="H27" s="53">
+        <f>H95-1602</f>
+        <v>17657845.030053534</v>
+      </c>
+      <c r="I27" s="53">
+        <f>I95-1602</f>
+        <v>21669099.551088043</v>
+      </c>
+      <c r="J27" s="54">
+        <f>J95-1602</f>
+        <v>25991782.744549785</v>
+      </c>
+      <c r="K27" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="52">
+        <v>0</v>
+      </c>
+      <c r="D28" s="52">
+        <v>911276</v>
+      </c>
+      <c r="E28" s="52">
+        <v>20973</v>
+      </c>
+      <c r="F28" s="53">
+        <f>F77*'Assumptions and Memos'!E15</f>
+        <v>1074413.4109443754</v>
+      </c>
+      <c r="G28" s="53">
+        <f>G77*'Assumptions and Memos'!F15</f>
+        <v>986174.46312840446</v>
+      </c>
+      <c r="H28" s="53">
+        <f>H77*'Assumptions and Memos'!G15</f>
+        <v>1022436.8783380808</v>
+      </c>
+      <c r="I28" s="53">
+        <f>I77*'Assumptions and Memos'!H15</f>
+        <v>1082154.5709420478</v>
+      </c>
+      <c r="J28" s="54">
+        <f>J77*'Assumptions and Memos'!I15</f>
+        <v>1172788.2996745165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2042021</v>
+      </c>
+      <c r="D29" s="52">
+        <v>3208021</v>
+      </c>
+      <c r="E29" s="52">
+        <v>2780247</v>
+      </c>
+      <c r="F29" s="53">
+        <f>E29*(1+'Assumptions and Memos'!E4)</f>
+        <v>3107718.1501676776</v>
+      </c>
+      <c r="G29" s="53">
+        <f>F29*(1+'Assumptions and Memos'!F4)</f>
+        <v>3382706.6758218231</v>
+      </c>
+      <c r="H29" s="53">
+        <f>G29*(1+'Assumptions and Memos'!G4)</f>
+        <v>3645385.4577073818</v>
+      </c>
+      <c r="I29" s="53">
+        <f>H29*(1+'Assumptions and Memos'!H4)</f>
+        <v>3961853.7647328833</v>
+      </c>
+      <c r="J29" s="54">
+        <f>I29*(1+'Assumptions and Memos'!I4)</f>
+        <v>4266439.4166273661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="47">
+        <f>SUM(C27:C29)</f>
+        <v>8069825</v>
+      </c>
+      <c r="D30" s="47">
+        <f>SUM(D27:D29)</f>
+        <v>9266473</v>
+      </c>
+      <c r="E30" s="47">
+        <f>SUM(E27:E29)</f>
+        <v>9918133</v>
+      </c>
+      <c r="F30" s="47">
+        <f>SUM(F27:F29)</f>
+        <v>14239653.971493924</v>
+      </c>
+      <c r="G30" s="47">
+        <f>SUM(G27:G29)</f>
+        <v>18219072.999632079</v>
+      </c>
+      <c r="H30" s="47">
+        <f>SUM(H27:H29)</f>
+        <v>22325667.366098996</v>
+      </c>
+      <c r="I30" s="47">
+        <f>SUM(I27:I29)</f>
+        <v>26713107.886762973</v>
+      </c>
+      <c r="J30" s="48">
+        <f>SUM(J27:J29)</f>
+        <v>31431010.460851666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="52">
+        <v>30919539</v>
+      </c>
+      <c r="D31" s="52">
+        <v>32736713</v>
+      </c>
+      <c r="E31" s="52">
+        <v>31658056</v>
+      </c>
+      <c r="F31" s="53">
+        <f>F134</f>
+        <v>31873992.962525818</v>
+      </c>
+      <c r="G31" s="53">
+        <f>G134</f>
+        <v>33288932.675490275</v>
+      </c>
+      <c r="H31" s="53">
+        <f>H134</f>
+        <v>35297592.427989811</v>
+      </c>
+      <c r="I31" s="53">
+        <f>I134</f>
+        <v>37882820.954449579</v>
+      </c>
+      <c r="J31" s="54">
+        <f>J134</f>
+        <v>40725415.906610146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="52">
+        <f>C146</f>
+        <v>1323453</v>
+      </c>
+      <c r="D32" s="52">
+        <f>D146</f>
+        <v>1398257</v>
+      </c>
+      <c r="E32" s="52">
+        <f>E146</f>
+        <v>1491444</v>
+      </c>
+      <c r="F32" s="53">
+        <f>F146</f>
+        <v>1451033.5456384211</v>
+      </c>
+      <c r="G32" s="53">
+        <f>G146</f>
+        <v>1436844.8504523279</v>
+      </c>
+      <c r="H32" s="53">
+        <f>H146</f>
+        <v>1443484.1718981555</v>
+      </c>
+      <c r="I32" s="53">
+        <f>I146</f>
+        <v>1471114.0152193988</v>
+      </c>
+      <c r="J32" s="54">
+        <f>J146</f>
+        <v>1515274.7731222869</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="52">
+        <v>4271846</v>
+      </c>
+      <c r="D33" s="52">
+        <v>5193325</v>
+      </c>
+      <c r="E33" s="52">
+        <v>5664359</v>
+      </c>
+      <c r="F33" s="53">
+        <f>E33</f>
+        <v>5664359</v>
+      </c>
+      <c r="G33" s="53">
+        <f>F33</f>
+        <v>5664359</v>
+      </c>
+      <c r="H33" s="53">
+        <f>G33</f>
+        <v>5664359</v>
+      </c>
+      <c r="I33" s="53">
+        <f>H33</f>
+        <v>5664359</v>
+      </c>
+      <c r="J33" s="54">
+        <f>I33</f>
+        <v>5664359</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="47">
+        <f>SUM(C30:C33)</f>
+        <v>44584663</v>
+      </c>
+      <c r="D34" s="47">
+        <f>SUM(D30:D33)</f>
+        <v>48594768</v>
+      </c>
+      <c r="E34" s="47">
+        <f>SUM(E30:E33)</f>
+        <v>48731992</v>
+      </c>
+      <c r="F34" s="47">
+        <f>SUM(F30:F33)</f>
+        <v>53229039.479658164</v>
+      </c>
+      <c r="G34" s="47">
+        <f>SUM(G30:G33)</f>
+        <v>58609209.525574677</v>
+      </c>
+      <c r="H34" s="47">
+        <f>SUM(H30:H33)</f>
+        <v>64731102.965986967</v>
+      </c>
+      <c r="I34" s="47">
+        <f>SUM(I30:I33)</f>
+        <v>71731401.856431961</v>
+      </c>
+      <c r="J34" s="48">
+        <f>SUM(J30:J33)</f>
+        <v>79336060.140584096</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="45"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="52">
+        <v>4292967</v>
+      </c>
+      <c r="D38" s="52">
+        <v>4480150</v>
+      </c>
+      <c r="E38" s="52">
+        <v>4466470</v>
+      </c>
+      <c r="F38" s="53">
+        <f>F136</f>
+        <v>4428168.3848647112</v>
+      </c>
+      <c r="G38" s="53">
+        <f>G136</f>
+        <v>4624742.1655894918</v>
+      </c>
+      <c r="H38" s="53">
+        <f>H136</f>
+        <v>4903799.8795830319</v>
+      </c>
+      <c r="I38" s="53">
+        <f>I136</f>
+        <v>5262958.7475033049</v>
+      </c>
+      <c r="J38" s="54">
+        <f>J136</f>
+        <v>5657872.8429206097</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="52">
+        <v>837483</v>
+      </c>
+      <c r="D39" s="52">
+        <v>671513</v>
+      </c>
+      <c r="E39" s="52">
+        <v>747412</v>
+      </c>
+      <c r="F39" s="53">
+        <f>'Assumptions and Memos'!E17*'Assumptions and Memos'!E16</f>
+        <v>901270.70106838387</v>
+      </c>
+      <c r="G39" s="53">
+        <f>'Assumptions and Memos'!F17*'Assumptions and Memos'!F16</f>
+        <v>981020.24376378604</v>
+      </c>
+      <c r="H39" s="53">
+        <f>'Assumptions and Memos'!G17*'Assumptions and Memos'!G16</f>
+        <v>1057199.832280529</v>
+      </c>
+      <c r="I39" s="53">
+        <f>'Assumptions and Memos'!H17*'Assumptions and Memos'!H16</f>
+        <v>1148978.9445283397</v>
+      </c>
+      <c r="J39" s="54">
+        <f>'Assumptions and Memos'!I17*'Assumptions and Memos'!I16</f>
+        <v>1237311.9627602214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="52">
+        <v>1449351</v>
+      </c>
+      <c r="D40" s="52">
+        <v>1514650</v>
+      </c>
+      <c r="E40" s="52">
+        <v>1803960</v>
+      </c>
+      <c r="F40" s="53">
+        <f>E40*(1+'Assumptions and Memos'!E4)</f>
+        <v>2016439.271106662</v>
+      </c>
+      <c r="G40" s="53">
+        <f>F40*(1+'Assumptions and Memos'!F4)</f>
+        <v>2194865.2529489417</v>
+      </c>
+      <c r="H40" s="53">
+        <f>G40*(1+'Assumptions and Memos'!G4)</f>
+        <v>2365304.0720072025</v>
+      </c>
+      <c r="I40" s="53">
+        <f>H40*(1+'Assumptions and Memos'!H4)</f>
+        <v>2570644.1612660792</v>
+      </c>
+      <c r="J40" s="54">
+        <f>I40*(1+'Assumptions and Memos'!I4)</f>
+        <v>2768274.2037017229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="52">
+        <v>1209342</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1264661</v>
+      </c>
+      <c r="E41" s="52">
+        <v>1442969</v>
+      </c>
+      <c r="F41" s="53">
+        <f>E41*(1+'Assumptions and Memos'!E4)</f>
+        <v>1612928.9776877032</v>
+      </c>
+      <c r="G41" s="53">
+        <f>F41*(1+'Assumptions and Memos'!F4)</f>
+        <v>1755650.0804798785</v>
+      </c>
+      <c r="H41" s="53">
+        <f>G41*(1+'Assumptions and Memos'!G4)</f>
+        <v>1891982.3341316665</v>
+      </c>
+      <c r="I41" s="53">
+        <f>H41*(1+'Assumptions and Memos'!H4)</f>
+        <v>2056231.7538847607</v>
+      </c>
+      <c r="J41" s="54">
+        <f>I41*(1+'Assumptions and Memos'!I4)</f>
+        <v>2214313.9866966405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="52">
+        <v>699823</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
+      <c r="E42" s="52">
+        <v>399844</v>
+      </c>
+      <c r="F42" s="53">
+        <f>AVERAGE(C42:E42)*(1+'Assumptions and Memos'!E18)</f>
+        <v>406622.25853896647</v>
+      </c>
+      <c r="G42" s="53">
+        <f>F42*(1+'Assumptions and Memos'!F18)</f>
+        <v>451068.35379982326</v>
+      </c>
+      <c r="H42" s="53">
+        <f>G42*(1+'Assumptions and Memos'!G18)</f>
+        <v>500372.65675210149</v>
+      </c>
+      <c r="I42" s="53">
+        <f>H42*(1+'Assumptions and Memos'!H18)</f>
+        <v>555066.19676597335</v>
+      </c>
+      <c r="J42" s="54">
+        <f>I42*(1+'Assumptions and Memos'!I18)</f>
+        <v>615738.04770248022</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="47">
+        <f>SUM(C38:C42)</f>
+        <v>8488966</v>
+      </c>
+      <c r="D43" s="47">
+        <f>SUM(D38:D42)</f>
+        <v>7930974</v>
+      </c>
+      <c r="E43" s="47">
+        <f>SUM(E38:E42)</f>
+        <v>8860655</v>
+      </c>
+      <c r="F43" s="47">
+        <f>SUM(F38:F42)</f>
+        <v>9365429.5932664275</v>
+      </c>
+      <c r="G43" s="47">
+        <f>SUM(G38:G42)</f>
+        <v>10007346.096581921</v>
+      </c>
+      <c r="H43" s="47">
+        <f>SUM(H38:H42)</f>
+        <v>10718658.774754532</v>
+      </c>
+      <c r="I43" s="47">
+        <f>SUM(I38:I42)</f>
+        <v>11593879.803948458</v>
+      </c>
+      <c r="J43" s="48">
+        <f>SUM(J38:J42)</f>
+        <v>12493511.043781674</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="52">
+        <v>3094213</v>
+      </c>
+      <c r="D44" s="52">
+        <v>3081277</v>
+      </c>
+      <c r="E44" s="52">
+        <v>2578173</v>
+      </c>
+      <c r="F44" s="53">
+        <f>F138</f>
+        <v>2928520.6180929071</v>
+      </c>
+      <c r="G44" s="53">
+        <f>G138</f>
+        <v>3058522.5330599649</v>
+      </c>
+      <c r="H44" s="53">
+        <f>H138</f>
+        <v>3243074.2930746018</v>
+      </c>
+      <c r="I44" s="53">
+        <f>I138</f>
+        <v>3480600.0731398873</v>
+      </c>
+      <c r="J44" s="54">
+        <f>J138</f>
+        <v>3741772.1809481638</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="52">
+        <v>14693072</v>
+      </c>
+      <c r="D45" s="52">
+        <v>14353076</v>
+      </c>
+      <c r="E45" s="52">
+        <v>14143417</v>
+      </c>
+      <c r="F45" s="53">
+        <f>E45</f>
+        <v>14143417</v>
+      </c>
+      <c r="G45" s="53">
+        <f>F45</f>
+        <v>14143417</v>
+      </c>
+      <c r="H45" s="53">
+        <f>G45</f>
+        <v>14143417</v>
+      </c>
+      <c r="I45" s="53">
+        <f>H45</f>
+        <v>14143417</v>
+      </c>
+      <c r="J45" s="54">
+        <f>I45</f>
+        <v>14143417</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="52">
+        <v>2459164</v>
+      </c>
+      <c r="D46" s="52">
+        <v>2452040</v>
+      </c>
+      <c r="E46" s="52">
+        <v>2561434</v>
+      </c>
+      <c r="F46" s="53">
+        <f>E46</f>
+        <v>2561434</v>
+      </c>
+      <c r="G46" s="53">
+        <f>F46</f>
+        <v>2561434</v>
+      </c>
+      <c r="H46" s="53">
+        <f>G46</f>
+        <v>2561434</v>
+      </c>
+      <c r="I46" s="53">
+        <f>H46</f>
+        <v>2561434</v>
+      </c>
+      <c r="J46" s="54">
+        <f>I46</f>
+        <v>2561434</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="47">
+        <f>SUM(C43:C46)</f>
+        <v>28735415</v>
+      </c>
+      <c r="D47" s="47">
+        <f>SUM(D43:D46)</f>
+        <v>27817367</v>
+      </c>
+      <c r="E47" s="47">
+        <f>SUM(E43:E46)</f>
+        <v>28143679</v>
+      </c>
+      <c r="F47" s="47">
+        <f>SUM(F43:F46)</f>
+        <v>28998801.211359337</v>
+      </c>
+      <c r="G47" s="47">
+        <f>SUM(G43:G46)</f>
+        <v>29770719.629641887</v>
+      </c>
+      <c r="H47" s="47">
+        <f>SUM(H43:H46)</f>
+        <v>30666584.067829132</v>
+      </c>
+      <c r="I47" s="47">
+        <f>SUM(I43:I46)</f>
+        <v>31779330.877088346</v>
+      </c>
+      <c r="J47" s="48">
+        <f>SUM(J43:J46)</f>
+        <v>32940134.224729836</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="45"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="52">
+        <f>C117</f>
+        <v>4024561</v>
+      </c>
+      <c r="D50" s="52">
+        <f>D117</f>
+        <v>4637601</v>
+      </c>
+      <c r="E50" s="52">
+        <f>E117</f>
+        <v>5145172</v>
+      </c>
+      <c r="F50" s="53">
+        <f>F117</f>
+        <v>5808837.6906392882</v>
+      </c>
+      <c r="G50" s="53">
+        <f>G117</f>
+        <v>6540232.8231492648</v>
+      </c>
+      <c r="H50" s="53">
+        <f>H117</f>
+        <v>7340158.5943827471</v>
+      </c>
+      <c r="I50" s="53">
+        <f>I117</f>
+        <v>8219680.3663945887</v>
+      </c>
+      <c r="J50" s="54">
+        <f>J117</f>
+        <v>9177159.9408145975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="52">
+        <f>C122</f>
+        <v>-824190</v>
+      </c>
+      <c r="D51" s="52">
+        <f>D122</f>
+        <v>-824190</v>
+      </c>
+      <c r="E51" s="52">
+        <f>E122</f>
+        <v>-6922200</v>
+      </c>
+      <c r="F51" s="53">
+        <f>F122</f>
+        <v>-9961606.9514981844</v>
+      </c>
+      <c r="G51" s="53">
+        <f>G122</f>
+        <v>-12735065.921012731</v>
+      </c>
+      <c r="H51" s="53">
+        <f>H122</f>
+        <v>-15606248.18386936</v>
+      </c>
+      <c r="I51" s="53">
+        <f>I122</f>
+        <v>-18641939.176357921</v>
+      </c>
+      <c r="J51" s="54">
+        <f>J122</f>
+        <v>-21932717.142100997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="52">
+        <v>-40495</v>
+      </c>
+      <c r="D52" s="52">
+        <v>-217306</v>
+      </c>
+      <c r="E52" s="52">
+        <v>-223945</v>
+      </c>
+      <c r="F52" s="53">
+        <f>E52</f>
+        <v>-223945</v>
+      </c>
+      <c r="G52" s="53">
+        <f>F52</f>
+        <v>-223945</v>
+      </c>
+      <c r="H52" s="53">
+        <f>G52</f>
+        <v>-223945</v>
+      </c>
+      <c r="I52" s="53">
+        <f>H52</f>
+        <v>-223945</v>
+      </c>
+      <c r="J52" s="54">
+        <f>I52</f>
+        <v>-223945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="52">
+        <f>C127</f>
+        <v>12689372</v>
+      </c>
+      <c r="D53" s="52">
+        <f>D127</f>
+        <v>17181296</v>
+      </c>
+      <c r="E53" s="52">
+        <f>E127</f>
+        <v>22589286</v>
+      </c>
+      <c r="F53" s="53">
+        <f>F127</f>
+        <v>28606952.529157728</v>
+      </c>
+      <c r="G53" s="53">
+        <f>G127</f>
+        <v>35257267.993796267</v>
+      </c>
+      <c r="H53" s="53">
+        <f>H127</f>
+        <v>42554553.487644449</v>
+      </c>
+      <c r="I53" s="53">
+        <f>I127</f>
+        <v>50598274.789306954</v>
+      </c>
+      <c r="J53" s="54">
+        <f>J127</f>
+        <v>59375428.117140673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="47">
+        <f>SUM(C50:C53)</f>
+        <v>15849248</v>
+      </c>
+      <c r="D54" s="47">
+        <f>SUM(D50:D53)</f>
+        <v>20777401</v>
+      </c>
+      <c r="E54" s="47">
+        <f>SUM(E50:E53)</f>
+        <v>20588313</v>
+      </c>
+      <c r="F54" s="47">
+        <f>SUM(F50:F53)</f>
+        <v>24230238.268298831</v>
+      </c>
+      <c r="G54" s="47">
+        <f>SUM(G50:G53)</f>
+        <v>28838489.895932801</v>
+      </c>
+      <c r="H54" s="47">
+        <f>SUM(H50:H53)</f>
+        <v>34064518.898157835</v>
+      </c>
+      <c r="I54" s="47">
+        <f>SUM(I50:I53)</f>
+        <v>39952070.979343623</v>
+      </c>
+      <c r="J54" s="48">
+        <f>SUM(J50:J53)</f>
+        <v>46395925.915854275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="50">
+        <f>C47+C54</f>
+        <v>44584663</v>
+      </c>
+      <c r="D55" s="50">
+        <f>D47+D54</f>
+        <v>48594768</v>
+      </c>
+      <c r="E55" s="50">
+        <f>E47+E54</f>
+        <v>48731992</v>
+      </c>
+      <c r="F55" s="50">
+        <f>F47+F54</f>
+        <v>53229039.479658172</v>
+      </c>
+      <c r="G55" s="50">
+        <f>G47+G54</f>
+        <v>58609209.525574684</v>
+      </c>
+      <c r="H55" s="50">
+        <f>H47+H54</f>
+        <v>64731102.965986967</v>
+      </c>
+      <c r="I55" s="50">
+        <f>I47+I54</f>
+        <v>71731401.856431961</v>
+      </c>
+      <c r="J55" s="51">
+        <f>J47+J54</f>
+        <v>79336060.140584111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1">
+        <f>C34-C55</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <f>D34-D55</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <f>E34-E55</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f>F34-F55</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f>G34-G55</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f>H34-H55</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f>I34-I55</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <f>J34-J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="52">
+        <f>C21</f>
+        <v>5116228</v>
+      </c>
+      <c r="D61" s="52">
+        <f>D21</f>
+        <v>4491924</v>
+      </c>
+      <c r="E61" s="52">
+        <f>E21</f>
+        <v>5407990</v>
+      </c>
+      <c r="F61" s="53">
+        <f>F21</f>
+        <v>6017666.5291577261</v>
+      </c>
+      <c r="G61" s="53">
+        <f>G21</f>
+        <v>6650315.4646385405</v>
+      </c>
+      <c r="H61" s="53">
+        <f>H21</f>
+        <v>7297285.4938481823</v>
+      </c>
+      <c r="I61" s="53">
+        <f>I21</f>
+        <v>8043721.3016625056</v>
+      </c>
+      <c r="J61" s="54">
+        <f>J21</f>
+        <v>8777153.3278337214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C63" s="52">
         <v>-17702202</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D63" s="52">
         <v>-16839038</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E63" s="52">
         <v>-12554703</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F63" s="53">
         <f>F132*(-1)</f>
         <v>-14663974.356975019</v>
       </c>
-      <c r="G28" s="53">
-        <f t="shared" ref="G28:J28" si="16">G132*(-1)</f>
+      <c r="G63" s="53">
+        <f t="shared" ref="G63:J63" si="15">G132*(-1)</f>
         <v>-15961525.966807202</v>
       </c>
-      <c r="H28" s="53">
-        <f t="shared" si="16"/>
+      <c r="H63" s="53">
+        <f t="shared" si="15"/>
         <v>-17200993.233645231</v>
       </c>
-      <c r="I28" s="53">
-        <f t="shared" si="16"/>
+      <c r="I63" s="53">
+        <f t="shared" si="15"/>
         <v>-18694269.944973398</v>
       </c>
-      <c r="J28" s="54">
-        <f t="shared" si="16"/>
+      <c r="J63" s="54">
+        <f t="shared" si="15"/>
         <v>-20131477.5593905</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="55" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C64" s="52">
         <v>232898</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D64" s="52">
         <v>179310</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E64" s="52">
         <v>-585602</v>
       </c>
-      <c r="F29" s="53">
-        <f>F79-E79+F85-E85</f>
+      <c r="F64" s="53">
+        <f>F38-E38+F44-E44</f>
         <v>312046.00295761833</v>
       </c>
-      <c r="G29" s="53">
-        <f t="shared" ref="G29:J29" si="17">G79-F79+G85-F85</f>
+      <c r="G64" s="53">
+        <f>G38-F38+G44-F44</f>
         <v>326575.69569183839</v>
       </c>
-      <c r="H29" s="53">
-        <f t="shared" si="17"/>
+      <c r="H64" s="53">
+        <f>H38-G38+H44-G44</f>
         <v>463609.47400817694</v>
       </c>
-      <c r="I29" s="53">
-        <f t="shared" si="17"/>
+      <c r="I64" s="53">
+        <f>I38-H38+I44-H44</f>
         <v>596684.64798555849</v>
       </c>
-      <c r="J29" s="54">
-        <f t="shared" si="17"/>
+      <c r="J64" s="54">
+        <f>J38-I38+J44-I44</f>
         <v>656086.20322558144</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K64" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C65" s="52">
         <v>12230367</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D65" s="52">
         <v>14026132</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E65" s="52">
         <v>14197437</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F65" s="53">
         <f>F133</f>
         <v>14448037.3944492</v>
       </c>
-      <c r="G30" s="53">
-        <f t="shared" ref="G30:J30" si="18">G133</f>
+      <c r="G65" s="53">
+        <f t="shared" ref="G65:J65" si="16">G133</f>
         <v>14546586.253842739</v>
       </c>
-      <c r="H30" s="53">
-        <f t="shared" si="18"/>
+      <c r="H65" s="53">
+        <f t="shared" si="16"/>
         <v>15192333.481145695</v>
       </c>
-      <c r="I30" s="53">
-        <f t="shared" si="18"/>
+      <c r="I65" s="53">
+        <f t="shared" si="16"/>
         <v>16109041.418513622</v>
       </c>
-      <c r="J30" s="54">
-        <f t="shared" si="18"/>
+      <c r="J65" s="54">
+        <f t="shared" si="16"/>
         <v>17288882.607229933</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="55" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C66" s="52">
         <v>208412</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D66" s="52">
         <v>336682</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E66" s="52">
         <v>356947</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F66" s="53">
         <f>F144*(-1)</f>
         <v>257807.32424686657</v>
       </c>
-      <c r="G31" s="53">
-        <f t="shared" ref="G31:J31" si="19">G144*(-1)</f>
+      <c r="G66" s="53">
+        <f t="shared" ref="G66:J66" si="17">G144*(-1)</f>
         <v>250822.07296652431</v>
       </c>
-      <c r="H31" s="53">
-        <f t="shared" si="19"/>
+      <c r="H66" s="53">
+        <f t="shared" si="17"/>
         <v>248369.45017915778</v>
       </c>
-      <c r="I31" s="53">
-        <f t="shared" si="19"/>
+      <c r="I66" s="53">
+        <f t="shared" si="17"/>
         <v>249517.10687747406</v>
       </c>
-      <c r="J31" s="54">
-        <f t="shared" si="19"/>
+      <c r="J66" s="54">
+        <f t="shared" si="17"/>
         <v>254293.13331628765</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C67" s="52">
         <v>403220</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D67" s="52">
         <v>575452</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E67" s="52">
         <v>339368</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F67" s="53">
         <f>F116</f>
         <v>540934.41649662401</v>
       </c>
-      <c r="G32" s="53">
-        <f t="shared" ref="G32:J32" si="20">G116</f>
+      <c r="G67" s="53">
+        <f t="shared" ref="G67:J67" si="18">G116</f>
         <v>597803.8992277357</v>
       </c>
-      <c r="H32" s="53">
-        <f t="shared" si="20"/>
+      <c r="H67" s="53">
+        <f t="shared" si="18"/>
         <v>655960.72023893683</v>
       </c>
-      <c r="I32" s="53">
-        <f t="shared" si="20"/>
+      <c r="I67" s="53">
+        <f t="shared" si="18"/>
         <v>723058.62541460653</v>
       </c>
-      <c r="J32" s="54">
-        <f t="shared" si="20"/>
+      <c r="J67" s="54">
+        <f t="shared" si="18"/>
         <v>788987.60688849248</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="55" t="s">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C68" s="52">
         <v>-430661</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D68" s="52">
         <v>-353111</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E68" s="52">
         <v>176296</v>
       </c>
-      <c r="F33" s="53">
-        <v>0</v>
-      </c>
-      <c r="G33" s="53">
-        <v>0</v>
-      </c>
-      <c r="H33" s="53">
-        <v>0</v>
-      </c>
-      <c r="I33" s="53">
-        <v>0</v>
-      </c>
-      <c r="J33" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="F68" s="53">
+        <v>0</v>
+      </c>
+      <c r="G68" s="53">
+        <v>0</v>
+      </c>
+      <c r="H68" s="53">
+        <v>0</v>
+      </c>
+      <c r="I68" s="53">
+        <v>0</v>
+      </c>
+      <c r="J68" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C69" s="52">
         <v>376777</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D69" s="52">
         <v>533543</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E69" s="52">
         <v>512075</v>
       </c>
-      <c r="F34" s="53">
-        <v>0</v>
-      </c>
-      <c r="G34" s="53">
-        <v>0</v>
-      </c>
-      <c r="H34" s="53">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
-      <c r="J34" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="55" t="s">
+      <c r="F69" s="53">
+        <v>0</v>
+      </c>
+      <c r="G69" s="53">
+        <v>0</v>
+      </c>
+      <c r="H69" s="53">
+        <v>0</v>
+      </c>
+      <c r="I69" s="53">
+        <v>0</v>
+      </c>
+      <c r="J69" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C70" s="52">
         <v>199548</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D70" s="52">
         <v>-166550</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E70" s="52">
         <v>-459359</v>
       </c>
-      <c r="F35" s="53">
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <v>0</v>
-      </c>
-      <c r="H35" s="53">
-        <v>0</v>
-      </c>
-      <c r="I35" s="53">
-        <v>0</v>
-      </c>
-      <c r="J35" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="F70" s="53">
+        <v>0</v>
+      </c>
+      <c r="G70" s="53">
+        <v>0</v>
+      </c>
+      <c r="H70" s="53">
+        <v>0</v>
+      </c>
+      <c r="I70" s="53">
+        <v>0</v>
+      </c>
+      <c r="J70" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="54"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C72" s="52">
         <v>-369681</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D72" s="52">
         <v>-353834</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E72" s="52">
         <v>-181003</v>
       </c>
-      <c r="F37" s="53">
-        <f>-(F70-E70)</f>
+      <c r="F72" s="53">
+        <f>-(F29-E29)</f>
         <v>-327471.15016767755</v>
       </c>
-      <c r="G37" s="53">
-        <f t="shared" ref="G37:J37" si="21">-(G70-F70)</f>
+      <c r="G72" s="53">
+        <f>-(G29-F29)</f>
         <v>-274988.52565414552</v>
       </c>
-      <c r="H37" s="53">
-        <f t="shared" si="21"/>
+      <c r="H72" s="53">
+        <f>-(H29-G29)</f>
         <v>-262678.78188555874</v>
       </c>
-      <c r="I37" s="53">
-        <f t="shared" si="21"/>
+      <c r="I72" s="53">
+        <f>-(I29-H29)</f>
         <v>-316468.3070255015</v>
       </c>
-      <c r="J37" s="54">
-        <f t="shared" si="21"/>
+      <c r="J72" s="54">
+        <f>-(J29-I29)</f>
         <v>-304585.65189448278</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C73" s="52">
         <v>145115</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D73" s="52">
         <v>-158543</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E73" s="52">
         <v>93502</v>
       </c>
-      <c r="F38" s="53">
-        <f>F80-E80</f>
+      <c r="F73" s="53">
+        <f>F39-E39</f>
         <v>153858.70106838387</v>
       </c>
-      <c r="G38" s="53">
-        <f t="shared" ref="G38:J39" si="22">G80-F80</f>
+      <c r="G73" s="53">
+        <f>G39-F39</f>
         <v>79749.542695402168</v>
       </c>
-      <c r="H38" s="53">
-        <f t="shared" si="22"/>
+      <c r="H73" s="53">
+        <f>H39-G39</f>
         <v>76179.588516742922</v>
       </c>
-      <c r="I38" s="53">
-        <f t="shared" si="22"/>
+      <c r="I73" s="53">
+        <f>I39-H39</f>
         <v>91779.112247810699</v>
       </c>
-      <c r="J38" s="54">
-        <f t="shared" si="22"/>
+      <c r="J73" s="54">
+        <f>J39-I39</f>
         <v>88333.018231881782</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C74" s="52">
         <v>180338</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D74" s="52">
         <v>-55513</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E74" s="52">
         <v>103565</v>
       </c>
-      <c r="F39" s="53">
-        <f>F81-E81</f>
+      <c r="F74" s="53">
+        <f>F40-E40</f>
         <v>212479.271106662</v>
       </c>
-      <c r="G39" s="53">
-        <f t="shared" si="22"/>
+      <c r="G74" s="53">
+        <f>G40-F40</f>
         <v>178425.98184227967</v>
       </c>
-      <c r="H39" s="53">
-        <f t="shared" si="22"/>
+      <c r="H74" s="53">
+        <f>H40-G40</f>
         <v>170438.81905826088</v>
       </c>
-      <c r="I39" s="53">
-        <f t="shared" si="22"/>
+      <c r="I74" s="53">
+        <f>I40-H40</f>
         <v>205340.08925887663</v>
       </c>
-      <c r="J39" s="54">
-        <f t="shared" si="22"/>
+      <c r="J74" s="54">
+        <f>J40-I40</f>
         <v>197630.04243564373</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="45" t="s">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C75" s="52">
         <v>91350</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D75" s="52">
         <v>27356</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E75" s="52">
         <v>178708</v>
       </c>
-      <c r="F40" s="53">
-        <f>F82-E82</f>
+      <c r="F75" s="53">
+        <f>F41-E41</f>
         <v>169959.97768770321</v>
       </c>
-      <c r="G40" s="53">
-        <f t="shared" ref="G40:J40" si="23">G82-F82</f>
+      <c r="G75" s="53">
+        <f>G41-F41</f>
         <v>142721.10279217525</v>
       </c>
-      <c r="H40" s="53">
-        <f t="shared" si="23"/>
+      <c r="H75" s="53">
+        <f>H41-G41</f>
         <v>136332.25365178799</v>
       </c>
-      <c r="I40" s="53">
-        <f t="shared" si="23"/>
+      <c r="I75" s="53">
+        <f>I41-H41</f>
         <v>164249.4197530942</v>
       </c>
-      <c r="J40" s="54">
-        <f t="shared" si="23"/>
+      <c r="J75" s="54">
+        <f>J41-I41</f>
         <v>158082.23281187983</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C76" s="52">
         <v>-289099</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D76" s="52">
         <v>-217553</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E76" s="52">
         <v>-310920</v>
       </c>
-      <c r="F41" s="53">
-        <f>(F87-E87)-(F74-E74)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="53">
-        <f t="shared" ref="G41:J41" si="24">(G87-F87)-(G74-F74)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="53">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="53">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="56" t="s">
+      <c r="F76" s="53">
+        <f>(F46-E46)-(F33-E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="53">
+        <f>(G46-F46)-(G33-F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="53">
+        <f>(H46-G46)-(H33-G33)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="53">
+        <f>(I46-H46)-(I33-H33)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="54">
+        <f>(J46-I46)-(J33-I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="47">
-        <f>SUM(C26:C41)</f>
+      <c r="C77" s="47">
+        <f>SUM(C61:C76)</f>
         <v>392610</v>
       </c>
-      <c r="D42" s="47">
-        <f t="shared" ref="D42:J42" si="25">SUM(D26:D41)</f>
+      <c r="D77" s="47">
+        <f t="shared" ref="D77:J77" si="19">SUM(D61:D76)</f>
         <v>2026257</v>
       </c>
-      <c r="E42" s="47">
-        <f t="shared" si="25"/>
+      <c r="E77" s="47">
+        <f t="shared" si="19"/>
         <v>7274301</v>
       </c>
-      <c r="F42" s="47">
-        <f t="shared" si="25"/>
+      <c r="F77" s="47">
+        <f t="shared" si="19"/>
         <v>7121344.1100280881</v>
       </c>
-      <c r="G42" s="47">
-        <f t="shared" si="25"/>
+      <c r="G77" s="47">
+        <f t="shared" si="19"/>
         <v>6536485.5212358888</v>
       </c>
-      <c r="H42" s="47">
-        <f t="shared" si="25"/>
+      <c r="H77" s="47">
+        <f t="shared" si="19"/>
         <v>6776837.2651161514</v>
       </c>
-      <c r="I42" s="47">
-        <f t="shared" si="25"/>
+      <c r="I77" s="47">
+        <f t="shared" si="19"/>
         <v>7172653.4697146481</v>
       </c>
-      <c r="J42" s="48">
-        <f t="shared" si="25"/>
+      <c r="J77" s="48">
+        <f t="shared" si="19"/>
         <v>7773384.9606884383</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="52">
-        <v>-524585</v>
-      </c>
-      <c r="D44" s="52">
-        <v>-407729</v>
-      </c>
-      <c r="E44" s="52">
-        <v>-348552</v>
-      </c>
-      <c r="F44" s="53">
-        <f>F145*(-1)</f>
-        <v>-217396.86988528768</v>
-      </c>
-      <c r="G44" s="53">
-        <f t="shared" ref="G44:J44" si="26">G145*(-1)</f>
-        <v>-236633.37778043121</v>
-      </c>
-      <c r="H44" s="53">
-        <f t="shared" si="26"/>
-        <v>-255008.77162498544</v>
-      </c>
-      <c r="I44" s="53">
-        <f t="shared" si="26"/>
-        <v>-277146.95019871747</v>
-      </c>
-      <c r="J44" s="54">
-        <f t="shared" si="26"/>
-        <v>-298453.89121917577</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="52">
-        <v>-26919</v>
-      </c>
-      <c r="D45" s="52">
-        <v>0</v>
-      </c>
-      <c r="E45" s="52">
-        <v>0</v>
-      </c>
-      <c r="F45" s="53">
-        <v>0</v>
-      </c>
-      <c r="G45" s="53">
-        <v>0</v>
-      </c>
-      <c r="H45" s="53">
-        <v>0</v>
-      </c>
-      <c r="I45" s="53">
-        <v>0</v>
-      </c>
-      <c r="J45" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="52">
-        <v>-788349</v>
-      </c>
-      <c r="D46" s="52">
-        <v>-757387</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0</v>
-      </c>
-      <c r="F46" s="53">
-        <v>0</v>
-      </c>
-      <c r="G46" s="53">
-        <f t="shared" ref="G46:J46" si="27">F46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="53">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="53">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="52">
-        <v>0</v>
-      </c>
-      <c r="D47" s="52">
-        <v>-911276</v>
-      </c>
-      <c r="E47" s="52">
-        <v>-504862</v>
-      </c>
-      <c r="F47" s="53">
-        <f>MIN(0,-(F69-E69))</f>
-        <v>-1053440.4109443754</v>
-      </c>
-      <c r="G47" s="53">
-        <f t="shared" ref="G47:J47" si="28">MIN(0,-(G69-F69))</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="53">
-        <f t="shared" si="28"/>
-        <v>-36262.415209676372</v>
-      </c>
-      <c r="I47" s="53">
-        <f t="shared" si="28"/>
-        <v>-59717.69260396692</v>
-      </c>
-      <c r="J47" s="54">
-        <f t="shared" si="28"/>
-        <v>-90633.728732468793</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="52">
-        <v>0</v>
-      </c>
-      <c r="D48" s="52">
-        <v>0</v>
-      </c>
-      <c r="E48" s="52">
-        <v>1395165</v>
-      </c>
-      <c r="F48" s="53">
-        <f>MAX(0,E69-F69)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="53">
-        <f t="shared" ref="G48:J48" si="29">MAX(0,F69-G69)</f>
-        <v>88238.947815970983</v>
-      </c>
-      <c r="H48" s="53">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="53">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="54">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="47">
-        <f>SUM(C44:C48)</f>
-        <v>-1339853</v>
-      </c>
-      <c r="D49" s="47">
-        <f t="shared" ref="D49:E49" si="30">SUM(D44:D48)</f>
-        <v>-2076392</v>
-      </c>
-      <c r="E49" s="47">
-        <f t="shared" si="30"/>
-        <v>541751</v>
-      </c>
-      <c r="F49" s="47">
-        <f>SUM(F44:F48)</f>
-        <v>-1270837.2808296632</v>
-      </c>
-      <c r="G49" s="47">
-        <f>SUM(G44:G48)</f>
-        <v>-148394.42996446023</v>
-      </c>
-      <c r="H49" s="47">
-        <f>SUM(H44:H48)</f>
-        <v>-291271.18683466181</v>
-      </c>
-      <c r="I49" s="47">
-        <f>SUM(I44:I48)</f>
-        <v>-336864.64280268439</v>
-      </c>
-      <c r="J49" s="48">
-        <f>SUM(J44:J48)</f>
-        <v>-389087.61995164456</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="52">
-        <v>-500000</v>
-      </c>
-      <c r="D51" s="52">
-        <v>-700000</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0</v>
-      </c>
-      <c r="F51" s="53">
-        <v>0</v>
-      </c>
-      <c r="G51" s="53">
-        <v>0</v>
-      </c>
-      <c r="H51" s="53">
-        <v>0</v>
-      </c>
-      <c r="I51" s="53">
-        <v>0</v>
-      </c>
-      <c r="J51" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="52">
-        <v>174414</v>
-      </c>
-      <c r="D52" s="52">
-        <v>35746</v>
-      </c>
-      <c r="E52" s="52">
-        <v>169990</v>
-      </c>
-      <c r="F52" s="53">
-        <f>F115</f>
-        <v>122731.27414266349</v>
-      </c>
-      <c r="G52" s="53">
-        <f t="shared" ref="G52:J52" si="31">G115</f>
-        <v>133591.23328224148</v>
-      </c>
-      <c r="H52" s="53">
-        <f t="shared" si="31"/>
-        <v>143965.05099454525</v>
-      </c>
-      <c r="I52" s="53">
-        <f t="shared" si="31"/>
-        <v>156463.14659723549</v>
-      </c>
-      <c r="J52" s="54">
-        <f t="shared" si="31"/>
-        <v>168491.96753151706</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="52">
-        <v>-600022</v>
-      </c>
-      <c r="D53" s="52">
-        <v>0</v>
-      </c>
-      <c r="E53" s="52">
-        <v>-6045347</v>
-      </c>
-      <c r="F53" s="53">
-        <f>F120</f>
-        <v>-3039406.9514981844</v>
-      </c>
-      <c r="G53" s="53">
-        <f t="shared" ref="G53:J53" si="32">G120</f>
-        <v>-2773458.9695145474</v>
-      </c>
-      <c r="H53" s="53">
-        <f t="shared" si="32"/>
-        <v>-2871182.2628566287</v>
-      </c>
-      <c r="I53" s="53">
-        <f t="shared" si="32"/>
-        <v>-3035690.9924885626</v>
-      </c>
-      <c r="J53" s="54">
-        <f t="shared" si="32"/>
-        <v>-3290777.9657430742</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="52">
-        <v>-224168</v>
-      </c>
-      <c r="D54" s="52">
-        <v>0</v>
-      </c>
-      <c r="E54" s="52">
-        <v>0</v>
-      </c>
-      <c r="F54" s="53">
-        <v>0</v>
-      </c>
-      <c r="G54" s="53">
-        <v>0</v>
-      </c>
-      <c r="H54" s="53">
-        <v>0</v>
-      </c>
-      <c r="I54" s="53">
-        <v>0</v>
-      </c>
-      <c r="J54" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="52">
-        <v>0</v>
-      </c>
-      <c r="D55" s="52">
-        <v>0</v>
-      </c>
-      <c r="E55" s="52">
-        <v>-75446</v>
-      </c>
-      <c r="F55" s="53">
-        <f>F83-E83</f>
-        <v>6778.2585389664746</v>
-      </c>
-      <c r="G55" s="53">
-        <f t="shared" ref="G55:J55" si="33">G83-F83</f>
-        <v>44446.09526085679</v>
-      </c>
-      <c r="H55" s="53">
-        <f t="shared" si="33"/>
-        <v>49304.302952278231</v>
-      </c>
-      <c r="I55" s="53">
-        <f t="shared" si="33"/>
-        <v>54693.540013871854</v>
-      </c>
-      <c r="J55" s="54">
-        <f t="shared" si="33"/>
-        <v>60671.850936506875</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="47">
-        <f>SUM(C51:C55)</f>
-        <v>-1149776</v>
-      </c>
-      <c r="D56" s="47">
-        <f t="shared" ref="D56:J56" si="34">SUM(D51:D55)</f>
-        <v>-664254</v>
-      </c>
-      <c r="E56" s="47">
-        <f t="shared" si="34"/>
-        <v>-5950803</v>
-      </c>
-      <c r="F56" s="47">
-        <f t="shared" si="34"/>
-        <v>-2909897.4188165544</v>
-      </c>
-      <c r="G56" s="47">
-        <f t="shared" si="34"/>
-        <v>-2595421.6409714492</v>
-      </c>
-      <c r="H56" s="47">
-        <f t="shared" si="34"/>
-        <v>-2677912.9089098051</v>
-      </c>
-      <c r="I56" s="47">
-        <f t="shared" si="34"/>
-        <v>-2824534.3058774555</v>
-      </c>
-      <c r="J56" s="48">
-        <f t="shared" si="34"/>
-        <v>-3061614.1472750502</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="52">
-        <v>-86740</v>
-      </c>
-      <c r="D57" s="52">
-        <v>-170140</v>
-      </c>
-      <c r="E57" s="52">
-        <v>82684</v>
-      </c>
-      <c r="F57" s="53">
-        <v>0</v>
-      </c>
-      <c r="G57" s="53">
-        <v>0</v>
-      </c>
-      <c r="H57" s="53">
-        <v>0</v>
-      </c>
-      <c r="I57" s="53">
-        <v>0</v>
-      </c>
-      <c r="J57" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="52">
-        <f>SUM(C42,C49,C56,C57)</f>
-        <v>-2183759</v>
-      </c>
-      <c r="D58" s="52">
-        <f t="shared" ref="D58:J58" si="35">SUM(D42,D49,D56,D57)</f>
-        <v>-884529</v>
-      </c>
-      <c r="E58" s="52">
-        <f t="shared" si="35"/>
-        <v>1947933</v>
-      </c>
-      <c r="F58" s="53">
-        <f t="shared" si="35"/>
-        <v>2940609.4103818703</v>
-      </c>
-      <c r="G58" s="53">
-        <f t="shared" si="35"/>
-        <v>3792669.4502999792</v>
-      </c>
-      <c r="H58" s="53">
-        <f t="shared" si="35"/>
-        <v>3807653.1693716841</v>
-      </c>
-      <c r="I58" s="53">
-        <f t="shared" si="35"/>
-        <v>4011254.521034508</v>
-      </c>
-      <c r="J58" s="54">
-        <f t="shared" si="35"/>
-        <v>4322683.1934617432</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="52">
-        <v>8238870</v>
-      </c>
-      <c r="D59" s="52">
-        <v>6055111</v>
-      </c>
-      <c r="E59" s="52">
-        <v>5170582</v>
-      </c>
-      <c r="F59" s="53">
-        <f>E60</f>
-        <v>7118515</v>
-      </c>
-      <c r="G59" s="53">
-        <f t="shared" ref="G59:J59" si="36">F60</f>
-        <v>10059124.41038187</v>
-      </c>
-      <c r="H59" s="53">
-        <f t="shared" si="36"/>
-        <v>13851793.86068185</v>
-      </c>
-      <c r="I59" s="53">
-        <f t="shared" si="36"/>
-        <v>17659447.030053534</v>
-      </c>
-      <c r="J59" s="54">
-        <f t="shared" si="36"/>
-        <v>21670701.551088043</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="47">
-        <f>SUM(C58:C59)</f>
-        <v>6055111</v>
-      </c>
-      <c r="D60" s="47">
-        <f t="shared" ref="D60:E60" si="37">SUM(D58:D59)</f>
-        <v>5170582</v>
-      </c>
-      <c r="E60" s="47">
-        <f t="shared" si="37"/>
-        <v>7118515</v>
-      </c>
-      <c r="F60" s="47">
-        <f>SUM(F58:F59)</f>
-        <v>10059124.41038187</v>
-      </c>
-      <c r="G60" s="47">
-        <f t="shared" ref="G60:J60" si="38">SUM(G58:G59)</f>
-        <v>13851793.86068185</v>
-      </c>
-      <c r="H60" s="47">
-        <f t="shared" si="38"/>
-        <v>17659447.030053534</v>
-      </c>
-      <c r="I60" s="47">
-        <f t="shared" si="38"/>
-        <v>21670701.551088043</v>
-      </c>
-      <c r="J60" s="48">
-        <f t="shared" si="38"/>
-        <v>25993384.744549785</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="9"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="63">
-        <v>-158894</v>
-      </c>
-      <c r="D62" s="63">
-        <v>1618528</v>
-      </c>
-      <c r="E62" s="63">
-        <v>6925749</v>
-      </c>
-      <c r="F62" s="64">
-        <f>F42+F44</f>
-        <v>6903947.2401428008</v>
-      </c>
-      <c r="G62" s="64">
-        <f>G42+G44</f>
-        <v>6299852.1434554579</v>
-      </c>
-      <c r="H62" s="64">
-        <f>H42+H44</f>
-        <v>6521828.4934911663</v>
-      </c>
-      <c r="I62" s="64">
-        <f>I42+I44</f>
-        <v>6895506.5195159307</v>
-      </c>
-      <c r="J62" s="65">
-        <f>J42+J44</f>
-        <v>7474931.0694692628</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-    </row>
-    <row r="64" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="57"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-    </row>
-    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="59"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="57"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="52">
-        <v>6027804</v>
-      </c>
-      <c r="D68" s="52">
-        <v>5147176</v>
-      </c>
-      <c r="E68" s="52">
-        <v>7116913</v>
-      </c>
-      <c r="F68" s="53">
-        <f>F60-1602</f>
-        <v>10057522.41038187</v>
-      </c>
-      <c r="G68" s="53">
-        <f>G60-1602</f>
-        <v>13850191.86068185</v>
-      </c>
-      <c r="H68" s="53">
-        <f>H60-1602</f>
-        <v>17657845.030053534</v>
-      </c>
-      <c r="I68" s="53">
-        <f>I60-1602</f>
-        <v>21669099.551088043</v>
-      </c>
-      <c r="J68" s="54">
-        <f>J60-1602</f>
-        <v>25991782.744549785</v>
-      </c>
-      <c r="K68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="52">
-        <v>0</v>
-      </c>
-      <c r="D69" s="52">
-        <v>911276</v>
-      </c>
-      <c r="E69" s="52">
-        <v>20973</v>
-      </c>
-      <c r="F69" s="53">
-        <f>F42*'Assumptions and Memos'!E15</f>
-        <v>1074413.4109443754</v>
-      </c>
-      <c r="G69" s="53">
-        <f>G42*'Assumptions and Memos'!F15</f>
-        <v>986174.46312840446</v>
-      </c>
-      <c r="H69" s="53">
-        <f>H42*'Assumptions and Memos'!G15</f>
-        <v>1022436.8783380808</v>
-      </c>
-      <c r="I69" s="53">
-        <f>I42*'Assumptions and Memos'!H15</f>
-        <v>1082154.5709420478</v>
-      </c>
-      <c r="J69" s="54">
-        <f>J42*'Assumptions and Memos'!I15</f>
-        <v>1172788.2996745165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="52">
-        <v>2042021</v>
-      </c>
-      <c r="D70" s="52">
-        <v>3208021</v>
-      </c>
-      <c r="E70" s="52">
-        <v>2780247</v>
-      </c>
-      <c r="F70" s="53">
-        <f>E70*(1+'Assumptions and Memos'!E4)</f>
-        <v>3107718.1501676776</v>
-      </c>
-      <c r="G70" s="53">
-        <f>F70*(1+'Assumptions and Memos'!F4)</f>
-        <v>3382706.6758218231</v>
-      </c>
-      <c r="H70" s="53">
-        <f>G70*(1+'Assumptions and Memos'!G4)</f>
-        <v>3645385.4577073818</v>
-      </c>
-      <c r="I70" s="53">
-        <f>H70*(1+'Assumptions and Memos'!H4)</f>
-        <v>3961853.7647328833</v>
-      </c>
-      <c r="J70" s="54">
-        <f>I70*(1+'Assumptions and Memos'!I4)</f>
-        <v>4266439.4166273661</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="47">
-        <f>SUM(C68:C70)</f>
-        <v>8069825</v>
-      </c>
-      <c r="D71" s="47">
-        <f t="shared" ref="D71:J71" si="39">SUM(D68:D70)</f>
-        <v>9266473</v>
-      </c>
-      <c r="E71" s="47">
-        <f t="shared" si="39"/>
-        <v>9918133</v>
-      </c>
-      <c r="F71" s="47">
-        <f>SUM(F68:F70)</f>
-        <v>14239653.971493924</v>
-      </c>
-      <c r="G71" s="47">
-        <f t="shared" si="39"/>
-        <v>18219072.999632079</v>
-      </c>
-      <c r="H71" s="47">
-        <f t="shared" si="39"/>
-        <v>22325667.366098996</v>
-      </c>
-      <c r="I71" s="47">
-        <f t="shared" si="39"/>
-        <v>26713107.886762973</v>
-      </c>
-      <c r="J71" s="48">
-        <f t="shared" si="39"/>
-        <v>31431010.460851666</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="52">
-        <v>30919539</v>
-      </c>
-      <c r="D72" s="52">
-        <v>32736713</v>
-      </c>
-      <c r="E72" s="52">
-        <v>31658056</v>
-      </c>
-      <c r="F72" s="53">
-        <f>F134</f>
-        <v>31873992.962525818</v>
-      </c>
-      <c r="G72" s="53">
-        <f t="shared" ref="G72:J72" si="40">G134</f>
-        <v>33288932.675490275</v>
-      </c>
-      <c r="H72" s="53">
-        <f t="shared" si="40"/>
-        <v>35297592.427989811</v>
-      </c>
-      <c r="I72" s="53">
-        <f t="shared" si="40"/>
-        <v>37882820.954449579</v>
-      </c>
-      <c r="J72" s="54">
-        <f t="shared" si="40"/>
-        <v>40725415.906610146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="52">
-        <f>C146</f>
-        <v>1323453</v>
-      </c>
-      <c r="D73" s="52">
-        <f t="shared" ref="D73:E73" si="41">D146</f>
-        <v>1398257</v>
-      </c>
-      <c r="E73" s="52">
-        <f t="shared" si="41"/>
-        <v>1491444</v>
-      </c>
-      <c r="F73" s="53">
-        <f>F146</f>
-        <v>1451033.5456384211</v>
-      </c>
-      <c r="G73" s="53">
-        <f t="shared" ref="G73:J73" si="42">G146</f>
-        <v>1436844.8504523279</v>
-      </c>
-      <c r="H73" s="53">
-        <f t="shared" si="42"/>
-        <v>1443484.1718981555</v>
-      </c>
-      <c r="I73" s="53">
-        <f t="shared" si="42"/>
-        <v>1471114.0152193988</v>
-      </c>
-      <c r="J73" s="54">
-        <f t="shared" si="42"/>
-        <v>1515274.7731222869</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="52">
-        <v>4271846</v>
-      </c>
-      <c r="D74" s="52">
-        <v>5193325</v>
-      </c>
-      <c r="E74" s="52">
-        <v>5664359</v>
-      </c>
-      <c r="F74" s="53">
-        <f>E74</f>
-        <v>5664359</v>
-      </c>
-      <c r="G74" s="53">
-        <f t="shared" ref="G74:J74" si="43">F74</f>
-        <v>5664359</v>
-      </c>
-      <c r="H74" s="53">
-        <f t="shared" si="43"/>
-        <v>5664359</v>
-      </c>
-      <c r="I74" s="53">
-        <f t="shared" si="43"/>
-        <v>5664359</v>
-      </c>
-      <c r="J74" s="54">
-        <f t="shared" si="43"/>
-        <v>5664359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="47">
-        <f>SUM(C71:C74)</f>
-        <v>44584663</v>
-      </c>
-      <c r="D75" s="47">
-        <f t="shared" ref="D75:E75" si="44">SUM(D71:D74)</f>
-        <v>48594768</v>
-      </c>
-      <c r="E75" s="47">
-        <f t="shared" si="44"/>
-        <v>48731992</v>
-      </c>
-      <c r="F75" s="47">
-        <f>SUM(F71:F74)</f>
-        <v>53229039.479658164</v>
-      </c>
-      <c r="G75" s="47">
-        <f t="shared" ref="G75" si="45">SUM(G71:G74)</f>
-        <v>58609209.525574677</v>
-      </c>
-      <c r="H75" s="47">
-        <f t="shared" ref="H75" si="46">SUM(H71:H74)</f>
-        <v>64731102.965986967</v>
-      </c>
-      <c r="I75" s="47">
-        <f t="shared" ref="I75" si="47">SUM(I71:I74)</f>
-        <v>71731401.856431961</v>
-      </c>
-      <c r="J75" s="48">
-        <f t="shared" ref="J75" si="48">SUM(J71:J74)</f>
-        <v>79336060.140584096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="45"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="17"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="17"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="55" t="s">
-        <v>21</v>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C79" s="52">
-        <v>4292967</v>
+        <v>-524585</v>
       </c>
       <c r="D79" s="52">
-        <v>4480150</v>
+        <v>-407729</v>
       </c>
       <c r="E79" s="52">
-        <v>4466470</v>
+        <v>-348552</v>
       </c>
       <c r="F79" s="53">
-        <f>F136</f>
-        <v>4428168.3848647112</v>
+        <f>F145*(-1)</f>
+        <v>-217396.86988528768</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79:J79" si="49">G136</f>
-        <v>4624742.1655894918</v>
+        <f t="shared" ref="G79:J79" si="20">G145*(-1)</f>
+        <v>-236633.37778043121</v>
       </c>
       <c r="H79" s="53">
-        <f t="shared" si="49"/>
-        <v>4903799.8795830319</v>
+        <f t="shared" si="20"/>
+        <v>-255008.77162498544</v>
       </c>
       <c r="I79" s="53">
-        <f t="shared" si="49"/>
-        <v>5262958.7475033049</v>
+        <f t="shared" si="20"/>
+        <v>-277146.95019871747</v>
       </c>
       <c r="J79" s="54">
-        <f t="shared" si="49"/>
-        <v>5657872.8429206097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="55" t="s">
-        <v>22</v>
+        <f t="shared" si="20"/>
+        <v>-298453.89121917577</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C80" s="52">
-        <v>837483</v>
+        <v>-26919</v>
       </c>
       <c r="D80" s="52">
-        <v>671513</v>
+        <v>0</v>
       </c>
       <c r="E80" s="52">
-        <v>747412</v>
+        <v>0</v>
       </c>
       <c r="F80" s="53">
-        <f>'Assumptions and Memos'!E17*'Assumptions and Memos'!E16</f>
-        <v>901270.70106838387</v>
+        <v>0</v>
       </c>
       <c r="G80" s="53">
-        <f>'Assumptions and Memos'!F17*'Assumptions and Memos'!F16</f>
-        <v>981020.24376378604</v>
+        <v>0</v>
       </c>
       <c r="H80" s="53">
-        <f>'Assumptions and Memos'!G17*'Assumptions and Memos'!G16</f>
-        <v>1057199.832280529</v>
+        <v>0</v>
       </c>
       <c r="I80" s="53">
-        <f>'Assumptions and Memos'!H17*'Assumptions and Memos'!H16</f>
-        <v>1148978.9445283397</v>
+        <v>0</v>
       </c>
       <c r="J80" s="54">
-        <f>'Assumptions and Memos'!I17*'Assumptions and Memos'!I16</f>
-        <v>1237311.9627602214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="55" t="s">
-        <v>23</v>
+      <c r="B81" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C81" s="52">
-        <v>1449351</v>
+        <v>-788349</v>
       </c>
       <c r="D81" s="52">
-        <v>1514650</v>
+        <v>-757387</v>
       </c>
       <c r="E81" s="52">
-        <v>1803960</v>
+        <v>0</v>
       </c>
       <c r="F81" s="53">
-        <f>E81*(1+'Assumptions and Memos'!E4)</f>
-        <v>2016439.271106662</v>
+        <v>0</v>
       </c>
       <c r="G81" s="53">
-        <f>F81*(1+'Assumptions and Memos'!F4)</f>
-        <v>2194865.2529489417</v>
+        <f t="shared" ref="G81:J81" si="21">F81</f>
+        <v>0</v>
       </c>
       <c r="H81" s="53">
-        <f>G81*(1+'Assumptions and Memos'!G4)</f>
-        <v>2365304.0720072025</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="I81" s="53">
-        <f>H81*(1+'Assumptions and Memos'!H4)</f>
-        <v>2570644.1612660792</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="J81" s="54">
-        <f>I81*(1+'Assumptions and Memos'!I4)</f>
-        <v>2768274.2037017229</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="55" t="s">
-        <v>24</v>
+      <c r="B82" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C82" s="52">
-        <v>1209342</v>
+        <v>0</v>
       </c>
       <c r="D82" s="52">
-        <v>1264661</v>
+        <v>-911276</v>
       </c>
       <c r="E82" s="52">
-        <v>1442969</v>
+        <v>-504862</v>
       </c>
       <c r="F82" s="53">
-        <f>E82*(1+'Assumptions and Memos'!E4)</f>
-        <v>1612928.9776877032</v>
+        <f>MIN(0,-(F28-E28))</f>
+        <v>-1053440.4109443754</v>
       </c>
       <c r="G82" s="53">
-        <f>F82*(1+'Assumptions and Memos'!F4)</f>
-        <v>1755650.0804798785</v>
+        <f>MIN(0,-(G28-F28))</f>
+        <v>0</v>
       </c>
       <c r="H82" s="53">
-        <f>G82*(1+'Assumptions and Memos'!G4)</f>
-        <v>1891982.3341316665</v>
+        <f>MIN(0,-(H28-G28))</f>
+        <v>-36262.415209676372</v>
       </c>
       <c r="I82" s="53">
-        <f>H82*(1+'Assumptions and Memos'!H4)</f>
-        <v>2056231.7538847607</v>
+        <f>MIN(0,-(I28-H28))</f>
+        <v>-59717.69260396692</v>
       </c>
       <c r="J82" s="54">
-        <f>I82*(1+'Assumptions and Memos'!I4)</f>
-        <v>2214313.9866966405</v>
+        <f>MIN(0,-(J28-I28))</f>
+        <v>-90633.728732468793</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="55" t="s">
-        <v>25</v>
+      <c r="B83" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C83" s="52">
-        <v>699823</v>
+        <v>0</v>
       </c>
       <c r="D83" s="52">
         <v>0</v>
       </c>
       <c r="E83" s="52">
-        <v>399844</v>
+        <v>1395165</v>
       </c>
       <c r="F83" s="53">
-        <f>AVERAGE(C83:E83)*(1+'Assumptions and Memos'!E18)</f>
-        <v>406622.25853896647</v>
+        <f>MAX(0,E28-F28)</f>
+        <v>0</v>
       </c>
       <c r="G83" s="53">
-        <f>F83*(1+'Assumptions and Memos'!F18)</f>
-        <v>451068.35379982326</v>
+        <f>MAX(0,F28-G28)</f>
+        <v>88238.947815970983</v>
       </c>
       <c r="H83" s="53">
-        <f>G83*(1+'Assumptions and Memos'!G18)</f>
-        <v>500372.65675210149</v>
+        <f>MAX(0,G28-H28)</f>
+        <v>0</v>
       </c>
       <c r="I83" s="53">
-        <f>H83*(1+'Assumptions and Memos'!H18)</f>
-        <v>555066.19676597335</v>
+        <f>MAX(0,H28-I28)</f>
+        <v>0</v>
       </c>
       <c r="J83" s="54">
-        <f>I83*(1+'Assumptions and Memos'!I18)</f>
-        <v>615738.04770248022</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="46" t="s">
-        <v>26</v>
+        <f>MAX(0,I28-J28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="C84" s="47">
         <f>SUM(C79:C83)</f>
-        <v>8488966</v>
+        <v>-1339853</v>
       </c>
       <c r="D84" s="47">
-        <f t="shared" ref="D84:J84" si="50">SUM(D79:D83)</f>
-        <v>7930974</v>
+        <f t="shared" ref="D84:E84" si="22">SUM(D79:D83)</f>
+        <v>-2076392</v>
       </c>
       <c r="E84" s="47">
-        <f t="shared" si="50"/>
-        <v>8860655</v>
+        <f t="shared" si="22"/>
+        <v>541751</v>
       </c>
       <c r="F84" s="47">
-        <f t="shared" si="50"/>
-        <v>9365429.5932664275</v>
+        <f>SUM(F79:F83)</f>
+        <v>-1270837.2808296632</v>
       </c>
       <c r="G84" s="47">
-        <f t="shared" si="50"/>
-        <v>10007346.096581921</v>
+        <f>SUM(G79:G83)</f>
+        <v>-148394.42996446023</v>
       </c>
       <c r="H84" s="47">
-        <f t="shared" si="50"/>
-        <v>10718658.774754532</v>
+        <f>SUM(H79:H83)</f>
+        <v>-291271.18683466181</v>
       </c>
       <c r="I84" s="47">
-        <f t="shared" si="50"/>
-        <v>11593879.803948458</v>
+        <f>SUM(I79:I83)</f>
+        <v>-336864.64280268439</v>
       </c>
       <c r="J84" s="48">
-        <f t="shared" si="50"/>
-        <v>12493511.043781674</v>
+        <f>SUM(J79:J83)</f>
+        <v>-389087.61995164456</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="52">
-        <v>3094213</v>
-      </c>
-      <c r="D85" s="52">
-        <v>3081277</v>
-      </c>
-      <c r="E85" s="52">
-        <v>2578173</v>
-      </c>
-      <c r="F85" s="53">
-        <f>F138</f>
-        <v>2928520.6180929071</v>
-      </c>
-      <c r="G85" s="53">
-        <f t="shared" ref="G85:J85" si="51">G138</f>
-        <v>3058522.5330599649</v>
-      </c>
-      <c r="H85" s="53">
-        <f t="shared" si="51"/>
-        <v>3243074.2930746018</v>
-      </c>
-      <c r="I85" s="53">
-        <f t="shared" si="51"/>
-        <v>3480600.0731398873</v>
-      </c>
-      <c r="J85" s="54">
-        <f t="shared" si="51"/>
-        <v>3741772.1809481638</v>
-      </c>
+      <c r="B85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="17"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C86" s="52">
-        <v>14693072</v>
+        <v>-500000</v>
       </c>
       <c r="D86" s="52">
-        <v>14353076</v>
+        <v>-700000</v>
       </c>
       <c r="E86" s="52">
-        <v>14143417</v>
+        <v>0</v>
       </c>
       <c r="F86" s="53">
-        <f>E86</f>
-        <v>14143417</v>
+        <v>0</v>
       </c>
       <c r="G86" s="53">
-        <f t="shared" ref="G86:J86" si="52">F86</f>
-        <v>14143417</v>
+        <v>0</v>
       </c>
       <c r="H86" s="53">
-        <f t="shared" si="52"/>
-        <v>14143417</v>
+        <v>0</v>
       </c>
       <c r="I86" s="53">
-        <f t="shared" si="52"/>
-        <v>14143417</v>
+        <v>0</v>
       </c>
       <c r="J86" s="54">
-        <f t="shared" si="52"/>
-        <v>14143417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C87" s="52">
-        <v>2459164</v>
+        <v>174414</v>
       </c>
       <c r="D87" s="52">
-        <v>2452040</v>
+        <v>35746</v>
       </c>
       <c r="E87" s="52">
-        <v>2561434</v>
+        <v>169990</v>
       </c>
       <c r="F87" s="53">
-        <f>E87</f>
-        <v>2561434</v>
+        <f>F115</f>
+        <v>122731.27414266349</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" ref="G87:J87" si="53">F87</f>
-        <v>2561434</v>
+        <f t="shared" ref="G87:J87" si="23">G115</f>
+        <v>133591.23328224148</v>
       </c>
       <c r="H87" s="53">
-        <f t="shared" si="53"/>
-        <v>2561434</v>
+        <f t="shared" si="23"/>
+        <v>143965.05099454525</v>
       </c>
       <c r="I87" s="53">
-        <f t="shared" si="53"/>
-        <v>2561434</v>
+        <f t="shared" si="23"/>
+        <v>156463.14659723549</v>
       </c>
       <c r="J87" s="54">
-        <f t="shared" si="53"/>
-        <v>2561434</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="47">
-        <f t="shared" ref="C88:J88" si="54">SUM(C84:C87)</f>
-        <v>28735415</v>
-      </c>
-      <c r="D88" s="47">
-        <f t="shared" si="54"/>
-        <v>27817367</v>
-      </c>
-      <c r="E88" s="47">
-        <f t="shared" si="54"/>
-        <v>28143679</v>
-      </c>
-      <c r="F88" s="47">
-        <f t="shared" si="54"/>
-        <v>28998801.211359337</v>
-      </c>
-      <c r="G88" s="47">
-        <f t="shared" si="54"/>
-        <v>29770719.629641887</v>
-      </c>
-      <c r="H88" s="47">
-        <f t="shared" si="54"/>
-        <v>30666584.067829132</v>
-      </c>
-      <c r="I88" s="47">
-        <f t="shared" si="54"/>
-        <v>31779330.877088346</v>
-      </c>
-      <c r="J88" s="48">
-        <f t="shared" si="54"/>
-        <v>32940134.224729836</v>
+        <f t="shared" si="23"/>
+        <v>168491.96753151706</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="52">
+        <v>-600022</v>
+      </c>
+      <c r="D88" s="52">
+        <v>0</v>
+      </c>
+      <c r="E88" s="52">
+        <v>-6045347</v>
+      </c>
+      <c r="F88" s="53">
+        <f>F120</f>
+        <v>-3039406.9514981844</v>
+      </c>
+      <c r="G88" s="53">
+        <f t="shared" ref="G88:J88" si="24">G120</f>
+        <v>-2773458.9695145474</v>
+      </c>
+      <c r="H88" s="53">
+        <f t="shared" si="24"/>
+        <v>-2871182.2628566287</v>
+      </c>
+      <c r="I88" s="53">
+        <f t="shared" si="24"/>
+        <v>-3035690.9924885626</v>
+      </c>
+      <c r="J88" s="54">
+        <f t="shared" si="24"/>
+        <v>-3290777.9657430742</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="45"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="17"/>
+      <c r="B89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="52">
+        <v>-224168</v>
+      </c>
+      <c r="D89" s="52">
+        <v>0</v>
+      </c>
+      <c r="E89" s="52">
+        <v>0</v>
+      </c>
+      <c r="F89" s="53">
+        <v>0</v>
+      </c>
+      <c r="G89" s="53">
+        <v>0</v>
+      </c>
+      <c r="H89" s="53">
+        <v>0</v>
+      </c>
+      <c r="I89" s="53">
+        <v>0</v>
+      </c>
+      <c r="J89" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
+      <c r="B90" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="52">
+        <v>0</v>
+      </c>
+      <c r="D90" s="52">
+        <v>0</v>
+      </c>
+      <c r="E90" s="52">
+        <v>-75446</v>
+      </c>
+      <c r="F90" s="53">
+        <f>F42-E42</f>
+        <v>6778.2585389664746</v>
+      </c>
+      <c r="G90" s="53">
+        <f>G42-F42</f>
+        <v>44446.09526085679</v>
+      </c>
+      <c r="H90" s="53">
+        <f>H42-G42</f>
+        <v>49304.302952278231</v>
+      </c>
+      <c r="I90" s="53">
+        <f>I42-H42</f>
+        <v>54693.540013871854</v>
+      </c>
+      <c r="J90" s="54">
+        <f>J42-I42</f>
+        <v>60671.850936506875</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="52">
-        <f>C117</f>
-        <v>4024561</v>
-      </c>
-      <c r="D91" s="52">
-        <f t="shared" ref="D91:J91" si="55">D117</f>
-        <v>4637601</v>
-      </c>
-      <c r="E91" s="52">
-        <f t="shared" si="55"/>
-        <v>5145172</v>
-      </c>
-      <c r="F91" s="53">
-        <f t="shared" si="55"/>
-        <v>5808837.6906392882</v>
-      </c>
-      <c r="G91" s="53">
-        <f t="shared" si="55"/>
-        <v>6540232.8231492648</v>
-      </c>
-      <c r="H91" s="53">
-        <f t="shared" si="55"/>
-        <v>7340158.5943827471</v>
-      </c>
-      <c r="I91" s="53">
-        <f t="shared" si="55"/>
-        <v>8219680.3663945887</v>
-      </c>
-      <c r="J91" s="54">
-        <f t="shared" si="55"/>
-        <v>9177159.9408145975</v>
+      <c r="B91" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="47">
+        <f>SUM(C86:C90)</f>
+        <v>-1149776</v>
+      </c>
+      <c r="D91" s="47">
+        <f t="shared" ref="D91:J91" si="25">SUM(D86:D90)</f>
+        <v>-664254</v>
+      </c>
+      <c r="E91" s="47">
+        <f t="shared" si="25"/>
+        <v>-5950803</v>
+      </c>
+      <c r="F91" s="47">
+        <f t="shared" si="25"/>
+        <v>-2909897.4188165544</v>
+      </c>
+      <c r="G91" s="47">
+        <f t="shared" si="25"/>
+        <v>-2595421.6409714492</v>
+      </c>
+      <c r="H91" s="47">
+        <f t="shared" si="25"/>
+        <v>-2677912.9089098051</v>
+      </c>
+      <c r="I91" s="47">
+        <f t="shared" si="25"/>
+        <v>-2824534.3058774555</v>
+      </c>
+      <c r="J91" s="48">
+        <f t="shared" si="25"/>
+        <v>-3061614.1472750502</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C92" s="52">
-        <f>C122</f>
-        <v>-824190</v>
+        <v>-86740</v>
       </c>
       <c r="D92" s="52">
-        <f t="shared" ref="D92:J92" si="56">D122</f>
-        <v>-824190</v>
+        <v>-170140</v>
       </c>
       <c r="E92" s="52">
-        <f t="shared" si="56"/>
-        <v>-6922200</v>
+        <v>82684</v>
       </c>
       <c r="F92" s="53">
-        <f t="shared" si="56"/>
-        <v>-9961606.9514981844</v>
+        <v>0</v>
       </c>
       <c r="G92" s="53">
-        <f t="shared" si="56"/>
-        <v>-12735065.921012731</v>
+        <v>0</v>
       </c>
       <c r="H92" s="53">
-        <f t="shared" si="56"/>
-        <v>-15606248.18386936</v>
+        <v>0</v>
       </c>
       <c r="I92" s="53">
-        <f t="shared" si="56"/>
-        <v>-18641939.176357921</v>
+        <v>0</v>
       </c>
       <c r="J92" s="54">
-        <f t="shared" si="56"/>
-        <v>-21932717.142100997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C93" s="52">
-        <v>-40495</v>
+        <f>SUM(C77,C84,C91,C92)</f>
+        <v>-2183759</v>
       </c>
       <c r="D93" s="52">
-        <v>-217306</v>
+        <f t="shared" ref="D93:J93" si="26">SUM(D77,D84,D91,D92)</f>
+        <v>-884529</v>
       </c>
       <c r="E93" s="52">
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>1947933</v>
       </c>
       <c r="F93" s="53">
-        <f>E93</f>
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>2940609.4103818703</v>
       </c>
       <c r="G93" s="53">
-        <f t="shared" ref="G93:J93" si="57">F93</f>
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>3792669.4502999792</v>
       </c>
       <c r="H93" s="53">
-        <f t="shared" si="57"/>
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>3807653.1693716841</v>
       </c>
       <c r="I93" s="53">
-        <f t="shared" si="57"/>
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>4011254.521034508</v>
       </c>
       <c r="J93" s="54">
-        <f t="shared" si="57"/>
-        <v>-223945</v>
+        <f t="shared" si="26"/>
+        <v>4322683.1934617432</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C94" s="52">
-        <f>C127</f>
-        <v>12689372</v>
+        <v>8238870</v>
       </c>
       <c r="D94" s="52">
-        <f t="shared" ref="D94:J94" si="58">D127</f>
-        <v>17181296</v>
+        <v>6055111</v>
       </c>
       <c r="E94" s="52">
-        <f t="shared" si="58"/>
-        <v>22589286</v>
+        <v>5170582</v>
       </c>
       <c r="F94" s="53">
-        <f t="shared" si="58"/>
-        <v>28606952.529157728</v>
+        <f>E95</f>
+        <v>7118515</v>
       </c>
       <c r="G94" s="53">
-        <f t="shared" si="58"/>
-        <v>35257267.993796267</v>
+        <f t="shared" ref="G94:J94" si="27">F95</f>
+        <v>10059124.41038187</v>
       </c>
       <c r="H94" s="53">
-        <f t="shared" si="58"/>
-        <v>42554553.487644449</v>
+        <f t="shared" si="27"/>
+        <v>13851793.86068185</v>
       </c>
       <c r="I94" s="53">
-        <f t="shared" si="58"/>
-        <v>50598274.789306954</v>
+        <f t="shared" si="27"/>
+        <v>17659447.030053534</v>
       </c>
       <c r="J94" s="54">
-        <f t="shared" si="58"/>
-        <v>59375428.117140673</v>
+        <f t="shared" si="27"/>
+        <v>21670701.551088043</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="46" t="s">
-        <v>72</v>
+      <c r="B95" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="C95" s="47">
-        <f>SUM(C91:C94)</f>
-        <v>15849248</v>
+        <f>SUM(C93:C94)</f>
+        <v>6055111</v>
       </c>
       <c r="D95" s="47">
-        <f t="shared" ref="D95:E95" si="59">SUM(D91:D94)</f>
-        <v>20777401</v>
+        <f t="shared" ref="D95:E95" si="28">SUM(D93:D94)</f>
+        <v>5170582</v>
       </c>
       <c r="E95" s="47">
-        <f t="shared" si="59"/>
-        <v>20588313</v>
+        <f t="shared" si="28"/>
+        <v>7118515</v>
       </c>
       <c r="F95" s="47">
-        <f>SUM(F91:F94)</f>
-        <v>24230238.268298831</v>
+        <f>SUM(F93:F94)</f>
+        <v>10059124.41038187</v>
       </c>
       <c r="G95" s="47">
-        <f>SUM(G91:G94)</f>
-        <v>28838489.895932801</v>
+        <f t="shared" ref="G95:J95" si="29">SUM(G93:G94)</f>
+        <v>13851793.86068185</v>
       </c>
       <c r="H95" s="47">
-        <f>SUM(H91:H94)</f>
-        <v>34064518.898157835</v>
+        <f t="shared" si="29"/>
+        <v>17659447.030053534</v>
       </c>
       <c r="I95" s="47">
-        <f>SUM(I91:I94)</f>
-        <v>39952070.979343623</v>
+        <f t="shared" si="29"/>
+        <v>21670701.551088043</v>
       </c>
       <c r="J95" s="48">
-        <f>SUM(J91:J94)</f>
-        <v>46395925.915854275</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="50">
-        <f>C88+C95</f>
-        <v>44584663</v>
-      </c>
-      <c r="D96" s="50">
-        <f t="shared" ref="D96:J96" si="60">D88+D95</f>
-        <v>48594768</v>
-      </c>
-      <c r="E96" s="50">
-        <f t="shared" si="60"/>
-        <v>48731992</v>
-      </c>
-      <c r="F96" s="50">
-        <f t="shared" si="60"/>
-        <v>53229039.479658172</v>
-      </c>
-      <c r="G96" s="50">
-        <f t="shared" si="60"/>
-        <v>58609209.525574684</v>
-      </c>
-      <c r="H96" s="50">
-        <f t="shared" si="60"/>
-        <v>64731102.965986967</v>
-      </c>
-      <c r="I96" s="50">
-        <f t="shared" si="60"/>
-        <v>71731401.856431961</v>
-      </c>
-      <c r="J96" s="51">
-        <f t="shared" si="60"/>
-        <v>79336060.140584111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="1">
-        <f t="shared" ref="C97:J97" si="61">C75-C96</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>25993384.744549785</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="63">
+        <v>-158894</v>
+      </c>
+      <c r="D97" s="63">
+        <v>1618528</v>
+      </c>
+      <c r="E97" s="63">
+        <v>6925749</v>
+      </c>
+      <c r="F97" s="64">
+        <f>F77+F79</f>
+        <v>6903947.2401428008</v>
+      </c>
+      <c r="G97" s="64">
+        <f>G77+G79</f>
+        <v>6299852.1434554579</v>
+      </c>
+      <c r="H97" s="64">
+        <f>H77+H79</f>
+        <v>6521828.4934911663</v>
+      </c>
+      <c r="I97" s="64">
+        <f>I77+I79</f>
+        <v>6895506.5195159307</v>
+      </c>
+      <c r="J97" s="65">
+        <f>J77+J79</f>
+        <v>7474931.0694692628</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="62"/>
     </row>
     <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -3902,15 +3904,15 @@
         <v>18871</v>
       </c>
       <c r="H102" s="38">
-        <f t="shared" ref="H102:J102" si="62">G102</f>
+        <f t="shared" ref="H102:J102" si="30">G102</f>
         <v>18871</v>
       </c>
       <c r="I102" s="38">
-        <f t="shared" si="62"/>
+        <f t="shared" si="30"/>
         <v>18871</v>
       </c>
       <c r="J102" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="30"/>
         <v>18871</v>
       </c>
     </row>
@@ -3932,19 +3934,19 @@
         <v>279147</v>
       </c>
       <c r="G103" s="38">
-        <f t="shared" ref="G103:J103" si="63">F103+G102</f>
+        <f t="shared" ref="G103:J103" si="31">F103+G102</f>
         <v>298018</v>
       </c>
       <c r="H103" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="31"/>
         <v>316889</v>
       </c>
       <c r="I103" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="31"/>
         <v>335760</v>
       </c>
       <c r="J103" s="39">
-        <f t="shared" si="63"/>
+        <f t="shared" si="31"/>
         <v>354631</v>
       </c>
     </row>
@@ -4058,19 +4060,19 @@
         <v>37695392.592958532</v>
       </c>
       <c r="G108" s="38">
-        <f t="shared" ref="G108:J108" si="64">G104*G105*12</f>
+        <f t="shared" ref="G108:J108" si="32">G104*G105*12</f>
         <v>41030894.698428616</v>
       </c>
       <c r="H108" s="38">
-        <f t="shared" si="64"/>
+        <f t="shared" si="32"/>
         <v>44217084.478374399</v>
       </c>
       <c r="I108" s="38">
-        <f t="shared" si="64"/>
+        <f t="shared" si="32"/>
         <v>48055719.933752343</v>
       </c>
       <c r="J108" s="39">
-        <f t="shared" si="64"/>
+        <f t="shared" si="32"/>
         <v>51750223.47993952</v>
       </c>
     </row>
@@ -4115,31 +4117,31 @@
         <v>29697844</v>
       </c>
       <c r="D110" s="42">
-        <f t="shared" ref="D110:J110" si="65">SUM(D108:D109)</f>
+        <f t="shared" ref="D110:J110" si="33">SUM(D108:D109)</f>
         <v>31615550</v>
       </c>
       <c r="E110" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>33723297</v>
       </c>
       <c r="F110" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>37695392.592958532</v>
       </c>
       <c r="G110" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>41030894.698428616</v>
       </c>
       <c r="H110" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>44217084.478374399</v>
       </c>
       <c r="I110" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>48055719.933752343</v>
       </c>
       <c r="J110" s="43">
-        <f t="shared" si="65"/>
+        <f t="shared" si="33"/>
         <v>51750223.47993952</v>
       </c>
     </row>
@@ -4183,23 +4185,23 @@
         <v>4637601</v>
       </c>
       <c r="F114" s="38">
-        <f t="shared" ref="F114:J114" si="66">E117</f>
+        <f t="shared" ref="F114:J114" si="34">E117</f>
         <v>5145172</v>
       </c>
       <c r="G114" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="34"/>
         <v>5808837.6906392882</v>
       </c>
       <c r="H114" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="34"/>
         <v>6540232.8231492648</v>
       </c>
       <c r="I114" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="34"/>
         <v>7340158.5943827471</v>
       </c>
       <c r="J114" s="39">
-        <f t="shared" si="66"/>
+        <f t="shared" si="34"/>
         <v>8219680.3663945887</v>
       </c>
     </row>
@@ -4280,11 +4282,11 @@
         <v>4024561</v>
       </c>
       <c r="D117" s="40">
-        <f t="shared" ref="D117:J117" si="67">SUM(D114:D116)</f>
+        <f t="shared" ref="D117:J117" si="35">SUM(D114:D116)</f>
         <v>4637601</v>
       </c>
       <c r="E117" s="40">
-        <f t="shared" si="67"/>
+        <f t="shared" si="35"/>
         <v>5145172</v>
       </c>
       <c r="F117" s="40">
@@ -4292,19 +4294,19 @@
         <v>5808837.6906392882</v>
       </c>
       <c r="G117" s="40">
-        <f t="shared" si="67"/>
+        <f t="shared" si="35"/>
         <v>6540232.8231492648</v>
       </c>
       <c r="H117" s="40">
-        <f t="shared" si="67"/>
+        <f t="shared" si="35"/>
         <v>7340158.5943827471</v>
       </c>
       <c r="I117" s="40">
-        <f t="shared" si="67"/>
+        <f t="shared" si="35"/>
         <v>8219680.3663945887</v>
       </c>
       <c r="J117" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="35"/>
         <v>9177159.9408145975</v>
       </c>
     </row>
@@ -4328,27 +4330,27 @@
         <v>-824190</v>
       </c>
       <c r="E119" s="37">
-        <f t="shared" ref="E119:J119" si="68">D122</f>
+        <f t="shared" ref="E119:J119" si="36">D122</f>
         <v>-824190</v>
       </c>
       <c r="F119" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="36"/>
         <v>-6922200</v>
       </c>
       <c r="G119" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="36"/>
         <v>-9961606.9514981844</v>
       </c>
       <c r="H119" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="36"/>
         <v>-12735065.921012731</v>
       </c>
       <c r="I119" s="38">
-        <f t="shared" si="68"/>
+        <f t="shared" si="36"/>
         <v>-15606248.18386936</v>
       </c>
       <c r="J119" s="39">
-        <f t="shared" si="68"/>
+        <f t="shared" si="36"/>
         <v>-18641939.176357921</v>
       </c>
     </row>
@@ -4366,23 +4368,23 @@
         <v>-6098010</v>
       </c>
       <c r="F120" s="38">
-        <f>'Assumptions and Memos'!E25*F62*(-1)</f>
+        <f>'Assumptions and Memos'!E25*F97*(-1)</f>
         <v>-3039406.9514981844</v>
       </c>
       <c r="G120" s="38">
-        <f>'Assumptions and Memos'!F25*G62*(-1)</f>
+        <f>'Assumptions and Memos'!F25*G97*(-1)</f>
         <v>-2773458.9695145474</v>
       </c>
       <c r="H120" s="38">
-        <f>'Assumptions and Memos'!G25*H62*(-1)</f>
+        <f>'Assumptions and Memos'!G25*H97*(-1)</f>
         <v>-2871182.2628566287</v>
       </c>
       <c r="I120" s="38">
-        <f>'Assumptions and Memos'!H25*I62*(-1)</f>
+        <f>'Assumptions and Memos'!H25*I97*(-1)</f>
         <v>-3035690.9924885626</v>
       </c>
       <c r="J120" s="39">
-        <f>'Assumptions and Memos'!I25*J62*(-1)</f>
+        <f>'Assumptions and Memos'!I25*J97*(-1)</f>
         <v>-3290777.9657430742</v>
       </c>
     </row>
@@ -4424,31 +4426,31 @@
         <v>-824190</v>
       </c>
       <c r="D122" s="40">
-        <f t="shared" ref="D122:J122" si="69">SUM(D119:D121)</f>
+        <f t="shared" ref="D122:J122" si="37">SUM(D119:D121)</f>
         <v>-824190</v>
       </c>
       <c r="E122" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-6922200</v>
       </c>
       <c r="F122" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-9961606.9514981844</v>
       </c>
       <c r="G122" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-12735065.921012731</v>
       </c>
       <c r="H122" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-15606248.18386936</v>
       </c>
       <c r="I122" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-18641939.176357921</v>
       </c>
       <c r="J122" s="41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="37"/>
         <v>-21932717.142100997</v>
       </c>
     </row>
@@ -4478,19 +4480,19 @@
         <v>22589286</v>
       </c>
       <c r="G124" s="38">
-        <f t="shared" ref="G124:J124" si="70">F127</f>
+        <f t="shared" ref="G124:J124" si="38">F127</f>
         <v>28606952.529157728</v>
       </c>
       <c r="H124" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="38"/>
         <v>35257267.993796267</v>
       </c>
       <c r="I124" s="38">
-        <f t="shared" si="70"/>
+        <f t="shared" si="38"/>
         <v>42554553.487644449</v>
       </c>
       <c r="J124" s="39">
-        <f t="shared" si="70"/>
+        <f t="shared" si="38"/>
         <v>50598274.789306954</v>
       </c>
     </row>
@@ -4499,35 +4501,35 @@
         <v>105</v>
       </c>
       <c r="C125" s="37">
-        <f t="shared" ref="C125:J125" si="71">C21</f>
+        <f>C21</f>
         <v>5116228</v>
       </c>
       <c r="D125" s="37">
-        <f t="shared" si="71"/>
+        <f>D21</f>
         <v>4491924</v>
       </c>
       <c r="E125" s="37">
-        <f t="shared" si="71"/>
+        <f>E21</f>
         <v>5407990</v>
       </c>
       <c r="F125" s="38">
-        <f t="shared" si="71"/>
+        <f>F21</f>
         <v>6017666.5291577261</v>
       </c>
       <c r="G125" s="38">
-        <f t="shared" si="71"/>
+        <f>G21</f>
         <v>6650315.4646385405</v>
       </c>
       <c r="H125" s="38">
-        <f t="shared" si="71"/>
+        <f>H21</f>
         <v>7297285.4938481823</v>
       </c>
       <c r="I125" s="38">
-        <f t="shared" si="71"/>
+        <f>I21</f>
         <v>8043721.3016625056</v>
       </c>
       <c r="J125" s="39">
-        <f t="shared" si="71"/>
+        <f>J21</f>
         <v>8777153.3278337214</v>
       </c>
     </row>
@@ -4572,11 +4574,11 @@
         <v>12689372</v>
       </c>
       <c r="D127" s="42">
-        <f t="shared" ref="D127:I127" si="72">SUM(D124:D126)</f>
+        <f t="shared" ref="D127:I127" si="39">SUM(D124:D126)</f>
         <v>17181296</v>
       </c>
       <c r="E127" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="39"/>
         <v>22589286</v>
       </c>
       <c r="F127" s="42">
@@ -4592,7 +4594,7 @@
         <v>42554553.487644449</v>
       </c>
       <c r="I127" s="42">
-        <f t="shared" si="72"/>
+        <f t="shared" si="39"/>
         <v>50598274.789306954</v>
       </c>
       <c r="J127" s="43">
@@ -4632,31 +4634,31 @@
         <v>25383950</v>
       </c>
       <c r="D131" s="37">
-        <f t="shared" ref="D131:J131" si="73">C134</f>
+        <f t="shared" ref="D131:J131" si="40">C134</f>
         <v>30919539</v>
       </c>
       <c r="E131" s="37">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>32736713</v>
       </c>
       <c r="F131" s="38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>31658056</v>
       </c>
       <c r="G131" s="38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>31873992.962525818</v>
       </c>
       <c r="H131" s="38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>33288932.675490275</v>
       </c>
       <c r="I131" s="38">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>35297592.427989811</v>
       </c>
       <c r="J131" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="40"/>
         <v>37882820.954449579</v>
       </c>
     </row>
@@ -4669,11 +4671,11 @@
         <v>17765956</v>
       </c>
       <c r="D132" s="38">
-        <f t="shared" ref="D132:E132" si="74">D134-D131+D133</f>
+        <f t="shared" ref="D132:E132" si="41">D134-D131+D133</f>
         <v>15843306</v>
       </c>
       <c r="E132" s="38">
-        <f t="shared" si="74"/>
+        <f t="shared" si="41"/>
         <v>13118780</v>
       </c>
       <c r="F132" s="38">
@@ -4742,15 +4744,15 @@
         <v>123</v>
       </c>
       <c r="C134" s="40">
-        <f>C72</f>
+        <f>C31</f>
         <v>30919539</v>
       </c>
       <c r="D134" s="40">
-        <f>D72</f>
+        <f>D31</f>
         <v>32736713</v>
       </c>
       <c r="E134" s="40">
-        <f>E72</f>
+        <f>E31</f>
         <v>31658056</v>
       </c>
       <c r="F134" s="40">
@@ -4758,19 +4760,19 @@
         <v>31873992.962525818</v>
       </c>
       <c r="G134" s="40">
-        <f t="shared" ref="G134:J134" si="75">G131+G132-G133</f>
+        <f t="shared" ref="G134:J134" si="42">G131+G132-G133</f>
         <v>33288932.675490275</v>
       </c>
       <c r="H134" s="40">
-        <f t="shared" si="75"/>
+        <f t="shared" si="42"/>
         <v>35297592.427989811</v>
       </c>
       <c r="I134" s="40">
-        <f t="shared" si="75"/>
+        <f t="shared" si="42"/>
         <v>37882820.954449579</v>
       </c>
       <c r="J134" s="41">
-        <f t="shared" si="75"/>
+        <f t="shared" si="42"/>
         <v>40725415.906610146</v>
       </c>
     </row>
@@ -4787,15 +4789,15 @@
         <v>125</v>
       </c>
       <c r="C136" s="37">
-        <f>C79</f>
+        <f>C38</f>
         <v>4292967</v>
       </c>
       <c r="D136" s="37">
-        <f>D79</f>
+        <f>D38</f>
         <v>4480150</v>
       </c>
       <c r="E136" s="37">
-        <f>E79</f>
+        <f>E38</f>
         <v>4466470</v>
       </c>
       <c r="F136" s="38">
@@ -4832,15 +4834,15 @@
         <v>126</v>
       </c>
       <c r="C138" s="44">
-        <f>C85</f>
+        <f>C44</f>
         <v>3094213</v>
       </c>
       <c r="D138" s="44">
-        <f>D85</f>
+        <f>D44</f>
         <v>3081277</v>
       </c>
       <c r="E138" s="44">
-        <f>E85</f>
+        <f>E44</f>
         <v>2578173</v>
       </c>
       <c r="F138" s="19">
@@ -4901,19 +4903,19 @@
         <v>1491444</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" ref="G143:J143" si="76">F146</f>
+        <f t="shared" ref="G143:J143" si="43">F146</f>
         <v>1451033.5456384211</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="43"/>
         <v>1436844.8504523279</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="43"/>
         <v>1443484.1718981555</v>
       </c>
       <c r="J143" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="43"/>
         <v>1471114.0152193988</v>
       </c>
     </row>
@@ -5003,11 +5005,11 @@
         <v>1323453</v>
       </c>
       <c r="D146" s="42">
-        <f t="shared" ref="D146:E146" si="77">SUM(D143:D145)</f>
+        <f t="shared" ref="D146:E146" si="44">SUM(D143:D145)</f>
         <v>1398257</v>
       </c>
       <c r="E146" s="42">
-        <f t="shared" si="77"/>
+        <f t="shared" si="44"/>
         <v>1491444</v>
       </c>
       <c r="F146" s="42">
@@ -5015,19 +5017,19 @@
         <v>1451033.5456384211</v>
       </c>
       <c r="G146" s="42">
-        <f t="shared" ref="G146:J146" si="78">SUM(G143:G145)</f>
+        <f t="shared" ref="G146:J146" si="45">SUM(G143:G145)</f>
         <v>1436844.8504523279</v>
       </c>
       <c r="H146" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="45"/>
         <v>1443484.1718981555</v>
       </c>
       <c r="I146" s="42">
-        <f t="shared" si="78"/>
+        <f t="shared" si="45"/>
         <v>1471114.0152193988</v>
       </c>
       <c r="J146" s="43">
-        <f t="shared" si="78"/>
+        <f t="shared" si="45"/>
         <v>1515274.7731222869</v>
       </c>
     </row>
@@ -5159,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B2E81-2EB3-4D9C-9386-472B8A222F75}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
@@ -5537,15 +5539,15 @@
         <v>80</v>
       </c>
       <c r="B15" s="25">
-        <f>Model!C69/Model!C42</f>
+        <f>Model!C28/Model!C77</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
-        <f>Model!D69/Model!D42</f>
+        <f>Model!D28/Model!D77</f>
         <v>0.44973367149379373</v>
       </c>
       <c r="D15" s="25">
-        <f>Model!E69/Model!E42</f>
+        <f>Model!E28/Model!E77</f>
         <v>2.8831636194322999E-3</v>
       </c>
       <c r="E15" s="25">
@@ -5611,15 +5613,15 @@
         <v>83</v>
       </c>
       <c r="B17" s="69">
-        <f>Model!C80/B16</f>
+        <f>Model!C39/B16</f>
         <v>3.5632517683128799E-2</v>
       </c>
       <c r="C17" s="69">
-        <f>Model!D80/C16</f>
+        <f>Model!D39/C16</f>
         <v>2.5844600790240622E-2</v>
       </c>
       <c r="D17" s="69">
-        <f>Model!E80/D16</f>
+        <f>Model!E39/D16</f>
         <v>2.7920497268250705E-2</v>
       </c>
       <c r="E17" s="69">
@@ -5649,11 +5651,11 @@
       </c>
       <c r="B18" s="70"/>
       <c r="C18" s="70">
-        <f>(Model!D71-Model!C71)/Model!C71</f>
+        <f>(Model!D30-Model!C30)/Model!C30</f>
         <v>0.14828673484245322</v>
       </c>
       <c r="D18" s="70">
-        <f>(Model!E71-Model!D71)/Model!D71</f>
+        <f>(Model!E30-Model!D30)/Model!D30</f>
         <v>7.0324491314009113E-2</v>
       </c>
       <c r="E18" s="70">
@@ -5771,11 +5773,11 @@
         <v>109</v>
       </c>
       <c r="C25" s="71">
-        <f>Model!D120/Model!D62*(-1)</f>
+        <f>Model!D120/Model!D97*(-1)</f>
         <v>0</v>
       </c>
       <c r="D25" s="71">
-        <f>Model!E120/Model!E62*(-1)</f>
+        <f>Model!E120/Model!E97*(-1)</f>
         <v>0.88048382925803403</v>
       </c>
       <c r="E25" s="72">
@@ -5804,35 +5806,35 @@
         <v>114</v>
       </c>
       <c r="B26" s="74">
-        <f>Model!C28+Model!C44</f>
+        <f>Model!C63+Model!C79</f>
         <v>-18226787</v>
       </c>
       <c r="C26" s="74">
-        <f>Model!D28+Model!D44</f>
+        <f>Model!D63+Model!D79</f>
         <v>-17246767</v>
       </c>
       <c r="D26" s="74">
-        <f>Model!E28+Model!E44</f>
+        <f>Model!E63+Model!E79</f>
         <v>-12903255</v>
       </c>
       <c r="E26" s="74">
-        <f>Model!F28+Model!F44</f>
+        <f>Model!F63+Model!F79</f>
         <v>-14881371.226860307</v>
       </c>
       <c r="F26" s="74">
-        <f>Model!G28+Model!G44</f>
+        <f>Model!G63+Model!G79</f>
         <v>-16198159.344587633</v>
       </c>
       <c r="G26" s="74">
-        <f>Model!H28+Model!H44</f>
+        <f>Model!H63+Model!H79</f>
         <v>-17456002.005270217</v>
       </c>
       <c r="H26" s="74">
-        <f>Model!I28+Model!I44</f>
+        <f>Model!I63+Model!I79</f>
         <v>-18971416.895172115</v>
       </c>
       <c r="I26" s="75">
-        <f>Model!J28+Model!J44</f>
+        <f>Model!J63+Model!J79</f>
         <v>-20429931.450609677</v>
       </c>
     </row>
@@ -5966,15 +5968,15 @@
         <v>124</v>
       </c>
       <c r="B33" s="31">
-        <f>Model!C79/Model!C134</f>
+        <f>Model!C38/Model!C134</f>
         <v>0.13884317615472858</v>
       </c>
       <c r="C33" s="31">
-        <f>Model!D79/Model!D134</f>
+        <f>Model!D38/Model!D134</f>
         <v>0.13685399630683753</v>
       </c>
       <c r="D33" s="31">
-        <f>Model!E79/Model!E134</f>
+        <f>Model!E38/Model!E134</f>
         <v>0.14108478423311904</v>
       </c>
       <c r="E33" s="31">
@@ -6003,15 +6005,15 @@
         <v>127</v>
       </c>
       <c r="B34" s="33">
-        <f>Model!C85/Model!C72</f>
+        <f>Model!C44/Model!C31</f>
         <v>0.10007306383190254</v>
       </c>
       <c r="C34" s="33">
-        <f>Model!D85/Model!D72</f>
+        <f>Model!D44/Model!D31</f>
         <v>9.4122980520371727E-2</v>
       </c>
       <c r="D34" s="33">
-        <f>Model!E85/Model!E72</f>
+        <f>Model!E44/Model!E31</f>
         <v>8.1438133788126477E-2</v>
       </c>
       <c r="E34" s="33">

--- a/Netflix Three-Statement Model.xlsx
+++ b/Netflix Three-Statement Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980491D6-380F-4A2A-B519-BFCA217AD43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7145D7-580F-44E7-8B83-A7805C6C159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{580A58EB-B0C4-4370-AEFE-49497A9C5FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -462,9 +462,6 @@
     <t>Property and equipment, net EOP</t>
   </si>
   <si>
-    <t>Furnature and fixtures</t>
-  </si>
-  <si>
     <t>Lease improvements</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>By: Francis Stipek</t>
+  </si>
+  <si>
+    <t>Furniture and fixtures</t>
   </si>
 </sst>
 </file>
@@ -1147,9 +1147,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1162,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="3" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
@@ -1555,7 +1555,7 @@
         <v>1083454.9775544021</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>25991782.744549785</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1841,35 +1841,35 @@
         <v>15</v>
       </c>
       <c r="C30" s="47">
-        <f>SUM(C27:C29)</f>
+        <f t="shared" ref="C30:J30" si="15">SUM(C27:C29)</f>
         <v>8069825</v>
       </c>
       <c r="D30" s="47">
-        <f>SUM(D27:D29)</f>
+        <f t="shared" si="15"/>
         <v>9266473</v>
       </c>
       <c r="E30" s="47">
-        <f>SUM(E27:E29)</f>
+        <f t="shared" si="15"/>
         <v>9918133</v>
       </c>
       <c r="F30" s="47">
-        <f>SUM(F27:F29)</f>
+        <f t="shared" si="15"/>
         <v>14239653.971493924</v>
       </c>
       <c r="G30" s="47">
-        <f>SUM(G27:G29)</f>
+        <f t="shared" si="15"/>
         <v>18219072.999632079</v>
       </c>
       <c r="H30" s="47">
-        <f>SUM(H27:H29)</f>
+        <f t="shared" si="15"/>
         <v>22325667.366098996</v>
       </c>
       <c r="I30" s="47">
-        <f>SUM(I27:I29)</f>
+        <f t="shared" si="15"/>
         <v>26713107.886762973</v>
       </c>
       <c r="J30" s="48">
-        <f>SUM(J27:J29)</f>
+        <f t="shared" si="15"/>
         <v>31431010.460851666</v>
       </c>
     </row>
@@ -1912,35 +1912,35 @@
         <v>17</v>
       </c>
       <c r="C32" s="52">
-        <f>C146</f>
+        <f t="shared" ref="C32:J32" si="16">C146</f>
         <v>1323453</v>
       </c>
       <c r="D32" s="52">
-        <f>D146</f>
+        <f t="shared" si="16"/>
         <v>1398257</v>
       </c>
       <c r="E32" s="52">
-        <f>E146</f>
+        <f t="shared" si="16"/>
         <v>1491444</v>
       </c>
       <c r="F32" s="53">
-        <f>F146</f>
+        <f t="shared" si="16"/>
         <v>1451033.5456384211</v>
       </c>
       <c r="G32" s="53">
-        <f>G146</f>
+        <f t="shared" si="16"/>
         <v>1436844.8504523279</v>
       </c>
       <c r="H32" s="53">
-        <f>H146</f>
+        <f t="shared" si="16"/>
         <v>1443484.1718981555</v>
       </c>
       <c r="I32" s="53">
-        <f>I146</f>
+        <f t="shared" si="16"/>
         <v>1471114.0152193988</v>
       </c>
       <c r="J32" s="54">
-        <f>J146</f>
+        <f t="shared" si="16"/>
         <v>1515274.7731222869</v>
       </c>
     </row>
@@ -1983,35 +1983,35 @@
         <v>19</v>
       </c>
       <c r="C34" s="47">
-        <f>SUM(C30:C33)</f>
+        <f t="shared" ref="C34:J34" si="17">SUM(C30:C33)</f>
         <v>44584663</v>
       </c>
       <c r="D34" s="47">
-        <f>SUM(D30:D33)</f>
+        <f t="shared" si="17"/>
         <v>48594768</v>
       </c>
       <c r="E34" s="47">
-        <f>SUM(E30:E33)</f>
+        <f t="shared" si="17"/>
         <v>48731992</v>
       </c>
       <c r="F34" s="47">
-        <f>SUM(F30:F33)</f>
+        <f t="shared" si="17"/>
         <v>53229039.479658164</v>
       </c>
       <c r="G34" s="47">
-        <f>SUM(G30:G33)</f>
+        <f t="shared" si="17"/>
         <v>58609209.525574677</v>
       </c>
       <c r="H34" s="47">
-        <f>SUM(H30:H33)</f>
+        <f t="shared" si="17"/>
         <v>64731102.965986967</v>
       </c>
       <c r="I34" s="47">
-        <f>SUM(I30:I33)</f>
+        <f t="shared" si="17"/>
         <v>71731401.856431961</v>
       </c>
       <c r="J34" s="48">
-        <f>SUM(J30:J33)</f>
+        <f t="shared" si="17"/>
         <v>79336060.140584096</v>
       </c>
     </row>
@@ -2218,35 +2218,35 @@
         <v>26</v>
       </c>
       <c r="C43" s="47">
-        <f>SUM(C38:C42)</f>
+        <f t="shared" ref="C43:J43" si="18">SUM(C38:C42)</f>
         <v>8488966</v>
       </c>
       <c r="D43" s="47">
-        <f>SUM(D38:D42)</f>
+        <f t="shared" si="18"/>
         <v>7930974</v>
       </c>
       <c r="E43" s="47">
-        <f>SUM(E38:E42)</f>
+        <f t="shared" si="18"/>
         <v>8860655</v>
       </c>
       <c r="F43" s="47">
-        <f>SUM(F38:F42)</f>
+        <f t="shared" si="18"/>
         <v>9365429.5932664275</v>
       </c>
       <c r="G43" s="47">
-        <f>SUM(G38:G42)</f>
+        <f t="shared" si="18"/>
         <v>10007346.096581921</v>
       </c>
       <c r="H43" s="47">
-        <f>SUM(H38:H42)</f>
+        <f t="shared" si="18"/>
         <v>10718658.774754532</v>
       </c>
       <c r="I43" s="47">
-        <f>SUM(I38:I42)</f>
+        <f t="shared" si="18"/>
         <v>11593879.803948458</v>
       </c>
       <c r="J43" s="48">
-        <f>SUM(J38:J42)</f>
+        <f t="shared" si="18"/>
         <v>12493511.043781674</v>
       </c>
     </row>
@@ -2298,23 +2298,23 @@
         <v>14143417</v>
       </c>
       <c r="F45" s="53">
-        <f>E45</f>
+        <f t="shared" ref="F45:J46" si="19">E45</f>
         <v>14143417</v>
       </c>
       <c r="G45" s="53">
-        <f>F45</f>
+        <f t="shared" si="19"/>
         <v>14143417</v>
       </c>
       <c r="H45" s="53">
-        <f>G45</f>
+        <f t="shared" si="19"/>
         <v>14143417</v>
       </c>
       <c r="I45" s="53">
-        <f>H45</f>
+        <f t="shared" si="19"/>
         <v>14143417</v>
       </c>
       <c r="J45" s="54">
-        <f>I45</f>
+        <f t="shared" si="19"/>
         <v>14143417</v>
       </c>
     </row>
@@ -2332,23 +2332,23 @@
         <v>2561434</v>
       </c>
       <c r="F46" s="53">
-        <f>E46</f>
+        <f t="shared" si="19"/>
         <v>2561434</v>
       </c>
       <c r="G46" s="53">
-        <f>F46</f>
+        <f t="shared" si="19"/>
         <v>2561434</v>
       </c>
       <c r="H46" s="53">
-        <f>G46</f>
+        <f t="shared" si="19"/>
         <v>2561434</v>
       </c>
       <c r="I46" s="53">
-        <f>H46</f>
+        <f t="shared" si="19"/>
         <v>2561434</v>
       </c>
       <c r="J46" s="54">
-        <f>I46</f>
+        <f t="shared" si="19"/>
         <v>2561434</v>
       </c>
     </row>
@@ -2357,35 +2357,35 @@
         <v>30</v>
       </c>
       <c r="C47" s="47">
-        <f>SUM(C43:C46)</f>
+        <f t="shared" ref="C47:J47" si="20">SUM(C43:C46)</f>
         <v>28735415</v>
       </c>
       <c r="D47" s="47">
-        <f>SUM(D43:D46)</f>
+        <f t="shared" si="20"/>
         <v>27817367</v>
       </c>
       <c r="E47" s="47">
-        <f>SUM(E43:E46)</f>
+        <f t="shared" si="20"/>
         <v>28143679</v>
       </c>
       <c r="F47" s="47">
-        <f>SUM(F43:F46)</f>
+        <f t="shared" si="20"/>
         <v>28998801.211359337</v>
       </c>
       <c r="G47" s="47">
-        <f>SUM(G43:G46)</f>
+        <f t="shared" si="20"/>
         <v>29770719.629641887</v>
       </c>
       <c r="H47" s="47">
-        <f>SUM(H43:H46)</f>
+        <f t="shared" si="20"/>
         <v>30666584.067829132</v>
       </c>
       <c r="I47" s="47">
-        <f>SUM(I43:I46)</f>
+        <f t="shared" si="20"/>
         <v>31779330.877088346</v>
       </c>
       <c r="J47" s="48">
-        <f>SUM(J43:J46)</f>
+        <f t="shared" si="20"/>
         <v>32940134.224729836</v>
       </c>
     </row>
@@ -2412,35 +2412,35 @@
         <v>98</v>
       </c>
       <c r="C50" s="52">
-        <f>C117</f>
+        <f t="shared" ref="C50:J50" si="21">C117</f>
         <v>4024561</v>
       </c>
       <c r="D50" s="52">
-        <f>D117</f>
+        <f t="shared" si="21"/>
         <v>4637601</v>
       </c>
       <c r="E50" s="52">
-        <f>E117</f>
+        <f t="shared" si="21"/>
         <v>5145172</v>
       </c>
       <c r="F50" s="53">
-        <f>F117</f>
+        <f t="shared" si="21"/>
         <v>5808837.6906392882</v>
       </c>
       <c r="G50" s="53">
-        <f>G117</f>
+        <f t="shared" si="21"/>
         <v>6540232.8231492648</v>
       </c>
       <c r="H50" s="53">
-        <f>H117</f>
+        <f t="shared" si="21"/>
         <v>7340158.5943827471</v>
       </c>
       <c r="I50" s="53">
-        <f>I117</f>
+        <f t="shared" si="21"/>
         <v>8219680.3663945887</v>
       </c>
       <c r="J50" s="54">
-        <f>J117</f>
+        <f t="shared" si="21"/>
         <v>9177159.9408145975</v>
       </c>
     </row>
@@ -2449,35 +2449,35 @@
         <v>99</v>
       </c>
       <c r="C51" s="52">
-        <f>C122</f>
+        <f t="shared" ref="C51:J51" si="22">C122</f>
         <v>-824190</v>
       </c>
       <c r="D51" s="52">
-        <f>D122</f>
+        <f t="shared" si="22"/>
         <v>-824190</v>
       </c>
       <c r="E51" s="52">
-        <f>E122</f>
+        <f t="shared" si="22"/>
         <v>-6922200</v>
       </c>
       <c r="F51" s="53">
-        <f>F122</f>
+        <f t="shared" si="22"/>
         <v>-9961606.9514981844</v>
       </c>
       <c r="G51" s="53">
-        <f>G122</f>
+        <f t="shared" si="22"/>
         <v>-12735065.921012731</v>
       </c>
       <c r="H51" s="53">
-        <f>H122</f>
+        <f t="shared" si="22"/>
         <v>-15606248.18386936</v>
       </c>
       <c r="I51" s="53">
-        <f>I122</f>
+        <f t="shared" si="22"/>
         <v>-18641939.176357921</v>
       </c>
       <c r="J51" s="54">
-        <f>J122</f>
+        <f t="shared" si="22"/>
         <v>-21932717.142100997</v>
       </c>
     </row>
@@ -2520,35 +2520,35 @@
         <v>32</v>
       </c>
       <c r="C53" s="52">
-        <f>C127</f>
+        <f t="shared" ref="C53:J53" si="23">C127</f>
         <v>12689372</v>
       </c>
       <c r="D53" s="52">
-        <f>D127</f>
+        <f t="shared" si="23"/>
         <v>17181296</v>
       </c>
       <c r="E53" s="52">
-        <f>E127</f>
+        <f t="shared" si="23"/>
         <v>22589286</v>
       </c>
       <c r="F53" s="53">
-        <f>F127</f>
+        <f t="shared" si="23"/>
         <v>28606952.529157728</v>
       </c>
       <c r="G53" s="53">
-        <f>G127</f>
+        <f t="shared" si="23"/>
         <v>35257267.993796267</v>
       </c>
       <c r="H53" s="53">
-        <f>H127</f>
+        <f t="shared" si="23"/>
         <v>42554553.487644449</v>
       </c>
       <c r="I53" s="53">
-        <f>I127</f>
+        <f t="shared" si="23"/>
         <v>50598274.789306954</v>
       </c>
       <c r="J53" s="54">
-        <f>J127</f>
+        <f t="shared" si="23"/>
         <v>59375428.117140673</v>
       </c>
     </row>
@@ -2557,35 +2557,35 @@
         <v>72</v>
       </c>
       <c r="C54" s="47">
-        <f>SUM(C50:C53)</f>
+        <f t="shared" ref="C54:J54" si="24">SUM(C50:C53)</f>
         <v>15849248</v>
       </c>
       <c r="D54" s="47">
-        <f>SUM(D50:D53)</f>
+        <f t="shared" si="24"/>
         <v>20777401</v>
       </c>
       <c r="E54" s="47">
-        <f>SUM(E50:E53)</f>
+        <f t="shared" si="24"/>
         <v>20588313</v>
       </c>
       <c r="F54" s="47">
-        <f>SUM(F50:F53)</f>
+        <f t="shared" si="24"/>
         <v>24230238.268298831</v>
       </c>
       <c r="G54" s="47">
-        <f>SUM(G50:G53)</f>
+        <f t="shared" si="24"/>
         <v>28838489.895932801</v>
       </c>
       <c r="H54" s="47">
-        <f>SUM(H50:H53)</f>
+        <f t="shared" si="24"/>
         <v>34064518.898157835</v>
       </c>
       <c r="I54" s="47">
-        <f>SUM(I50:I53)</f>
+        <f t="shared" si="24"/>
         <v>39952070.979343623</v>
       </c>
       <c r="J54" s="48">
-        <f>SUM(J50:J53)</f>
+        <f t="shared" si="24"/>
         <v>46395925.915854275</v>
       </c>
     </row>
@@ -2594,35 +2594,35 @@
         <v>73</v>
       </c>
       <c r="C55" s="50">
-        <f>C47+C54</f>
+        <f t="shared" ref="C55:J55" si="25">C47+C54</f>
         <v>44584663</v>
       </c>
       <c r="D55" s="50">
-        <f>D47+D54</f>
+        <f t="shared" si="25"/>
         <v>48594768</v>
       </c>
       <c r="E55" s="50">
-        <f>E47+E54</f>
+        <f t="shared" si="25"/>
         <v>48731992</v>
       </c>
       <c r="F55" s="50">
-        <f>F47+F54</f>
+        <f t="shared" si="25"/>
         <v>53229039.479658172</v>
       </c>
       <c r="G55" s="50">
-        <f>G47+G54</f>
+        <f t="shared" si="25"/>
         <v>58609209.525574684</v>
       </c>
       <c r="H55" s="50">
-        <f>H47+H54</f>
+        <f t="shared" si="25"/>
         <v>64731102.965986967</v>
       </c>
       <c r="I55" s="50">
-        <f>I47+I54</f>
+        <f t="shared" si="25"/>
         <v>71731401.856431961</v>
       </c>
       <c r="J55" s="51">
-        <f>J47+J54</f>
+        <f t="shared" si="25"/>
         <v>79336060.140584111</v>
       </c>
     </row>
@@ -2631,35 +2631,35 @@
         <v>118</v>
       </c>
       <c r="C56" s="1">
-        <f>C34-C55</f>
+        <f t="shared" ref="C56:J56" si="26">C34-C55</f>
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <f>D34-D55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <f>E34-E55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <f>F34-F55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f>G34-G55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>H34-H55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>I34-I55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <f>J34-J55</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -2714,35 +2714,35 @@
         <v>9</v>
       </c>
       <c r="C61" s="52">
-        <f>C21</f>
+        <f t="shared" ref="C61:J61" si="27">C21</f>
         <v>5116228</v>
       </c>
       <c r="D61" s="52">
-        <f>D21</f>
+        <f t="shared" si="27"/>
         <v>4491924</v>
       </c>
       <c r="E61" s="52">
-        <f>E21</f>
+        <f t="shared" si="27"/>
         <v>5407990</v>
       </c>
       <c r="F61" s="53">
-        <f>F21</f>
+        <f t="shared" si="27"/>
         <v>6017666.5291577261</v>
       </c>
       <c r="G61" s="53">
-        <f>G21</f>
+        <f t="shared" si="27"/>
         <v>6650315.4646385405</v>
       </c>
       <c r="H61" s="53">
-        <f>H21</f>
+        <f t="shared" si="27"/>
         <v>7297285.4938481823</v>
       </c>
       <c r="I61" s="53">
-        <f>I21</f>
+        <f t="shared" si="27"/>
         <v>8043721.3016625056</v>
       </c>
       <c r="J61" s="54">
-        <f>J21</f>
+        <f t="shared" si="27"/>
         <v>8777153.3278337214</v>
       </c>
     </row>
@@ -2777,19 +2777,19 @@
         <v>-14663974.356975019</v>
       </c>
       <c r="G63" s="53">
-        <f t="shared" ref="G63:J63" si="15">G132*(-1)</f>
+        <f t="shared" ref="G63:J63" si="28">G132*(-1)</f>
         <v>-15961525.966807202</v>
       </c>
       <c r="H63" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-17200993.233645231</v>
       </c>
       <c r="I63" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-18694269.944973398</v>
       </c>
       <c r="J63" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-20131477.5593905</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>656086.20322558144</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
@@ -2848,19 +2848,19 @@
         <v>14448037.3944492</v>
       </c>
       <c r="G65" s="53">
-        <f t="shared" ref="G65:J65" si="16">G133</f>
+        <f t="shared" ref="G65:J65" si="29">G133</f>
         <v>14546586.253842739</v>
       </c>
       <c r="H65" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>15192333.481145695</v>
       </c>
       <c r="I65" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>16109041.418513622</v>
       </c>
       <c r="J65" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>17288882.607229933</v>
       </c>
     </row>
@@ -2882,19 +2882,19 @@
         <v>257807.32424686657</v>
       </c>
       <c r="G66" s="53">
-        <f t="shared" ref="G66:J66" si="17">G144*(-1)</f>
+        <f t="shared" ref="G66:J66" si="30">G144*(-1)</f>
         <v>250822.07296652431</v>
       </c>
       <c r="H66" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>248369.45017915778</v>
       </c>
       <c r="I66" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>249517.10687747406</v>
       </c>
       <c r="J66" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>254293.13331628765</v>
       </c>
     </row>
@@ -2916,19 +2916,19 @@
         <v>540934.41649662401</v>
       </c>
       <c r="G67" s="53">
-        <f t="shared" ref="G67:J67" si="18">G116</f>
+        <f t="shared" ref="G67:J67" si="31">G116</f>
         <v>597803.8992277357</v>
       </c>
       <c r="H67" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>655960.72023893683</v>
       </c>
       <c r="I67" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>723058.62541460653</v>
       </c>
       <c r="J67" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>788987.60688849248</v>
       </c>
     </row>
@@ -3080,23 +3080,23 @@
         <v>93502</v>
       </c>
       <c r="F73" s="53">
-        <f>F39-E39</f>
+        <f t="shared" ref="F73:J75" si="32">F39-E39</f>
         <v>153858.70106838387</v>
       </c>
       <c r="G73" s="53">
-        <f>G39-F39</f>
+        <f t="shared" si="32"/>
         <v>79749.542695402168</v>
       </c>
       <c r="H73" s="53">
-        <f>H39-G39</f>
+        <f t="shared" si="32"/>
         <v>76179.588516742922</v>
       </c>
       <c r="I73" s="53">
-        <f>I39-H39</f>
+        <f t="shared" si="32"/>
         <v>91779.112247810699</v>
       </c>
       <c r="J73" s="54">
-        <f>J39-I39</f>
+        <f t="shared" si="32"/>
         <v>88333.018231881782</v>
       </c>
     </row>
@@ -3114,23 +3114,23 @@
         <v>103565</v>
       </c>
       <c r="F74" s="53">
-        <f>F40-E40</f>
+        <f t="shared" si="32"/>
         <v>212479.271106662</v>
       </c>
       <c r="G74" s="53">
-        <f>G40-F40</f>
+        <f t="shared" si="32"/>
         <v>178425.98184227967</v>
       </c>
       <c r="H74" s="53">
-        <f>H40-G40</f>
+        <f t="shared" si="32"/>
         <v>170438.81905826088</v>
       </c>
       <c r="I74" s="53">
-        <f>I40-H40</f>
+        <f t="shared" si="32"/>
         <v>205340.08925887663</v>
       </c>
       <c r="J74" s="54">
-        <f>J40-I40</f>
+        <f t="shared" si="32"/>
         <v>197630.04243564373</v>
       </c>
     </row>
@@ -3148,23 +3148,23 @@
         <v>178708</v>
       </c>
       <c r="F75" s="53">
-        <f>F41-E41</f>
+        <f t="shared" si="32"/>
         <v>169959.97768770321</v>
       </c>
       <c r="G75" s="53">
-        <f>G41-F41</f>
+        <f t="shared" si="32"/>
         <v>142721.10279217525</v>
       </c>
       <c r="H75" s="53">
-        <f>H41-G41</f>
+        <f t="shared" si="32"/>
         <v>136332.25365178799</v>
       </c>
       <c r="I75" s="53">
-        <f>I41-H41</f>
+        <f t="shared" si="32"/>
         <v>164249.4197530942</v>
       </c>
       <c r="J75" s="54">
-        <f>J41-I41</f>
+        <f t="shared" si="32"/>
         <v>158082.23281187983</v>
       </c>
     </row>
@@ -3211,31 +3211,31 @@
         <v>392610</v>
       </c>
       <c r="D77" s="47">
-        <f t="shared" ref="D77:J77" si="19">SUM(D61:D76)</f>
+        <f t="shared" ref="D77:J77" si="33">SUM(D61:D76)</f>
         <v>2026257</v>
       </c>
       <c r="E77" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>7274301</v>
       </c>
       <c r="F77" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>7121344.1100280881</v>
       </c>
       <c r="G77" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>6536485.5212358888</v>
       </c>
       <c r="H77" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>6776837.2651161514</v>
       </c>
       <c r="I77" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>7172653.4697146481</v>
       </c>
       <c r="J77" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>7773384.9606884383</v>
       </c>
     </row>
@@ -3269,19 +3269,19 @@
         <v>-217396.86988528768</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79:J79" si="20">G145*(-1)</f>
+        <f t="shared" ref="G79:J79" si="34">G145*(-1)</f>
         <v>-236633.37778043121</v>
       </c>
       <c r="H79" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>-255008.77162498544</v>
       </c>
       <c r="I79" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>-277146.95019871747</v>
       </c>
       <c r="J79" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>-298453.89121917577</v>
       </c>
     </row>
@@ -3331,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81:J81" si="21">F81</f>
+        <f t="shared" ref="G81:J81" si="35">F81</f>
         <v>0</v>
       </c>
       <c r="H81" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I81" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J81" s="54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3424,11 +3424,11 @@
         <v>-1339853</v>
       </c>
       <c r="D84" s="47">
-        <f t="shared" ref="D84:E84" si="22">SUM(D79:D83)</f>
+        <f t="shared" ref="D84:E84" si="36">SUM(D79:D83)</f>
         <v>-2076392</v>
       </c>
       <c r="E84" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>541751</v>
       </c>
       <c r="F84" s="47">
@@ -3510,19 +3510,19 @@
         <v>122731.27414266349</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" ref="G87:J87" si="23">G115</f>
+        <f t="shared" ref="G87:J87" si="37">G115</f>
         <v>133591.23328224148</v>
       </c>
       <c r="H87" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>143965.05099454525</v>
       </c>
       <c r="I87" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>156463.14659723549</v>
       </c>
       <c r="J87" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>168491.96753151706</v>
       </c>
     </row>
@@ -3544,19 +3544,19 @@
         <v>-3039406.9514981844</v>
       </c>
       <c r="G88" s="53">
-        <f t="shared" ref="G88:J88" si="24">G120</f>
+        <f t="shared" ref="G88:J88" si="38">G120</f>
         <v>-2773458.9695145474</v>
       </c>
       <c r="H88" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-2871182.2628566287</v>
       </c>
       <c r="I88" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-3035690.9924885626</v>
       </c>
       <c r="J88" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-3290777.9657430742</v>
       </c>
     </row>
@@ -3632,31 +3632,31 @@
         <v>-1149776</v>
       </c>
       <c r="D91" s="47">
-        <f t="shared" ref="D91:J91" si="25">SUM(D86:D90)</f>
+        <f t="shared" ref="D91:J91" si="39">SUM(D86:D90)</f>
         <v>-664254</v>
       </c>
       <c r="E91" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-5950803</v>
       </c>
       <c r="F91" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-2909897.4188165544</v>
       </c>
       <c r="G91" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-2595421.6409714492</v>
       </c>
       <c r="H91" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-2677912.9089098051</v>
       </c>
       <c r="I91" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-2824534.3058774555</v>
       </c>
       <c r="J91" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-3061614.1472750502</v>
       </c>
     </row>
@@ -3698,31 +3698,31 @@
         <v>-2183759</v>
       </c>
       <c r="D93" s="52">
-        <f t="shared" ref="D93:J93" si="26">SUM(D77,D84,D91,D92)</f>
+        <f t="shared" ref="D93:J93" si="40">SUM(D77,D84,D91,D92)</f>
         <v>-884529</v>
       </c>
       <c r="E93" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>1947933</v>
       </c>
       <c r="F93" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>2940609.4103818703</v>
       </c>
       <c r="G93" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>3792669.4502999792</v>
       </c>
       <c r="H93" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>3807653.1693716841</v>
       </c>
       <c r="I93" s="53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>4011254.521034508</v>
       </c>
       <c r="J93" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>4322683.1934617432</v>
       </c>
     </row>
@@ -3744,19 +3744,19 @@
         <v>7118515</v>
       </c>
       <c r="G94" s="53">
-        <f t="shared" ref="G94:J94" si="27">F95</f>
+        <f t="shared" ref="G94:J94" si="41">F95</f>
         <v>10059124.41038187</v>
       </c>
       <c r="H94" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>13851793.86068185</v>
       </c>
       <c r="I94" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>17659447.030053534</v>
       </c>
       <c r="J94" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>21670701.551088043</v>
       </c>
     </row>
@@ -3769,11 +3769,11 @@
         <v>6055111</v>
       </c>
       <c r="D95" s="47">
-        <f t="shared" ref="D95:E95" si="28">SUM(D93:D94)</f>
+        <f t="shared" ref="D95:E95" si="42">SUM(D93:D94)</f>
         <v>5170582</v>
       </c>
       <c r="E95" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>7118515</v>
       </c>
       <c r="F95" s="47">
@@ -3781,19 +3781,19 @@
         <v>10059124.41038187</v>
       </c>
       <c r="G95" s="47">
-        <f t="shared" ref="G95:J95" si="29">SUM(G93:G94)</f>
+        <f t="shared" ref="G95:J95" si="43">SUM(G93:G94)</f>
         <v>13851793.86068185</v>
       </c>
       <c r="H95" s="47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>17659447.030053534</v>
       </c>
       <c r="I95" s="47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>21670701.551088043</v>
       </c>
       <c r="J95" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>25993384.744549785</v>
       </c>
     </row>
@@ -3904,15 +3904,15 @@
         <v>18871</v>
       </c>
       <c r="H102" s="38">
-        <f t="shared" ref="H102:J102" si="30">G102</f>
+        <f t="shared" ref="H102:J102" si="44">G102</f>
         <v>18871</v>
       </c>
       <c r="I102" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>18871</v>
       </c>
       <c r="J102" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>18871</v>
       </c>
     </row>
@@ -3934,19 +3934,19 @@
         <v>279147</v>
       </c>
       <c r="G103" s="38">
-        <f t="shared" ref="G103:J103" si="31">F103+G102</f>
+        <f t="shared" ref="G103:J103" si="45">F103+G102</f>
         <v>298018</v>
       </c>
       <c r="H103" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>316889</v>
       </c>
       <c r="I103" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>335760</v>
       </c>
       <c r="J103" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>354631</v>
       </c>
     </row>
@@ -4060,19 +4060,19 @@
         <v>37695392.592958532</v>
       </c>
       <c r="G108" s="38">
-        <f t="shared" ref="G108:J108" si="32">G104*G105*12</f>
+        <f t="shared" ref="G108:J108" si="46">G104*G105*12</f>
         <v>41030894.698428616</v>
       </c>
       <c r="H108" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>44217084.478374399</v>
       </c>
       <c r="I108" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>48055719.933752343</v>
       </c>
       <c r="J108" s="39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>51750223.47993952</v>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4117,31 +4117,31 @@
         <v>29697844</v>
       </c>
       <c r="D110" s="42">
-        <f t="shared" ref="D110:J110" si="33">SUM(D108:D109)</f>
+        <f t="shared" ref="D110:J110" si="47">SUM(D108:D109)</f>
         <v>31615550</v>
       </c>
       <c r="E110" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>33723297</v>
       </c>
       <c r="F110" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>37695392.592958532</v>
       </c>
       <c r="G110" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>41030894.698428616</v>
       </c>
       <c r="H110" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>44217084.478374399</v>
       </c>
       <c r="I110" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>48055719.933752343</v>
       </c>
       <c r="J110" s="43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>51750223.47993952</v>
       </c>
     </row>
@@ -4185,23 +4185,23 @@
         <v>4637601</v>
       </c>
       <c r="F114" s="38">
-        <f t="shared" ref="F114:J114" si="34">E117</f>
+        <f t="shared" ref="F114:J114" si="48">E117</f>
         <v>5145172</v>
       </c>
       <c r="G114" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>5808837.6906392882</v>
       </c>
       <c r="H114" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>6540232.8231492648</v>
       </c>
       <c r="I114" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>7340158.5943827471</v>
       </c>
       <c r="J114" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>8219680.3663945887</v>
       </c>
     </row>
@@ -4282,11 +4282,11 @@
         <v>4024561</v>
       </c>
       <c r="D117" s="40">
-        <f t="shared" ref="D117:J117" si="35">SUM(D114:D116)</f>
+        <f t="shared" ref="D117:J117" si="49">SUM(D114:D116)</f>
         <v>4637601</v>
       </c>
       <c r="E117" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>5145172</v>
       </c>
       <c r="F117" s="40">
@@ -4294,19 +4294,19 @@
         <v>5808837.6906392882</v>
       </c>
       <c r="G117" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>6540232.8231492648</v>
       </c>
       <c r="H117" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>7340158.5943827471</v>
       </c>
       <c r="I117" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>8219680.3663945887</v>
       </c>
       <c r="J117" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>9177159.9408145975</v>
       </c>
     </row>
@@ -4330,27 +4330,27 @@
         <v>-824190</v>
       </c>
       <c r="E119" s="37">
-        <f t="shared" ref="E119:J119" si="36">D122</f>
+        <f t="shared" ref="E119:J119" si="50">D122</f>
         <v>-824190</v>
       </c>
       <c r="F119" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-6922200</v>
       </c>
       <c r="G119" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-9961606.9514981844</v>
       </c>
       <c r="H119" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-12735065.921012731</v>
       </c>
       <c r="I119" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-15606248.18386936</v>
       </c>
       <c r="J119" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-18641939.176357921</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" s="37">
         <v>-224168</v>
@@ -4426,31 +4426,31 @@
         <v>-824190</v>
       </c>
       <c r="D122" s="40">
-        <f t="shared" ref="D122:J122" si="37">SUM(D119:D121)</f>
+        <f t="shared" ref="D122:J122" si="51">SUM(D119:D121)</f>
         <v>-824190</v>
       </c>
       <c r="E122" s="40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-6922200</v>
       </c>
       <c r="F122" s="40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-9961606.9514981844</v>
       </c>
       <c r="G122" s="40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-12735065.921012731</v>
       </c>
       <c r="H122" s="40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-15606248.18386936</v>
       </c>
       <c r="I122" s="40">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-18641939.176357921</v>
       </c>
       <c r="J122" s="41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>-21932717.142100997</v>
       </c>
     </row>
@@ -4480,19 +4480,19 @@
         <v>22589286</v>
       </c>
       <c r="G124" s="38">
-        <f t="shared" ref="G124:J124" si="38">F127</f>
+        <f t="shared" ref="G124:J124" si="52">F127</f>
         <v>28606952.529157728</v>
       </c>
       <c r="H124" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>35257267.993796267</v>
       </c>
       <c r="I124" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42554553.487644449</v>
       </c>
       <c r="J124" s="39">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>50598274.789306954</v>
       </c>
     </row>
@@ -4501,35 +4501,35 @@
         <v>105</v>
       </c>
       <c r="C125" s="37">
-        <f>C21</f>
+        <f t="shared" ref="C125:J125" si="53">C21</f>
         <v>5116228</v>
       </c>
       <c r="D125" s="37">
-        <f>D21</f>
+        <f t="shared" si="53"/>
         <v>4491924</v>
       </c>
       <c r="E125" s="37">
-        <f>E21</f>
+        <f t="shared" si="53"/>
         <v>5407990</v>
       </c>
       <c r="F125" s="38">
-        <f>F21</f>
+        <f t="shared" si="53"/>
         <v>6017666.5291577261</v>
       </c>
       <c r="G125" s="38">
-        <f>G21</f>
+        <f t="shared" si="53"/>
         <v>6650315.4646385405</v>
       </c>
       <c r="H125" s="38">
-        <f>H21</f>
+        <f t="shared" si="53"/>
         <v>7297285.4938481823</v>
       </c>
       <c r="I125" s="38">
-        <f>I21</f>
+        <f t="shared" si="53"/>
         <v>8043721.3016625056</v>
       </c>
       <c r="J125" s="39">
-        <f>J21</f>
+        <f t="shared" si="53"/>
         <v>8777153.3278337214</v>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4574,11 +4574,11 @@
         <v>12689372</v>
       </c>
       <c r="D127" s="42">
-        <f t="shared" ref="D127:I127" si="39">SUM(D124:D126)</f>
+        <f t="shared" ref="D127:I127" si="54">SUM(D124:D126)</f>
         <v>17181296</v>
       </c>
       <c r="E127" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>22589286</v>
       </c>
       <c r="F127" s="42">
@@ -4594,7 +4594,7 @@
         <v>42554553.487644449</v>
       </c>
       <c r="I127" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>50598274.789306954</v>
       </c>
       <c r="J127" s="43">
@@ -4634,31 +4634,31 @@
         <v>25383950</v>
       </c>
       <c r="D131" s="37">
-        <f t="shared" ref="D131:J131" si="40">C134</f>
+        <f t="shared" ref="D131:J131" si="55">C134</f>
         <v>30919539</v>
       </c>
       <c r="E131" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>32736713</v>
       </c>
       <c r="F131" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>31658056</v>
       </c>
       <c r="G131" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>31873992.962525818</v>
       </c>
       <c r="H131" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>33288932.675490275</v>
       </c>
       <c r="I131" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>35297592.427989811</v>
       </c>
       <c r="J131" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>37882820.954449579</v>
       </c>
     </row>
@@ -4671,11 +4671,11 @@
         <v>17765956</v>
       </c>
       <c r="D132" s="38">
-        <f t="shared" ref="D132:E132" si="41">D134-D131+D133</f>
+        <f t="shared" ref="D132:E132" si="56">D134-D131+D133</f>
         <v>15843306</v>
       </c>
       <c r="E132" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>13118780</v>
       </c>
       <c r="F132" s="38">
@@ -4760,19 +4760,19 @@
         <v>31873992.962525818</v>
       </c>
       <c r="G134" s="40">
-        <f t="shared" ref="G134:J134" si="42">G131+G132-G133</f>
+        <f t="shared" ref="G134:J134" si="57">G131+G132-G133</f>
         <v>33288932.675490275</v>
       </c>
       <c r="H134" s="40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>35297592.427989811</v>
       </c>
       <c r="I134" s="40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>37882820.954449579</v>
       </c>
       <c r="J134" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>40725415.906610146</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         <v>120</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4903,19 +4903,19 @@
         <v>1491444</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" ref="G143:J143" si="43">F146</f>
+        <f t="shared" ref="G143:J143" si="58">F146</f>
         <v>1451033.5456384211</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1436844.8504523279</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1443484.1718981555</v>
       </c>
       <c r="J143" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1471114.0152193988</v>
       </c>
     </row>
@@ -5005,11 +5005,11 @@
         <v>1323453</v>
       </c>
       <c r="D146" s="42">
-        <f t="shared" ref="D146:E146" si="44">SUM(D143:D145)</f>
+        <f t="shared" ref="D146:E146" si="59">SUM(D143:D145)</f>
         <v>1398257</v>
       </c>
       <c r="E146" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>1491444</v>
       </c>
       <c r="F146" s="42">
@@ -5017,19 +5017,19 @@
         <v>1451033.5456384211</v>
       </c>
       <c r="G146" s="42">
-        <f t="shared" ref="G146:J146" si="45">SUM(G143:G145)</f>
+        <f t="shared" ref="G146:J146" si="60">SUM(G143:G145)</f>
         <v>1436844.8504523279</v>
       </c>
       <c r="H146" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>1443484.1718981555</v>
       </c>
       <c r="I146" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>1471114.0152193988</v>
       </c>
       <c r="J146" s="43">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>1515274.7731222869</v>
       </c>
     </row>
@@ -5161,9 +5161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B2E81-2EB3-4D9C-9386-472B8A222F75}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5179,7 +5179,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>61</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="31">
         <f>Model!C16/Model!C8</f>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="33">
         <v>0.05</v>
@@ -5523,7 +5523,7 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5682,7 +5682,7 @@
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -5714,7 +5714,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5915,7 +5915,7 @@
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6040,7 +6040,7 @@
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
@@ -6050,22 +6050,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>137</v>
       </c>
       <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -6112,7 +6112,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -6231,7 +6231,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="27">
         <f>SUM(F38:F44)</f>
